--- a/Results.xlsx
+++ b/Results.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="Georgia" r:id="rId3" sheetId="1"/>
-    <sheet name="Vietnam" r:id="rId4" sheetId="2"/>
-    <sheet name="China" r:id="rId5" sheetId="3"/>
-    <sheet name="Kenya" r:id="rId6" sheetId="4"/>
+    <sheet name="Kenya" r:id="rId4" sheetId="2"/>
+    <sheet name="Vietnam" r:id="rId5" sheetId="3"/>
+    <sheet name="China" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -364,43 +364,43 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>9.845505722246905</v>
+        <v>10.785616716623265</v>
       </c>
       <c r="D2" t="n">
-        <v>5091.547558814632</v>
+        <v>5064.9680202359505</v>
       </c>
       <c r="E2" t="n">
-        <v>4124.153522639853</v>
+        <v>4102.6240963911205</v>
       </c>
       <c r="F2" t="n">
-        <v>3059.0908754181105</v>
+        <v>3043.121423498114</v>
       </c>
       <c r="G2" t="n">
-        <v>1753618.4680099965</v>
+        <v>1919753.4906252082</v>
       </c>
       <c r="H2" t="n">
-        <v>656234.6197257508</v>
+        <v>750069.8327141528</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5979991602316458</v>
+        <v>0.6412587092596528</v>
       </c>
       <c r="J2" t="n">
-        <v>1788.1270715615788</v>
+        <v>1777.9825302569998</v>
       </c>
       <c r="K2" t="n">
-        <v>1448.3829279648794</v>
+        <v>1440.1658495081697</v>
       </c>
       <c r="L2" t="n">
-        <v>1074.3380368179487</v>
+        <v>1068.2430188726855</v>
       </c>
       <c r="M2" t="n">
-        <v>366.99551735585453</v>
+        <v>421.86569325050306</v>
       </c>
       <c r="N2" t="n">
-        <v>453.0808856245116</v>
+        <v>520.8218435191396</v>
       </c>
       <c r="O2" t="n">
-        <v>610.8269438820518</v>
+        <v>702.1528055532717</v>
       </c>
     </row>
     <row r="3">
@@ -411,43 +411,43 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>24.870653621687104</v>
+        <v>27.88080285857606</v>
       </c>
       <c r="D3" t="n">
-        <v>12442.631088979424</v>
+        <v>12374.48530310219</v>
       </c>
       <c r="E3" t="n">
-        <v>10078.531182073335</v>
+        <v>10023.333095512773</v>
       </c>
       <c r="F3" t="n">
-        <v>7475.750504302897</v>
+        <v>7434.807323596599</v>
       </c>
       <c r="G3" t="n">
-        <v>4429801.650911728</v>
+        <v>4962559.86240367</v>
       </c>
       <c r="H3" t="n">
-        <v>3332417.8026274825</v>
+        <v>3792876.2044926146</v>
       </c>
       <c r="I3" t="n">
-        <v>3.0366929564688796</v>
+        <v>3.2426512748466823</v>
       </c>
       <c r="J3" t="n">
-        <v>9139.21060172637</v>
+        <v>9087.499813123239</v>
       </c>
       <c r="K3" t="n">
-        <v>7402.760587398361</v>
+        <v>7360.874848629823</v>
       </c>
       <c r="L3" t="n">
-        <v>5490.997665702735</v>
+        <v>5459.928918971171</v>
       </c>
       <c r="M3" t="n">
-        <v>364.62862580253903</v>
+        <v>417.3729059136079</v>
       </c>
       <c r="N3" t="n">
-        <v>450.1587972870852</v>
+        <v>515.2751924859357</v>
       </c>
       <c r="O3" t="n">
-        <v>606.8874921295385</v>
+        <v>694.6750151478742</v>
       </c>
     </row>
     <row r="4">
@@ -458,43 +458,43 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>9.629724737532387</v>
+        <v>10.60642159778352</v>
       </c>
       <c r="D4" t="n">
-        <v>4942.616125875772</v>
+        <v>4916.777570332003</v>
       </c>
       <c r="E4" t="n">
-        <v>4003.519061959376</v>
+        <v>3982.589831968923</v>
       </c>
       <c r="F4" t="n">
-        <v>2969.610264208367</v>
+        <v>2954.0860078629485</v>
       </c>
       <c r="G4" t="n">
-        <v>1715184.9400109486</v>
+        <v>1887858.1930326843</v>
       </c>
       <c r="H4" t="n">
-        <v>617801.0917267029</v>
+        <v>718174.5351216288</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5629762937486568</v>
+        <v>0.6139903983990173</v>
       </c>
       <c r="J4" t="n">
-        <v>1639.195638622719</v>
+        <v>1629.7920803530524</v>
       </c>
       <c r="K4" t="n">
-        <v>1327.7484672844025</v>
+        <v>1320.1315850859723</v>
       </c>
       <c r="L4" t="n">
-        <v>984.8574256082052</v>
+        <v>979.2076032375201</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8928352236163</v>
+        <v>440.65408329021625</v>
       </c>
       <c r="N4" t="n">
-        <v>465.2997965723657</v>
+        <v>544.0173867780449</v>
       </c>
       <c r="O4" t="n">
-        <v>627.3000290830682</v>
+        <v>733.4241817027904</v>
       </c>
     </row>
     <row r="5">
@@ -505,43 +505,43 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>11.081572138702112</v>
+        <v>12.104301641920053</v>
       </c>
       <c r="D5" t="n">
-        <v>5789.154031028604</v>
+        <v>5758.6579178480315</v>
       </c>
       <c r="E5" t="n">
-        <v>4689.214765133169</v>
+        <v>4664.512913456906</v>
       </c>
       <c r="F5" t="n">
-        <v>3478.2250520375283</v>
+        <v>3459.90245355666</v>
       </c>
       <c r="G5" t="n">
-        <v>1973778.7072839325</v>
+        <v>2154468.857848634</v>
       </c>
       <c r="H5" t="n">
-        <v>876394.8589996868</v>
+        <v>984785.1999375785</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7986219775057979</v>
+        <v>0.8419243897929735</v>
       </c>
       <c r="J5" t="n">
-        <v>2485.7335437755505</v>
+        <v>2471.672427869081</v>
       </c>
       <c r="K5" t="n">
-        <v>2013.4441704581955</v>
+        <v>2002.0546665739553</v>
       </c>
       <c r="L5" t="n">
-        <v>1493.4722134373665</v>
+        <v>1485.0240489312316</v>
       </c>
       <c r="M5" t="n">
-        <v>352.5699128912028</v>
+        <v>398.42868692215734</v>
       </c>
       <c r="N5" t="n">
-        <v>435.2714973965468</v>
+        <v>491.8872678051326</v>
       </c>
       <c r="O5" t="n">
-        <v>586.8169833455299</v>
+        <v>663.1442774588911</v>
       </c>
     </row>
     <row r="6">
@@ -552,19 +552,19 @@
         <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>6.161145742291692</v>
+        <v>6.571551855763492</v>
       </c>
       <c r="D6" t="n">
-        <v>3303.420487253053</v>
+        <v>3286.9854899789507</v>
       </c>
       <c r="E6" t="n">
-        <v>2675.7705946749734</v>
+        <v>2662.458246882951</v>
       </c>
       <c r="F6" t="n">
-        <v>1984.7528386001618</v>
+        <v>1974.8784046254284</v>
       </c>
       <c r="G6" t="n">
-        <v>1097383.8482842457</v>
+        <v>1169683.6579110555</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -599,43 +599,43 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>9.791890608287371</v>
+        <v>10.727662621235805</v>
       </c>
       <c r="D7" t="n">
-        <v>5037.953061898888</v>
+        <v>5011.674419102833</v>
       </c>
       <c r="E7" t="n">
-        <v>4080.7419801381</v>
+        <v>4059.4562794732947</v>
       </c>
       <c r="F7" t="n">
-        <v>3026.8903637674352</v>
+        <v>3011.101695299317</v>
       </c>
       <c r="G7" t="n">
-        <v>1744068.8870482536</v>
+        <v>1909438.1252790035</v>
       </c>
       <c r="H7" t="n">
-        <v>646685.0387640079</v>
+        <v>739754.467367948</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5892970265373385</v>
+        <v>0.6324397732367054</v>
       </c>
       <c r="J7" t="n">
-        <v>1734.5325746458352</v>
+        <v>1724.6889291238822</v>
       </c>
       <c r="K7" t="n">
-        <v>1404.9713854631268</v>
+        <v>1396.9980325903439</v>
       </c>
       <c r="L7" t="n">
-        <v>1042.1375251672735</v>
+        <v>1036.2232906738884</v>
       </c>
       <c r="M7" t="n">
-        <v>372.82957277181777</v>
+        <v>428.92051712985307</v>
       </c>
       <c r="N7" t="n">
-        <v>460.28342317508356</v>
+        <v>529.5315026294485</v>
       </c>
       <c r="O7" t="n">
-        <v>620.5371394338847</v>
+        <v>713.8948468209613</v>
       </c>
     </row>
     <row r="8">
@@ -646,43 +646,43 @@
         <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>24.615262252113244</v>
+        <v>27.604751895931678</v>
       </c>
       <c r="D8" t="n">
-        <v>12187.337927068687</v>
+        <v>12120.633529604116</v>
       </c>
       <c r="E8" t="n">
-        <v>9871.743720925637</v>
+        <v>9817.713158979335</v>
       </c>
       <c r="F8" t="n">
-        <v>7322.365904996591</v>
+        <v>7282.288735672923</v>
       </c>
       <c r="G8" t="n">
-        <v>4384312.974667998</v>
+        <v>4913424.999460671</v>
       </c>
       <c r="H8" t="n">
-        <v>3286929.1263837526</v>
+        <v>3743741.3415496154</v>
       </c>
       <c r="I8" t="n">
-        <v>2.995241028490487</v>
+        <v>3.2006443077400806</v>
       </c>
       <c r="J8" t="n">
-        <v>8883.917439815634</v>
+        <v>8833.648039625165</v>
       </c>
       <c r="K8" t="n">
-        <v>7195.973126250663</v>
+        <v>7155.254912096385</v>
       </c>
       <c r="L8" t="n">
-        <v>5337.613066396429</v>
+        <v>5307.410331047495</v>
       </c>
       <c r="M8" t="n">
-        <v>369.98645571068766</v>
+        <v>423.80467557189115</v>
       </c>
       <c r="N8" t="n">
-        <v>456.7734021119601</v>
+        <v>523.2156488541865</v>
       </c>
       <c r="O8" t="n">
-        <v>615.8050584589957</v>
+        <v>705.3800456409658</v>
       </c>
     </row>
     <row r="9">
@@ -693,43 +693,43 @@
         <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>9.566596473404998</v>
+        <v>10.53817786122395</v>
       </c>
       <c r="D9" t="n">
-        <v>4879.512136959043</v>
+        <v>4854.02179005929</v>
       </c>
       <c r="E9" t="n">
-        <v>3952.4048309368254</v>
+        <v>3931.757649948025</v>
       </c>
       <c r="F9" t="n">
-        <v>2931.69628334739</v>
+        <v>2916.3812368489475</v>
       </c>
       <c r="G9" t="n">
-        <v>1703940.9376254682</v>
+        <v>1875711.3538749735</v>
       </c>
       <c r="H9" t="n">
-        <v>606557.0893412225</v>
+        <v>706027.695963918</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5527301046844927</v>
+        <v>0.6036056767902672</v>
       </c>
       <c r="J9" t="n">
-        <v>1576.0916497059902</v>
+        <v>1567.036300080339</v>
       </c>
       <c r="K9" t="n">
-        <v>1276.634236261852</v>
+        <v>1269.2994030650743</v>
       </c>
       <c r="L9" t="n">
-        <v>946.9434447472281</v>
+        <v>941.5028322235191</v>
       </c>
       <c r="M9" t="n">
-        <v>384.84886932455476</v>
+        <v>450.5496751592297</v>
       </c>
       <c r="N9" t="n">
-        <v>475.12206089451206</v>
+        <v>556.2341668632467</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5420436730872</v>
+        <v>749.8943941533489</v>
       </c>
     </row>
     <row r="10">
@@ -740,43 +740,43 @@
         <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>11.008808769757032</v>
+        <v>12.025649655322784</v>
       </c>
       <c r="D10" t="n">
-        <v>5716.418642357236</v>
+        <v>5686.3308877388</v>
       </c>
       <c r="E10" t="n">
-        <v>4630.299100309362</v>
+        <v>4605.9280190684285</v>
       </c>
       <c r="F10" t="n">
-        <v>3434.52435765447</v>
+        <v>3416.447108144006</v>
       </c>
       <c r="G10" t="n">
-        <v>1960818.561692996</v>
+        <v>2140469.433450213</v>
       </c>
       <c r="H10" t="n">
-        <v>863434.7134087502</v>
+        <v>970785.7755391577</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7868119389206668</v>
+        <v>0.8299558337618305</v>
       </c>
       <c r="J10" t="n">
-        <v>2412.9981551041833</v>
+        <v>2399.345397759849</v>
       </c>
       <c r="K10" t="n">
-        <v>1954.5285056343887</v>
+        <v>1943.4697721854777</v>
       </c>
       <c r="L10" t="n">
-        <v>1449.771519054308</v>
+        <v>1441.5687035185776</v>
       </c>
       <c r="M10" t="n">
-        <v>357.82651204367403</v>
+        <v>404.6044293770845</v>
       </c>
       <c r="N10" t="n">
-        <v>441.76112597984445</v>
+        <v>499.5116412062772</v>
       </c>
       <c r="O10" t="n">
-        <v>595.5660613142492</v>
+        <v>673.4231765504245</v>
       </c>
     </row>
     <row r="11">
@@ -787,43 +787,43 @@
         <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>9.473503777246904</v>
+        <v>10.413599756623265</v>
       </c>
       <c r="D11" t="n">
-        <v>5091.547558814632</v>
+        <v>5064.9680202359505</v>
       </c>
       <c r="E11" t="n">
-        <v>4124.153522639853</v>
+        <v>4102.6240963911205</v>
       </c>
       <c r="F11" t="n">
-        <v>3059.0908754181105</v>
+        <v>3043.121423498114</v>
       </c>
       <c r="G11" t="n">
-        <v>1687359.862379044</v>
+        <v>1853537.4478808881</v>
       </c>
       <c r="H11" t="n">
-        <v>589976.0140947984</v>
+        <v>683853.7899698326</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5376204643591419</v>
+        <v>0.5846484947828808</v>
       </c>
       <c r="J11" t="n">
-        <v>1788.1270715615788</v>
+        <v>1777.9825302569998</v>
       </c>
       <c r="K11" t="n">
-        <v>1448.3829279648794</v>
+        <v>1440.1658495081697</v>
       </c>
       <c r="L11" t="n">
-        <v>1074.3380368179487</v>
+        <v>1068.2430188726855</v>
       </c>
       <c r="M11" t="n">
-        <v>329.94076510433337</v>
+        <v>384.6234585167631</v>
       </c>
       <c r="N11" t="n">
-        <v>407.33427790658425</v>
+        <v>474.8437759466211</v>
       </c>
       <c r="O11" t="n">
-        <v>549.1530541376266</v>
+        <v>640.1668701673351</v>
       </c>
     </row>
     <row r="12">
@@ -834,43 +834,43 @@
         <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>23.098651676687105</v>
+        <v>26.108785898576066</v>
       </c>
       <c r="D12" t="n">
-        <v>12442.631088979424</v>
+        <v>12374.48530310219</v>
       </c>
       <c r="E12" t="n">
-        <v>10078.531182073335</v>
+        <v>10023.333095512773</v>
       </c>
       <c r="F12" t="n">
-        <v>7475.750504302897</v>
+        <v>7434.807323596599</v>
       </c>
       <c r="G12" t="n">
-        <v>4114184.0052807764</v>
+        <v>4647155.019659352</v>
       </c>
       <c r="H12" t="n">
-        <v>3016800.1569965305</v>
+        <v>3477471.361748296</v>
       </c>
       <c r="I12" t="n">
-        <v>2.749083797536553</v>
+        <v>2.9730015788702486</v>
       </c>
       <c r="J12" t="n">
-        <v>9139.21060172637</v>
+        <v>9087.499813123239</v>
       </c>
       <c r="K12" t="n">
-        <v>7402.760587398361</v>
+        <v>7360.874848629823</v>
       </c>
       <c r="L12" t="n">
-        <v>5490.997665702735</v>
+        <v>5459.928918971171</v>
       </c>
       <c r="M12" t="n">
-        <v>330.09417207506584</v>
+        <v>382.6653571674892</v>
       </c>
       <c r="N12" t="n">
-        <v>407.52366922847625</v>
+        <v>472.42636687344356</v>
       </c>
       <c r="O12" t="n">
-        <v>549.4083845345147</v>
+        <v>636.9078083902172</v>
       </c>
     </row>
     <row r="13">
@@ -881,43 +881,43 @@
         <v>59</v>
       </c>
       <c r="C13" t="n">
-        <v>9.191716957532385</v>
+        <v>10.16835372278352</v>
       </c>
       <c r="D13" t="n">
-        <v>4942.616125875772</v>
+        <v>4916.777570332003</v>
       </c>
       <c r="E13" t="n">
-        <v>4003.519061959376</v>
+        <v>3982.589831968923</v>
       </c>
       <c r="F13" t="n">
-        <v>2969.610264208367</v>
+        <v>2954.0860078629485</v>
       </c>
       <c r="G13" t="n">
-        <v>1637169.7974871404</v>
+        <v>1809885.615825684</v>
       </c>
       <c r="H13" t="n">
-        <v>539785.9492028947</v>
+        <v>640201.9579146286</v>
       </c>
       <c r="I13" t="n">
-        <v>0.49188435755351</v>
+        <v>0.5473291462906892</v>
       </c>
       <c r="J13" t="n">
-        <v>1639.195638622719</v>
+        <v>1629.7920803530524</v>
       </c>
       <c r="K13" t="n">
-        <v>1327.7484672844025</v>
+        <v>1320.1315850859723</v>
       </c>
       <c r="L13" t="n">
-        <v>984.8574256082052</v>
+        <v>979.2076032375201</v>
       </c>
       <c r="M13" t="n">
-        <v>329.29928343174</v>
+        <v>392.8120437153832</v>
       </c>
       <c r="N13" t="n">
-        <v>406.54232522437024</v>
+        <v>484.95314038936203</v>
       </c>
       <c r="O13" t="n">
-        <v>548.085372732552</v>
+        <v>653.795942553909</v>
       </c>
     </row>
     <row r="14">
@@ -928,43 +928,43 @@
         <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>10.709570193702113</v>
+        <v>11.732284681920053</v>
       </c>
       <c r="D14" t="n">
-        <v>5789.154031028604</v>
+        <v>5758.6579178480315</v>
       </c>
       <c r="E14" t="n">
-        <v>4689.214765133169</v>
+        <v>4664.512913456906</v>
       </c>
       <c r="F14" t="n">
-        <v>3478.2250520375283</v>
+        <v>3459.90245355666</v>
       </c>
       <c r="G14" t="n">
-        <v>1907520.1016529808</v>
+        <v>2088252.815104314</v>
       </c>
       <c r="H14" t="n">
-        <v>810136.2533687351</v>
+        <v>918569.1571932584</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7382432816332947</v>
+        <v>0.7853141753162014</v>
       </c>
       <c r="J14" t="n">
-        <v>2485.7335437755505</v>
+        <v>2471.672427869081</v>
       </c>
       <c r="K14" t="n">
-        <v>2013.4441704581955</v>
+        <v>2002.0546665739553</v>
       </c>
       <c r="L14" t="n">
-        <v>1493.4722134373665</v>
+        <v>1485.0240489312316</v>
       </c>
       <c r="M14" t="n">
-        <v>325.9143585189863</v>
+        <v>371.63871184386295</v>
       </c>
       <c r="N14" t="n">
-        <v>402.3634055789955</v>
+        <v>458.81322449859624</v>
       </c>
       <c r="O14" t="n">
-        <v>542.4515073528756</v>
+        <v>618.555071787794</v>
       </c>
     </row>
     <row r="15">
@@ -975,43 +975,43 @@
         <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>9.41988866328737</v>
+        <v>10.355645661235805</v>
       </c>
       <c r="D15" t="n">
-        <v>5037.953061898888</v>
+        <v>5011.674419102833</v>
       </c>
       <c r="E15" t="n">
-        <v>4080.7419801381</v>
+        <v>4059.4562794732947</v>
       </c>
       <c r="F15" t="n">
-        <v>3026.8903637674352</v>
+        <v>3011.101695299317</v>
       </c>
       <c r="G15" t="n">
-        <v>1677810.2814173016</v>
+        <v>1843222.0825346834</v>
       </c>
       <c r="H15" t="n">
-        <v>580426.4331330559</v>
+        <v>673538.4246236279</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5289183306648351</v>
+        <v>0.5758295587599334</v>
       </c>
       <c r="J15" t="n">
-        <v>1734.5325746458352</v>
+        <v>1724.6889291238822</v>
       </c>
       <c r="K15" t="n">
-        <v>1404.9713854631268</v>
+        <v>1396.9980325903439</v>
       </c>
       <c r="L15" t="n">
-        <v>1042.1375251672735</v>
+        <v>1036.2232906738884</v>
       </c>
       <c r="M15" t="n">
-        <v>334.6298833572325</v>
+        <v>390.5274819417876</v>
       </c>
       <c r="N15" t="n">
-        <v>413.12331278670666</v>
+        <v>482.1326937552936</v>
       </c>
       <c r="O15" t="n">
-        <v>556.9576175081995</v>
+        <v>649.9935203981034</v>
       </c>
     </row>
     <row r="16">
@@ -1022,43 +1022,43 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>22.84326030711324</v>
+        <v>25.832734935931676</v>
       </c>
       <c r="D16" t="n">
-        <v>12187.337927068687</v>
+        <v>12120.633529604116</v>
       </c>
       <c r="E16" t="n">
-        <v>9871.743720925637</v>
+        <v>9817.713158979335</v>
       </c>
       <c r="F16" t="n">
-        <v>7322.365904996591</v>
+        <v>7282.288735672923</v>
       </c>
       <c r="G16" t="n">
-        <v>4068695.329037045</v>
+        <v>4598020.1567163505</v>
       </c>
       <c r="H16" t="n">
-        <v>2971311.4807527997</v>
+        <v>3428336.4988052947</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7076318695581594</v>
+        <v>2.9309946117636456</v>
       </c>
       <c r="J16" t="n">
-        <v>8883.917439815634</v>
+        <v>8833.648039625165</v>
       </c>
       <c r="K16" t="n">
-        <v>7195.973126250663</v>
+        <v>7155.254912096385</v>
       </c>
       <c r="L16" t="n">
-        <v>5337.613066396429</v>
+        <v>5307.410331047495</v>
       </c>
       <c r="M16" t="n">
-        <v>334.4596008328577</v>
+        <v>388.09973902364897</v>
       </c>
       <c r="N16" t="n">
-        <v>412.91308744797243</v>
+        <v>479.1354802761097</v>
       </c>
       <c r="O16" t="n">
-        <v>556.6741994580013</v>
+        <v>645.9527876995074</v>
       </c>
     </row>
     <row r="17">
@@ -1069,43 +1069,43 @@
         <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>9.128588693404998</v>
+        <v>10.100109986223949</v>
       </c>
       <c r="D17" t="n">
-        <v>4879.512136959043</v>
+        <v>4854.02179005929</v>
       </c>
       <c r="E17" t="n">
-        <v>3952.4048309368254</v>
+        <v>3931.757649948025</v>
       </c>
       <c r="F17" t="n">
-        <v>2931.69628334739</v>
+        <v>2916.3812368489475</v>
       </c>
       <c r="G17" t="n">
-        <v>1625925.7951016605</v>
+        <v>1797738.776667973</v>
       </c>
       <c r="H17" t="n">
-        <v>528541.9468174148</v>
+        <v>628055.1187569175</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4816381684893464</v>
+        <v>0.5369444246819389</v>
       </c>
       <c r="J17" t="n">
-        <v>1576.0916497059902</v>
+        <v>1567.036300080339</v>
       </c>
       <c r="K17" t="n">
-        <v>1276.634236261852</v>
+        <v>1269.2994030650743</v>
       </c>
       <c r="L17" t="n">
-        <v>946.9434447472281</v>
+        <v>941.5028322235191</v>
       </c>
       <c r="M17" t="n">
-        <v>335.34975387758124</v>
+        <v>400.7916847393505</v>
       </c>
       <c r="N17" t="n">
-        <v>414.0120418241744</v>
+        <v>494.8045490609267</v>
       </c>
       <c r="O17" t="n">
-        <v>558.155769227064</v>
+        <v>667.0772484811953</v>
       </c>
     </row>
     <row r="18">
@@ -1116,43 +1116,43 @@
         <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>10.63680682475703</v>
+        <v>11.653632695322784</v>
       </c>
       <c r="D18" t="n">
-        <v>5716.418642357236</v>
+        <v>5686.3308877388</v>
       </c>
       <c r="E18" t="n">
-        <v>4630.299100309362</v>
+        <v>4605.9280190684285</v>
       </c>
       <c r="F18" t="n">
-        <v>3434.52435765447</v>
+        <v>3416.447108144006</v>
       </c>
       <c r="G18" t="n">
-        <v>1894559.9560620438</v>
+        <v>2074253.3907058933</v>
       </c>
       <c r="H18" t="n">
-        <v>797176.1077777981</v>
+        <v>904569.7327948378</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7264332430481631</v>
+        <v>0.7733456192850585</v>
       </c>
       <c r="J18" t="n">
-        <v>2412.9981551041833</v>
+        <v>2399.345397759849</v>
       </c>
       <c r="K18" t="n">
-        <v>1954.5285056343887</v>
+        <v>1943.4697721854777</v>
       </c>
       <c r="L18" t="n">
-        <v>1449.771519054308</v>
+        <v>1441.5687035185776</v>
       </c>
       <c r="M18" t="n">
-        <v>330.36747503993814</v>
+        <v>377.006884310775</v>
       </c>
       <c r="N18" t="n">
-        <v>407.8610802962199</v>
+        <v>465.440597914537</v>
       </c>
       <c r="O18" t="n">
-        <v>549.8632696949373</v>
+        <v>627.4898522609196</v>
       </c>
     </row>
     <row r="19">
@@ -1163,43 +1163,43 @@
         <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>1.8080789048643782</v>
+        <v>2.189586490422008</v>
       </c>
       <c r="D19" t="n">
-        <v>5091.547558814632</v>
+        <v>5064.9680202359505</v>
       </c>
       <c r="E19" t="n">
-        <v>4124.153522639853</v>
+        <v>4102.6240963911205</v>
       </c>
       <c r="F19" t="n">
-        <v>3059.0908754181105</v>
+        <v>3043.121423498114</v>
       </c>
       <c r="G19" t="n">
-        <v>322043.44282945193</v>
+        <v>389728.8786031941</v>
       </c>
       <c r="H19" t="n">
-        <v>153472.34009917293</v>
+        <v>212977.19557018546</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9104308960043719</v>
+        <v>1.2049514432652484</v>
       </c>
       <c r="J19" t="n">
-        <v>1788.1270715615788</v>
+        <v>1777.9825302569998</v>
       </c>
       <c r="K19" t="n">
-        <v>1448.3829279648794</v>
+        <v>1440.1658495081697</v>
       </c>
       <c r="L19" t="n">
-        <v>1074.3380368179487</v>
+        <v>1068.2430188726855</v>
       </c>
       <c r="M19" t="n">
-        <v>85.82854235585444</v>
+        <v>119.78587637719957</v>
       </c>
       <c r="N19" t="n">
-        <v>105.96116340228939</v>
+        <v>147.88379799654268</v>
       </c>
       <c r="O19" t="n">
-        <v>142.85293347123618</v>
+        <v>199.37148364886093</v>
       </c>
     </row>
     <row r="20">
@@ -1210,43 +1210,43 @@
         <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>5.228936513452246</v>
+        <v>6.87939687256268</v>
       </c>
       <c r="D20" t="n">
-        <v>12442.631088979424</v>
+        <v>12374.48530310219</v>
       </c>
       <c r="E20" t="n">
-        <v>10078.531182073335</v>
+        <v>10023.333095512773</v>
       </c>
       <c r="F20" t="n">
-        <v>7475.750504302897</v>
+        <v>7434.807323596599</v>
       </c>
       <c r="G20" t="n">
-        <v>931344.706582428</v>
+        <v>1224477.6081411764</v>
       </c>
       <c r="H20" t="n">
-        <v>762773.603852149</v>
+        <v>1047725.9251081678</v>
       </c>
       <c r="I20" t="n">
-        <v>4.524936904948765</v>
+        <v>5.927671562326813</v>
       </c>
       <c r="J20" t="n">
-        <v>9139.21060172637</v>
+        <v>9087.499813123239</v>
       </c>
       <c r="K20" t="n">
-        <v>7402.760587398361</v>
+        <v>7360.874848629823</v>
       </c>
       <c r="L20" t="n">
-        <v>5490.997665702735</v>
+        <v>5459.928918971171</v>
       </c>
       <c r="M20" t="n">
-        <v>83.46165080253904</v>
+        <v>115.29308904030447</v>
       </c>
       <c r="N20" t="n">
-        <v>103.03907506486298</v>
+        <v>142.33714696333885</v>
       </c>
       <c r="O20" t="n">
-        <v>138.91348171872326</v>
+        <v>191.89369324346325</v>
       </c>
     </row>
     <row r="21">
@@ -1257,43 +1257,43 @@
         <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>1.8273984429725676</v>
+        <v>2.2618933714999954</v>
       </c>
       <c r="D21" t="n">
-        <v>4942.616125875772</v>
+        <v>4916.777570332003</v>
       </c>
       <c r="E21" t="n">
-        <v>4003.519061959376</v>
+        <v>3982.589831968923</v>
       </c>
       <c r="F21" t="n">
-        <v>2969.610264208367</v>
+        <v>2954.0860078629485</v>
       </c>
       <c r="G21" t="n">
-        <v>325484.5153122387</v>
+        <v>402598.9249800272</v>
       </c>
       <c r="H21" t="n">
-        <v>156913.4125819597</v>
+        <v>225847.24194701857</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9308440773091928</v>
+        <v>1.2777657223486878</v>
       </c>
       <c r="J21" t="n">
-        <v>1639.195638622719</v>
+        <v>1629.7920803530524</v>
       </c>
       <c r="K21" t="n">
-        <v>1327.7484672844025</v>
+        <v>1320.1315850859723</v>
       </c>
       <c r="L21" t="n">
-        <v>984.8574256082052</v>
+        <v>979.2076032375201</v>
       </c>
       <c r="M21" t="n">
-        <v>95.72586022361622</v>
+        <v>138.57426641691288</v>
       </c>
       <c r="N21" t="n">
-        <v>118.18007435014346</v>
+        <v>171.079341255448</v>
       </c>
       <c r="O21" t="n">
-        <v>159.3260186722528</v>
+        <v>230.6428597983795</v>
       </c>
     </row>
     <row r="22">
@@ -1304,43 +1304,43 @@
         <v>68</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9429160972018107</v>
+        <v>2.3309729009680313</v>
       </c>
       <c r="D22" t="n">
-        <v>5789.154031028604</v>
+        <v>5758.6579178480315</v>
       </c>
       <c r="E22" t="n">
-        <v>4689.214765133169</v>
+        <v>4664.512913456906</v>
       </c>
       <c r="F22" t="n">
-        <v>3478.2250520375283</v>
+        <v>3459.90245355666</v>
       </c>
       <c r="G22" t="n">
-        <v>346059.78057056444</v>
+        <v>414894.52858910186</v>
       </c>
       <c r="H22" t="n">
-        <v>177488.67784028544</v>
+        <v>238142.84555609323</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0529009715518973</v>
+        <v>1.3473300025755326</v>
       </c>
       <c r="J22" t="n">
-        <v>2485.7335437755505</v>
+        <v>2471.672427869081</v>
       </c>
       <c r="K22" t="n">
-        <v>2013.4441704581955</v>
+        <v>2002.0546665739553</v>
       </c>
       <c r="L22" t="n">
-        <v>1493.4722134373665</v>
+        <v>1485.0240489312316</v>
       </c>
       <c r="M22" t="n">
-        <v>71.40293789120295</v>
+        <v>96.34887004885388</v>
       </c>
       <c r="N22" t="n">
-        <v>88.15177517432465</v>
+        <v>118.94922228253567</v>
       </c>
       <c r="O22" t="n">
-        <v>118.84297293471472</v>
+        <v>160.36295555448015</v>
       </c>
     </row>
     <row r="23">
@@ -1351,19 +1351,19 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9464246566813482</v>
+        <v>0.9930316139658446</v>
       </c>
       <c r="D23" t="n">
-        <v>3303.420487253053</v>
+        <v>3286.9854899789507</v>
       </c>
       <c r="E23" t="n">
-        <v>2675.7705946749734</v>
+        <v>2662.458246882951</v>
       </c>
       <c r="F23" t="n">
-        <v>1984.7528386001618</v>
+        <v>1974.8784046254284</v>
       </c>
       <c r="G23" t="n">
-        <v>168571.102730279</v>
+        <v>176751.68303300862</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -1398,43 +1398,43 @@
         <v>70</v>
       </c>
       <c r="C24" t="n">
-        <v>1.839067114707443</v>
+        <v>2.2220798380140696</v>
       </c>
       <c r="D24" t="n">
-        <v>5037.953061898888</v>
+        <v>5011.674419102833</v>
       </c>
       <c r="E24" t="n">
-        <v>4080.7419801381</v>
+        <v>4059.4562794732947</v>
       </c>
       <c r="F24" t="n">
-        <v>3026.8903637674352</v>
+        <v>3011.101695299317</v>
       </c>
       <c r="G24" t="n">
-        <v>327562.86444215564</v>
+        <v>395512.4345278003</v>
       </c>
       <c r="H24" t="n">
-        <v>158991.76171187664</v>
+        <v>218760.75149479168</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9431732908947643</v>
+        <v>1.2376728059440192</v>
       </c>
       <c r="J24" t="n">
-        <v>1734.5325746458352</v>
+        <v>1724.6889291238822</v>
       </c>
       <c r="K24" t="n">
-        <v>1404.9713854631268</v>
+        <v>1396.9980325903439</v>
       </c>
       <c r="L24" t="n">
-        <v>1042.1375251672735</v>
+        <v>1036.2232906738884</v>
       </c>
       <c r="M24" t="n">
-        <v>91.66259777181774</v>
+        <v>126.8407002565495</v>
       </c>
       <c r="N24" t="n">
-        <v>113.16370095286139</v>
+        <v>156.5934571068513</v>
       </c>
       <c r="O24" t="n">
-        <v>152.56312902306908</v>
+        <v>211.1135249165503</v>
       </c>
     </row>
     <row r="25">
@@ -1445,43 +1445,43 @@
         <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>5.376546408647764</v>
+        <v>7.03417143719626</v>
       </c>
       <c r="D25" t="n">
-        <v>12187.337927068687</v>
+        <v>12120.633529604116</v>
       </c>
       <c r="E25" t="n">
-        <v>9871.743720925637</v>
+        <v>9817.713158979335</v>
       </c>
       <c r="F25" t="n">
-        <v>7322.365904996591</v>
+        <v>7282.288735672923</v>
       </c>
       <c r="G25" t="n">
-        <v>957636.0364113244</v>
+        <v>1252026.2424494368</v>
       </c>
       <c r="H25" t="n">
-        <v>789064.9336810454</v>
+        <v>1075274.5594164282</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6809027223579545</v>
+        <v>6.083532224220004</v>
       </c>
       <c r="J25" t="n">
-        <v>8883.917439815634</v>
+        <v>8833.648039625165</v>
       </c>
       <c r="K25" t="n">
-        <v>7195.973126250663</v>
+        <v>7155.254912096385</v>
       </c>
       <c r="L25" t="n">
-        <v>5337.613066396429</v>
+        <v>5307.410331047495</v>
       </c>
       <c r="M25" t="n">
-        <v>88.81948071068756</v>
+        <v>121.72485869858757</v>
       </c>
       <c r="N25" t="n">
-        <v>109.65367988973773</v>
+        <v>150.27760333158955</v>
       </c>
       <c r="O25" t="n">
-        <v>147.8310480481803</v>
+        <v>202.5987237365548</v>
       </c>
     </row>
     <row r="26">
@@ -1492,43 +1492,43 @@
         <v>72</v>
       </c>
       <c r="C26" t="n">
-        <v>1.8638850183304863</v>
+        <v>2.3001558521441323</v>
       </c>
       <c r="D26" t="n">
-        <v>4879.512136959043</v>
+        <v>4854.02179005929</v>
       </c>
       <c r="E26" t="n">
-        <v>3952.4048309368254</v>
+        <v>3931.757649948025</v>
       </c>
       <c r="F26" t="n">
-        <v>2931.69628334739</v>
+        <v>2916.3812368489475</v>
       </c>
       <c r="G26" t="n">
-        <v>331983.2706009089</v>
+        <v>409409.34043483844</v>
       </c>
       <c r="H26" t="n">
-        <v>163412.1678706299</v>
+        <v>232657.6574018298</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9693960899816642</v>
+        <v>1.316296701731438</v>
       </c>
       <c r="J26" t="n">
-        <v>1576.0916497059902</v>
+        <v>1567.036300080339</v>
       </c>
       <c r="K26" t="n">
-        <v>1276.634236261852</v>
+        <v>1269.2994030650743</v>
       </c>
       <c r="L26" t="n">
-        <v>946.9434447472281</v>
+        <v>941.5028322235191</v>
       </c>
       <c r="M26" t="n">
-        <v>103.68189432455492</v>
+        <v>148.46985828592605</v>
       </c>
       <c r="N26" t="n">
-        <v>128.00233867229002</v>
+        <v>183.29612134064948</v>
       </c>
       <c r="O26" t="n">
-        <v>172.5680332622718</v>
+        <v>247.11307224893756</v>
       </c>
     </row>
     <row r="27">
@@ -1539,43 +1539,43 @@
         <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>1.9849715248459698</v>
+        <v>2.375071015557258</v>
       </c>
       <c r="D27" t="n">
-        <v>5716.418642357236</v>
+        <v>5686.3308877388</v>
       </c>
       <c r="E27" t="n">
-        <v>4630.299100309362</v>
+        <v>4605.9280190684285</v>
       </c>
       <c r="F27" t="n">
-        <v>3434.52435765447</v>
+        <v>3416.447108144006</v>
       </c>
       <c r="G27" t="n">
-        <v>353550.4241878051</v>
+        <v>422743.6402010674</v>
       </c>
       <c r="H27" t="n">
-        <v>184979.3214575261</v>
+        <v>245991.95716805875</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0973370789031436</v>
+        <v>1.391737566211007</v>
       </c>
       <c r="J27" t="n">
-        <v>2412.9981551041833</v>
+        <v>2399.345397759849</v>
       </c>
       <c r="K27" t="n">
-        <v>1954.5285056343887</v>
+        <v>1943.4697721854777</v>
       </c>
       <c r="L27" t="n">
-        <v>1449.771519054308</v>
+        <v>1441.5687035185776</v>
       </c>
       <c r="M27" t="n">
-        <v>76.65953704367398</v>
+        <v>102.52461250378097</v>
       </c>
       <c r="N27" t="n">
-        <v>94.64140375762217</v>
+        <v>126.57359568368021</v>
       </c>
       <c r="O27" t="n">
-        <v>127.59205090343399</v>
+        <v>170.64185464601314</v>
       </c>
     </row>
     <row r="28">
@@ -1586,43 +1586,43 @@
         <v>74</v>
       </c>
       <c r="C28" t="n">
-        <v>1.4360769598643783</v>
+        <v>1.8175695304220083</v>
       </c>
       <c r="D28" t="n">
-        <v>5091.547558814632</v>
+        <v>5064.9680202359505</v>
       </c>
       <c r="E28" t="n">
-        <v>4124.153522639853</v>
+        <v>4102.6240963911205</v>
       </c>
       <c r="F28" t="n">
-        <v>3059.0908754181105</v>
+        <v>3043.121423498114</v>
       </c>
       <c r="G28" t="n">
-        <v>255784.83719849994</v>
+        <v>323512.8358588741</v>
       </c>
       <c r="H28" t="n">
-        <v>87213.73446822094</v>
+        <v>146761.15282586546</v>
       </c>
       <c r="I28" t="n">
-        <v>0.517370611306771</v>
+        <v>0.8303239341628086</v>
       </c>
       <c r="J28" t="n">
-        <v>1788.1270715615788</v>
+        <v>1777.9825302569998</v>
       </c>
       <c r="K28" t="n">
-        <v>1448.3829279648794</v>
+        <v>1440.1658495081697</v>
       </c>
       <c r="L28" t="n">
-        <v>1074.3380368179487</v>
+        <v>1068.2430188726855</v>
       </c>
       <c r="M28" t="n">
-        <v>48.77379010433348</v>
+        <v>82.54364164345965</v>
       </c>
       <c r="N28" t="n">
-        <v>60.214555684362296</v>
+        <v>101.90573042402428</v>
       </c>
       <c r="O28" t="n">
-        <v>81.17904372681137</v>
+        <v>137.38554826292446</v>
       </c>
     </row>
     <row r="29">
@@ -1633,43 +1633,43 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>3.4569345684522457</v>
+        <v>5.10737991256268</v>
       </c>
       <c r="D29" t="n">
-        <v>12442.631088979424</v>
+        <v>12374.48530310219</v>
       </c>
       <c r="E29" t="n">
-        <v>10078.531182073335</v>
+        <v>10023.333095512773</v>
       </c>
       <c r="F29" t="n">
-        <v>7475.750504302897</v>
+        <v>7434.807323596599</v>
       </c>
       <c r="G29" t="n">
-        <v>615727.0609514759</v>
+        <v>909072.7653968566</v>
       </c>
       <c r="H29" t="n">
-        <v>447155.9582211969</v>
+        <v>732321.082363848</v>
       </c>
       <c r="I29" t="n">
-        <v>2.652625218550451</v>
+        <v>4.143219853963631</v>
       </c>
       <c r="J29" t="n">
-        <v>9139.21060172637</v>
+        <v>9087.499813123239</v>
       </c>
       <c r="K29" t="n">
-        <v>7402.760587398361</v>
+        <v>7360.874848629823</v>
       </c>
       <c r="L29" t="n">
-        <v>5490.997665702735</v>
+        <v>5459.928918971171</v>
       </c>
       <c r="M29" t="n">
-        <v>48.927197075065806</v>
+        <v>80.58554029418572</v>
       </c>
       <c r="N29" t="n">
-        <v>60.40394700625407</v>
+        <v>99.48832135084658</v>
       </c>
       <c r="O29" t="n">
-        <v>81.43437412369946</v>
+        <v>134.12648648580597</v>
       </c>
     </row>
     <row r="30">
@@ -1680,43 +1680,43 @@
         <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>1.3893906629725676</v>
+        <v>1.8238254964999951</v>
       </c>
       <c r="D30" t="n">
-        <v>4942.616125875772</v>
+        <v>4916.777570332003</v>
       </c>
       <c r="E30" t="n">
-        <v>4003.519061959376</v>
+        <v>3982.589831968923</v>
       </c>
       <c r="F30" t="n">
-        <v>2969.610264208367</v>
+        <v>2954.0860078629485</v>
       </c>
       <c r="G30" t="n">
-        <v>247469.37278843074</v>
+        <v>324626.34777302714</v>
       </c>
       <c r="H30" t="n">
-        <v>78898.27005815174</v>
+        <v>147874.66474001852</v>
       </c>
       <c r="I30" t="n">
-        <v>0.46804148979432353</v>
+        <v>0.8366238001388803</v>
       </c>
       <c r="J30" t="n">
-        <v>1639.195638622719</v>
+        <v>1629.7920803530524</v>
       </c>
       <c r="K30" t="n">
-        <v>1327.7484672844025</v>
+        <v>1320.1315850859723</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8574256082052</v>
+        <v>979.2076032375201</v>
       </c>
       <c r="M30" t="n">
-        <v>48.13230843174001</v>
+        <v>90.73222684207994</v>
       </c>
       <c r="N30" t="n">
-        <v>59.42260300214815</v>
+        <v>112.01509486676535</v>
       </c>
       <c r="O30" t="n">
-        <v>80.11136232173666</v>
+        <v>151.01462064949828</v>
       </c>
     </row>
     <row r="31">
@@ -1727,43 +1727,43 @@
         <v>77</v>
       </c>
       <c r="C31" t="n">
-        <v>1.5709141522018106</v>
+        <v>1.9589559409680313</v>
       </c>
       <c r="D31" t="n">
-        <v>5789.154031028604</v>
+        <v>5758.6579178480315</v>
       </c>
       <c r="E31" t="n">
-        <v>4689.214765133169</v>
+        <v>4664.512913456906</v>
       </c>
       <c r="F31" t="n">
-        <v>3478.2250520375283</v>
+        <v>3459.90245355666</v>
       </c>
       <c r="G31" t="n">
-        <v>279801.17493961245</v>
+        <v>348678.48584478186</v>
       </c>
       <c r="H31" t="n">
-        <v>111230.07220933345</v>
+        <v>171926.80281177323</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6598406868542963</v>
+        <v>0.9727024934730928</v>
       </c>
       <c r="J31" t="n">
-        <v>2485.7335437755505</v>
+        <v>2471.672427869081</v>
       </c>
       <c r="K31" t="n">
-        <v>2013.4441704581955</v>
+        <v>2002.0546665739553</v>
       </c>
       <c r="L31" t="n">
-        <v>1493.4722134373665</v>
+        <v>1485.0240489312316</v>
       </c>
       <c r="M31" t="n">
-        <v>44.74738351898629</v>
+        <v>69.55889497055952</v>
       </c>
       <c r="N31" t="n">
-        <v>55.243683356773204</v>
+        <v>85.8751789759994</v>
       </c>
       <c r="O31" t="n">
-        <v>74.47749694206027</v>
+        <v>115.77374988338308</v>
       </c>
     </row>
     <row r="32">
@@ -1774,43 +1774,43 @@
         <v>78</v>
       </c>
       <c r="C32" t="n">
-        <v>1.467065169707443</v>
+        <v>1.8500628780140698</v>
       </c>
       <c r="D32" t="n">
-        <v>5037.953061898888</v>
+        <v>5011.674419102833</v>
       </c>
       <c r="E32" t="n">
-        <v>4080.7419801381</v>
+        <v>4059.4562794732947</v>
       </c>
       <c r="F32" t="n">
-        <v>3026.8903637674352</v>
+        <v>3011.101695299317</v>
       </c>
       <c r="G32" t="n">
-        <v>261304.25881120362</v>
+        <v>329296.3917834803</v>
       </c>
       <c r="H32" t="n">
-        <v>92733.15608092461</v>
+        <v>152544.70875047168</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5501130061971632</v>
+        <v>0.8630452968415794</v>
       </c>
       <c r="J32" t="n">
-        <v>1734.5325746458352</v>
+        <v>1724.6889291238822</v>
       </c>
       <c r="K32" t="n">
-        <v>1404.9713854631268</v>
+        <v>1396.9980325903439</v>
       </c>
       <c r="L32" t="n">
-        <v>1042.1375251672735</v>
+        <v>1036.2232906738884</v>
       </c>
       <c r="M32" t="n">
-        <v>53.46290835723238</v>
+        <v>88.44766506848411</v>
       </c>
       <c r="N32" t="n">
-        <v>66.0035905644844</v>
+        <v>109.1946482326965</v>
       </c>
       <c r="O32" t="n">
-        <v>88.98360709738382</v>
+        <v>147.21219849369248</v>
       </c>
     </row>
     <row r="33">
@@ -1821,43 +1821,43 @@
         <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>3.6045444636477635</v>
+        <v>5.26215447719626</v>
       </c>
       <c r="D33" t="n">
-        <v>12187.337927068687</v>
+        <v>12120.633529604116</v>
       </c>
       <c r="E33" t="n">
-        <v>9871.743720925637</v>
+        <v>9817.713158979335</v>
       </c>
       <c r="F33" t="n">
-        <v>7322.365904996591</v>
+        <v>7282.288735672923</v>
       </c>
       <c r="G33" t="n">
-        <v>642018.3907803723</v>
+        <v>936621.3997051168</v>
       </c>
       <c r="H33" t="n">
-        <v>473447.28805009334</v>
+        <v>759869.7166721082</v>
       </c>
       <c r="I33" t="n">
-        <v>2.808591035959641</v>
+        <v>4.299080515856822</v>
       </c>
       <c r="J33" t="n">
-        <v>8883.917439815634</v>
+        <v>8833.648039625165</v>
       </c>
       <c r="K33" t="n">
-        <v>7195.973126250663</v>
+        <v>7155.254912096385</v>
       </c>
       <c r="L33" t="n">
-        <v>5337.613066396429</v>
+        <v>5307.410331047495</v>
       </c>
       <c r="M33" t="n">
-        <v>53.29262583285766</v>
+        <v>86.01992215034542</v>
       </c>
       <c r="N33" t="n">
-        <v>65.79336522575021</v>
+        <v>106.19743475351285</v>
       </c>
       <c r="O33" t="n">
-        <v>88.70018904718599</v>
+        <v>143.17146579509648</v>
       </c>
     </row>
     <row r="34">
@@ -1868,43 +1868,43 @@
         <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>1.4258772383304863</v>
+        <v>1.8620879771441325</v>
       </c>
       <c r="D34" t="n">
-        <v>4879.512136959043</v>
+        <v>4854.02179005929</v>
       </c>
       <c r="E34" t="n">
-        <v>3952.4048309368254</v>
+        <v>3931.757649948025</v>
       </c>
       <c r="F34" t="n">
-        <v>2931.69628334739</v>
+        <v>2916.3812368489475</v>
       </c>
       <c r="G34" t="n">
-        <v>253968.1280771009</v>
+        <v>331436.76322783844</v>
       </c>
       <c r="H34" t="n">
-        <v>85397.0253468219</v>
+        <v>154685.08019482982</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5065935024667947</v>
+        <v>0.8751547795216307</v>
       </c>
       <c r="J34" t="n">
-        <v>1576.0916497059902</v>
+        <v>1567.036300080339</v>
       </c>
       <c r="K34" t="n">
-        <v>1276.634236261852</v>
+        <v>1269.2994030650743</v>
       </c>
       <c r="L34" t="n">
-        <v>946.9434447472281</v>
+        <v>941.5028322235191</v>
       </c>
       <c r="M34" t="n">
-        <v>54.18277887758124</v>
+        <v>98.71186786604713</v>
       </c>
       <c r="N34" t="n">
-        <v>66.89231960195215</v>
+        <v>121.86650353832982</v>
       </c>
       <c r="O34" t="n">
-        <v>90.18175881624833</v>
+        <v>164.29592657678435</v>
       </c>
     </row>
     <row r="35">
@@ -1915,43 +1915,43 @@
         <v>81</v>
       </c>
       <c r="C35" t="n">
-        <v>1.61296957984597</v>
+        <v>2.003054055557258</v>
       </c>
       <c r="D35" t="n">
-        <v>5716.418642357236</v>
+        <v>5686.3308877388</v>
       </c>
       <c r="E35" t="n">
-        <v>4630.299100309362</v>
+        <v>4605.9280190684285</v>
       </c>
       <c r="F35" t="n">
-        <v>3434.52435765447</v>
+        <v>3416.447108144006</v>
       </c>
       <c r="G35" t="n">
-        <v>287291.81855685316</v>
+        <v>356527.59745674743</v>
       </c>
       <c r="H35" t="n">
-        <v>118720.71582657416</v>
+        <v>179775.9144237388</v>
       </c>
       <c r="I35" t="n">
-        <v>0.704276794205543</v>
+        <v>1.0171100571085674</v>
       </c>
       <c r="J35" t="n">
-        <v>2412.9981551041833</v>
+        <v>2399.345397759849</v>
       </c>
       <c r="K35" t="n">
-        <v>1954.5285056343887</v>
+        <v>1943.4697721854777</v>
       </c>
       <c r="L35" t="n">
-        <v>1449.771519054308</v>
+        <v>1441.5687035185776</v>
       </c>
       <c r="M35" t="n">
-        <v>49.20050003993819</v>
+        <v>74.92706743747138</v>
       </c>
       <c r="N35" t="n">
-        <v>60.741358073997766</v>
+        <v>92.50255239193999</v>
       </c>
       <c r="O35" t="n">
-        <v>81.88925928412235</v>
+        <v>124.70853035650826</v>
       </c>
     </row>
   </sheetData>
@@ -2020,43 +2020,43 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>45.88429333704959</v>
+        <v>104.23905444080484</v>
       </c>
       <c r="D2" t="n">
-        <v>988.1266499999998</v>
+        <v>543.2762881259999</v>
       </c>
       <c r="E2" t="n">
-        <v>841.4096050079999</v>
+        <v>459.82905026984645</v>
       </c>
       <c r="F2" t="n">
-        <v>774.0968366073598</v>
+        <v>435.9179396558144</v>
       </c>
       <c r="G2" t="n">
-        <v>160595.02667967355</v>
+        <v>995430.8503824658</v>
       </c>
       <c r="H2" t="n">
-        <v>19232.36479167358</v>
+        <v>130564.00232264143</v>
       </c>
       <c r="I2" t="n">
-        <v>0.13604982061607726</v>
+        <v>0.15096428151401417</v>
       </c>
       <c r="J2" t="n">
-        <v>106.12664999999981</v>
+        <v>68.38442787599996</v>
       </c>
       <c r="K2" t="n">
-        <v>90.36896500799992</v>
+        <v>57.88057975424647</v>
       </c>
       <c r="L2" t="n">
-        <v>83.13944780735983</v>
+        <v>54.87078960702564</v>
       </c>
       <c r="M2" t="n">
-        <v>181.22087893732265</v>
+        <v>1909.2651116331685</v>
       </c>
       <c r="N2" t="n">
-        <v>212.82046098426636</v>
+        <v>2255.748005237672</v>
       </c>
       <c r="O2" t="n">
-        <v>231.32658802637675</v>
+        <v>2379.4810181831986</v>
       </c>
     </row>
     <row r="3">
@@ -2067,43 +2067,43 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>69.93046283288831</v>
+        <v>162.4812140430903</v>
       </c>
       <c r="D3" t="n">
-        <v>1468.85193</v>
+        <v>838.0891549692001</v>
       </c>
       <c r="E3" t="n">
-        <v>1250.7567954336</v>
+        <v>709.358660765931</v>
       </c>
       <c r="F3" t="n">
-        <v>1150.696251798912</v>
+        <v>672.4720104061024</v>
       </c>
       <c r="G3" t="n">
-        <v>244756.61991510907</v>
+        <v>1551614.3535044908</v>
       </c>
       <c r="H3" t="n">
-        <v>103393.9580271091</v>
+        <v>686747.5054446665</v>
       </c>
       <c r="I3" t="n">
-        <v>0.731409246587525</v>
+        <v>0.7940499823588602</v>
       </c>
       <c r="J3" t="n">
-        <v>586.85193</v>
+        <v>363.1972947192001</v>
       </c>
       <c r="K3" t="n">
-        <v>499.7161554336001</v>
+        <v>307.41019025033097</v>
       </c>
       <c r="L3" t="n">
-        <v>459.73886299891205</v>
+        <v>291.42486035731366</v>
       </c>
       <c r="M3" t="n">
-        <v>176.18406405702558</v>
+        <v>1890.8387133654555</v>
       </c>
       <c r="N3" t="n">
-        <v>206.90537398654826</v>
+        <v>2233.9776859232697</v>
       </c>
       <c r="O3" t="n">
-        <v>224.89714563755246</v>
+        <v>2356.516546332564</v>
       </c>
     </row>
     <row r="4">
@@ -2114,43 +2114,43 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>44.33455032231936</v>
+        <v>101.57445206648222</v>
       </c>
       <c r="D4" t="n">
-        <v>945.9626399999999</v>
+        <v>527.3199216216</v>
       </c>
       <c r="E4" t="n">
-        <v>805.5061072127999</v>
+        <v>446.3235816605223</v>
       </c>
       <c r="F4" t="n">
-        <v>741.0656186357759</v>
+        <v>423.11475541417514</v>
       </c>
       <c r="G4" t="n">
-        <v>155170.92612811775</v>
+        <v>969985.2300088719</v>
       </c>
       <c r="H4" t="n">
-        <v>13808.264240117773</v>
+        <v>105118.38194904756</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09767971298572393</v>
+        <v>0.12154285042242287</v>
       </c>
       <c r="J4" t="n">
-        <v>63.96263999999985</v>
+        <v>52.428061371599995</v>
       </c>
       <c r="K4" t="n">
-        <v>54.46546721279992</v>
+        <v>44.3751111449223</v>
       </c>
       <c r="L4" t="n">
-        <v>50.10822983577589</v>
+        <v>42.067605365386385</v>
       </c>
       <c r="M4" t="n">
-        <v>215.8801487886961</v>
+        <v>2005.0022678502019</v>
       </c>
       <c r="N4" t="n">
-        <v>253.52328634523664</v>
+        <v>2368.8590121103484</v>
       </c>
       <c r="O4" t="n">
-        <v>275.5687895056922</v>
+        <v>2498.7964262767364</v>
       </c>
     </row>
     <row r="5">
@@ -2161,43 +2161,43 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>48.53926489375103</v>
+        <v>107.17178735797029</v>
       </c>
       <c r="D5" t="n">
-        <v>1046.2438349999998</v>
+        <v>560.5504795425937</v>
       </c>
       <c r="E5" t="n">
-        <v>890.8975503791997</v>
+        <v>474.44992588485127</v>
       </c>
       <c r="F5" t="n">
-        <v>819.6257463488638</v>
+        <v>449.77852973883904</v>
       </c>
       <c r="G5" t="n">
-        <v>169887.4271281286</v>
+        <v>1023436.9833749372</v>
       </c>
       <c r="H5" t="n">
-        <v>28524.765240128618</v>
+        <v>158570.1353151129</v>
       </c>
       <c r="I5" t="n">
-        <v>0.20178429621485527</v>
+        <v>0.18334629853235435</v>
       </c>
       <c r="J5" t="n">
-        <v>164.24383499999976</v>
+        <v>85.65861929259376</v>
       </c>
       <c r="K5" t="n">
-        <v>139.8569103791998</v>
+        <v>72.50145536925129</v>
       </c>
       <c r="L5" t="n">
-        <v>128.6683575488638</v>
+        <v>68.73137969005029</v>
       </c>
       <c r="M5" t="n">
-        <v>173.6732781484837</v>
+        <v>1851.187149929035</v>
       </c>
       <c r="N5" t="n">
-        <v>203.95678098985775</v>
+        <v>2187.130375625043</v>
       </c>
       <c r="O5" t="n">
-        <v>221.6921532498454</v>
+        <v>2307.0995523470897</v>
       </c>
     </row>
     <row r="6">
@@ -2208,19 +2208,19 @@
         <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>40.38933196799999</v>
+        <v>90.56671533167436</v>
       </c>
       <c r="D6" t="n">
-        <v>882.0</v>
+        <v>474.89186025</v>
       </c>
       <c r="E6" t="n">
-        <v>751.0406399999999</v>
+        <v>401.9484705156</v>
       </c>
       <c r="F6" t="n">
-        <v>690.9573888</v>
+        <v>381.04715004878875</v>
       </c>
       <c r="G6" t="n">
-        <v>141362.66188799997</v>
+        <v>864866.8480598243</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -2255,43 +2255,43 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>45.26791983844653</v>
+        <v>99.2956433323839</v>
       </c>
       <c r="D7" t="n">
-        <v>972.7539191999999</v>
+        <v>512.84521772118</v>
       </c>
       <c r="E7" t="n">
-        <v>828.3194172771838</v>
+        <v>434.0721922792067</v>
       </c>
       <c r="F7" t="n">
-        <v>762.0538638950092</v>
+        <v>411.500438280688</v>
       </c>
       <c r="G7" t="n">
-        <v>158437.71943456284</v>
+        <v>948223.7460026</v>
       </c>
       <c r="H7" t="n">
-        <v>17075.057546562864</v>
+        <v>83356.89794277563</v>
       </c>
       <c r="I7" t="n">
-        <v>0.12078902107892704</v>
+        <v>0.09638119223759366</v>
       </c>
       <c r="J7" t="n">
-        <v>90.75391919999993</v>
+        <v>37.95335747118003</v>
       </c>
       <c r="K7" t="n">
-        <v>77.27877727718385</v>
+        <v>32.12372176360674</v>
       </c>
       <c r="L7" t="n">
-        <v>71.09647509500917</v>
+        <v>30.45328823189925</v>
       </c>
       <c r="M7" t="n">
-        <v>188.14677864141078</v>
+        <v>2196.2983908886818</v>
       </c>
       <c r="N7" t="n">
-        <v>220.95403354167956</v>
+        <v>2594.8704996321885</v>
       </c>
       <c r="O7" t="n">
-        <v>240.16742776269507</v>
+        <v>2737.2051683883788</v>
       </c>
     </row>
     <row r="8">
@@ -2302,43 +2302,43 @@
         <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>67.34169413875546</v>
+        <v>141.71888738772236</v>
       </c>
       <c r="D8" t="n">
-        <v>1404.2864606399999</v>
+        <v>710.2786592689561</v>
       </c>
       <c r="E8" t="n">
-        <v>1195.7780069641726</v>
+        <v>601.1798572052445</v>
       </c>
       <c r="F8" t="n">
-        <v>1100.1157664070388</v>
+        <v>569.9185046305716</v>
       </c>
       <c r="G8" t="n">
-        <v>235695.9294856441</v>
+        <v>1353344.5151090547</v>
       </c>
       <c r="H8" t="n">
-        <v>94333.26759764412</v>
+        <v>488477.6670492304</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6673138885314942</v>
+        <v>0.5648010073978944</v>
       </c>
       <c r="J8" t="n">
-        <v>522.2864606399999</v>
+        <v>235.38679901895608</v>
       </c>
       <c r="K8" t="n">
-        <v>444.7373669641727</v>
+        <v>199.23138668964452</v>
       </c>
       <c r="L8" t="n">
-        <v>409.1583776070388</v>
+        <v>188.8713545817829</v>
       </c>
       <c r="M8" t="n">
-        <v>180.61595447458075</v>
+        <v>2075.212667342031</v>
       </c>
       <c r="N8" t="n">
-        <v>212.1100555178748</v>
+        <v>2451.81080735117</v>
       </c>
       <c r="O8" t="n">
-        <v>230.5544081716031</v>
+        <v>2586.298319990687</v>
       </c>
     </row>
     <row r="9">
@@ -2349,43 +2349,43 @@
         <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>43.34835272455446</v>
+        <v>93.66499429300873</v>
       </c>
       <c r="D9" t="n">
-        <v>921.3662707199998</v>
+        <v>478.630208973888</v>
       </c>
       <c r="E9" t="n">
-        <v>784.5618068434944</v>
+        <v>405.11260887549884</v>
       </c>
       <c r="F9" t="n">
-        <v>721.7968622960148</v>
+        <v>384.04675321397286</v>
       </c>
       <c r="G9" t="n">
-        <v>151719.2345359406</v>
+        <v>894453.8630010869</v>
       </c>
       <c r="H9" t="n">
-        <v>10356.57264794063</v>
+        <v>29587.014941262547</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07326243372628356</v>
+        <v>0.03420990758015038</v>
       </c>
       <c r="J9" t="n">
-        <v>39.36627071999976</v>
+        <v>3.7383487238880093</v>
       </c>
       <c r="K9" t="n">
-        <v>33.521166843494484</v>
+        <v>3.164138359898857</v>
       </c>
       <c r="L9" t="n">
-        <v>30.83947349601476</v>
+        <v>2.999603165184112</v>
       </c>
       <c r="M9" t="n">
-        <v>263.0823915631674</v>
+        <v>7914.460936242205</v>
       </c>
       <c r="N9" t="n">
-        <v>308.95620955839576</v>
+        <v>9350.733620323832</v>
       </c>
       <c r="O9" t="n">
-        <v>335.8219669113015</v>
+        <v>9863.643059413338</v>
       </c>
     </row>
     <row r="10">
@@ -2396,43 +2396,43 @@
         <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>47.88864842300336</v>
+        <v>101.30148666672044</v>
       </c>
       <c r="D10" t="n">
-        <v>1030.0170635999998</v>
+        <v>524.41358343687</v>
       </c>
       <c r="E10" t="n">
-        <v>877.0801299966718</v>
+        <v>443.8636570209668</v>
       </c>
       <c r="F10" t="n">
-        <v>806.9137195969381</v>
+        <v>420.7827468558765</v>
       </c>
       <c r="G10" t="n">
-        <v>167610.26948051175</v>
+        <v>967378.5469238467</v>
       </c>
       <c r="H10" t="n">
-        <v>26247.607592511777</v>
+        <v>102511.69886402239</v>
       </c>
       <c r="I10" t="n">
-        <v>0.18567567448119687</v>
+        <v>0.11852888001660514</v>
       </c>
       <c r="J10" t="n">
-        <v>148.0170635999998</v>
+        <v>49.52172318687002</v>
       </c>
       <c r="K10" t="n">
-        <v>126.03948999667182</v>
+        <v>41.91518650536682</v>
       </c>
       <c r="L10" t="n">
-        <v>115.95633079693812</v>
+        <v>39.735596807087745</v>
       </c>
       <c r="M10" t="n">
-        <v>177.32825496013834</v>
+        <v>2070.034971868707</v>
       </c>
       <c r="N10" t="n">
-        <v>208.2490780723158</v>
+        <v>2445.693492283442</v>
       </c>
       <c r="O10" t="n">
-        <v>226.35769355686492</v>
+        <v>2579.845455995192</v>
       </c>
     </row>
     <row r="11">
@@ -2443,43 +2443,43 @@
         <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>45.44679333704959</v>
+        <v>103.80155444080484</v>
       </c>
       <c r="D11" t="n">
-        <v>988.1266499999998</v>
+        <v>543.2762881259999</v>
       </c>
       <c r="E11" t="n">
-        <v>841.4096050079999</v>
+        <v>459.82905026984645</v>
       </c>
       <c r="F11" t="n">
-        <v>774.0968366073598</v>
+        <v>435.9179396558144</v>
       </c>
       <c r="G11" t="n">
-        <v>159063.77667967355</v>
+        <v>991252.9441324658</v>
       </c>
       <c r="H11" t="n">
-        <v>17701.11479167358</v>
+        <v>126386.09607264143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.12521775237720106</v>
+        <v>0.14613358848956493</v>
       </c>
       <c r="J11" t="n">
-        <v>106.12664999999981</v>
+        <v>68.38442787599996</v>
       </c>
       <c r="K11" t="n">
-        <v>90.36896500799992</v>
+        <v>57.88057975424647</v>
       </c>
       <c r="L11" t="n">
-        <v>83.13944780735983</v>
+        <v>54.87078960702564</v>
       </c>
       <c r="M11" t="n">
-        <v>166.79236357383945</v>
+        <v>1848.1707019880998</v>
       </c>
       <c r="N11" t="n">
-        <v>195.87603764308452</v>
+        <v>2183.566519362118</v>
       </c>
       <c r="O11" t="n">
-        <v>212.90873656857036</v>
+        <v>2303.3402102975933</v>
       </c>
     </row>
     <row r="12">
@@ -2490,43 +2490,43 @@
         <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0929628328883</v>
+        <v>160.6437140430903</v>
       </c>
       <c r="D12" t="n">
-        <v>1468.85193</v>
+        <v>838.0891549692001</v>
       </c>
       <c r="E12" t="n">
-        <v>1250.7567954336</v>
+        <v>709.358660765931</v>
       </c>
       <c r="F12" t="n">
-        <v>1150.696251798912</v>
+        <v>672.4720104061024</v>
       </c>
       <c r="G12" t="n">
-        <v>238325.36991510907</v>
+        <v>1534067.1472544908</v>
       </c>
       <c r="H12" t="n">
-        <v>96962.7080271091</v>
+        <v>669200.2991946664</v>
       </c>
       <c r="I12" t="n">
-        <v>0.685914559984245</v>
+        <v>0.7737610716561732</v>
       </c>
       <c r="J12" t="n">
-        <v>586.85193</v>
+        <v>363.1972947192001</v>
       </c>
       <c r="K12" t="n">
-        <v>499.7161554336001</v>
+        <v>307.41019025033097</v>
       </c>
       <c r="L12" t="n">
-        <v>459.73886299891205</v>
+        <v>291.42486035731366</v>
       </c>
       <c r="M12" t="n">
-        <v>165.22516681015105</v>
+        <v>1842.525560968309</v>
       </c>
       <c r="N12" t="n">
-        <v>194.03556793751295</v>
+        <v>2176.896929310384</v>
       </c>
       <c r="O12" t="n">
-        <v>210.90822601903585</v>
+        <v>2296.3047777535703</v>
       </c>
     </row>
     <row r="13">
@@ -2537,43 +2537,43 @@
         <v>59</v>
       </c>
       <c r="C13" t="n">
-        <v>43.634550322319356</v>
+        <v>100.87445206648223</v>
       </c>
       <c r="D13" t="n">
-        <v>945.9626399999999</v>
+        <v>527.3199216216</v>
       </c>
       <c r="E13" t="n">
-        <v>805.5061072127999</v>
+        <v>446.3235816605223</v>
       </c>
       <c r="F13" t="n">
-        <v>741.0656186357759</v>
+        <v>423.11475541417514</v>
       </c>
       <c r="G13" t="n">
-        <v>152720.92612811775</v>
+        <v>963300.5800088721</v>
       </c>
       <c r="H13" t="n">
-        <v>11358.264240117773</v>
+        <v>98433.73194904777</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08034840380352201</v>
+        <v>0.11381374158330432</v>
       </c>
       <c r="J13" t="n">
-        <v>63.96263999999985</v>
+        <v>52.428061371599995</v>
       </c>
       <c r="K13" t="n">
-        <v>54.46546721279992</v>
+        <v>44.3751111449223</v>
       </c>
       <c r="L13" t="n">
-        <v>50.10822983577589</v>
+        <v>42.067605365386385</v>
       </c>
       <c r="M13" t="n">
-        <v>177.57653905651486</v>
+        <v>1877.5008911996276</v>
       </c>
       <c r="N13" t="n">
-        <v>208.54065560000316</v>
+        <v>2218.2193894135457</v>
       </c>
       <c r="O13" t="n">
-        <v>226.67462565217753</v>
+        <v>2339.893870689392</v>
       </c>
     </row>
     <row r="14">
@@ -2584,43 +2584,43 @@
         <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10176489375103</v>
+        <v>106.73428735797029</v>
       </c>
       <c r="D14" t="n">
-        <v>1046.2438349999998</v>
+        <v>560.5504795425937</v>
       </c>
       <c r="E14" t="n">
-        <v>890.8975503791997</v>
+        <v>474.44992588485127</v>
       </c>
       <c r="F14" t="n">
-        <v>819.6257463488638</v>
+        <v>449.77852973883904</v>
       </c>
       <c r="G14" t="n">
-        <v>168356.1771281286</v>
+        <v>1019259.0771249372</v>
       </c>
       <c r="H14" t="n">
-        <v>26993.515240128618</v>
+        <v>154392.2290651129</v>
       </c>
       <c r="I14" t="n">
-        <v>0.19095222797597905</v>
+        <v>0.1785156055079051</v>
       </c>
       <c r="J14" t="n">
-        <v>164.24383499999976</v>
+        <v>85.65861929259376</v>
       </c>
       <c r="K14" t="n">
-        <v>139.8569103791998</v>
+        <v>72.50145536925129</v>
       </c>
       <c r="L14" t="n">
-        <v>128.6683575488638</v>
+        <v>68.73137969005029</v>
       </c>
       <c r="M14" t="n">
-        <v>164.35024937239598</v>
+        <v>1802.413234536714</v>
       </c>
       <c r="N14" t="n">
-        <v>193.00809067596293</v>
+        <v>2129.505239291961</v>
       </c>
       <c r="O14" t="n">
-        <v>209.79140290865539</v>
+        <v>2246.3135435569184</v>
       </c>
     </row>
     <row r="15">
@@ -2631,43 +2631,43 @@
         <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>44.83041983844653</v>
+        <v>98.8581433323839</v>
       </c>
       <c r="D15" t="n">
-        <v>972.7539191999999</v>
+        <v>512.84521772118</v>
       </c>
       <c r="E15" t="n">
-        <v>828.3194172771838</v>
+        <v>434.0721922792067</v>
       </c>
       <c r="F15" t="n">
-        <v>762.0538638950092</v>
+        <v>411.500438280688</v>
       </c>
       <c r="G15" t="n">
-        <v>156906.46943456284</v>
+        <v>944045.8397526</v>
       </c>
       <c r="H15" t="n">
-        <v>15543.807546562864</v>
+        <v>79178.99169277563</v>
       </c>
       <c r="I15" t="n">
-        <v>0.10995695284005083</v>
+        <v>0.0915504992131444</v>
       </c>
       <c r="J15" t="n">
-        <v>90.75391919999993</v>
+        <v>37.95335747118003</v>
       </c>
       <c r="K15" t="n">
-        <v>77.27877727718385</v>
+        <v>32.12372176360674</v>
       </c>
       <c r="L15" t="n">
-        <v>71.09647509500917</v>
+        <v>30.45328823189925</v>
       </c>
       <c r="M15" t="n">
-        <v>171.2742290755293</v>
+        <v>2086.21837351018</v>
       </c>
       <c r="N15" t="n">
-        <v>201.13940844082288</v>
+        <v>2464.813768324884</v>
       </c>
       <c r="O15" t="n">
-        <v>218.62979178350304</v>
+        <v>2600.014523549451</v>
       </c>
     </row>
     <row r="16">
@@ -2678,43 +2678,43 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>65.50419413875547</v>
+        <v>139.88138738772236</v>
       </c>
       <c r="D16" t="n">
-        <v>1404.2864606399999</v>
+        <v>710.2786592689561</v>
       </c>
       <c r="E16" t="n">
-        <v>1195.7780069641726</v>
+        <v>601.1798572052445</v>
       </c>
       <c r="F16" t="n">
-        <v>1100.1157664070388</v>
+        <v>569.9185046305716</v>
       </c>
       <c r="G16" t="n">
-        <v>229264.6794856441</v>
+        <v>1335797.3088590547</v>
       </c>
       <c r="H16" t="n">
-        <v>87902.01759764412</v>
+        <v>470930.4607992304</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6218192019282142</v>
+        <v>0.5445120966952075</v>
       </c>
       <c r="J16" t="n">
-        <v>522.2864606399999</v>
+        <v>235.38679901895608</v>
       </c>
       <c r="K16" t="n">
-        <v>444.7373669641727</v>
+        <v>199.23138668964452</v>
       </c>
       <c r="L16" t="n">
-        <v>409.1583776070388</v>
+        <v>188.8713545817829</v>
       </c>
       <c r="M16" t="n">
-        <v>168.3023095983202</v>
+        <v>2000.6664042417501</v>
       </c>
       <c r="N16" t="n">
-        <v>197.64927376728696</v>
+        <v>2363.7362999075485</v>
       </c>
       <c r="O16" t="n">
-        <v>214.83616713835542</v>
+        <v>2493.3927214214664</v>
       </c>
     </row>
     <row r="17">
@@ -2725,43 +2725,43 @@
         <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>42.648352724554464</v>
+        <v>92.96499429300873</v>
       </c>
       <c r="D17" t="n">
-        <v>921.3662707199998</v>
+        <v>478.630208973888</v>
       </c>
       <c r="E17" t="n">
-        <v>784.5618068434944</v>
+        <v>405.11260887549884</v>
       </c>
       <c r="F17" t="n">
-        <v>721.7968622960148</v>
+        <v>384.04675321397286</v>
       </c>
       <c r="G17" t="n">
-        <v>149269.23453594063</v>
+        <v>887769.2130010867</v>
       </c>
       <c r="H17" t="n">
-        <v>7906.5726479406585</v>
+        <v>22902.364941262407</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05593112454408185</v>
+        <v>0.02648079874103142</v>
       </c>
       <c r="J17" t="n">
-        <v>39.36627071999976</v>
+        <v>3.7383487238880093</v>
       </c>
       <c r="K17" t="n">
-        <v>33.521166843494484</v>
+        <v>3.164138359898857</v>
       </c>
       <c r="L17" t="n">
-        <v>30.83947349601476</v>
+        <v>2.999603165184112</v>
       </c>
       <c r="M17" t="n">
-        <v>200.8463718643224</v>
+        <v>6126.331873459673</v>
       </c>
       <c r="N17" t="n">
-        <v>235.86806165952729</v>
+        <v>7238.104765429566</v>
       </c>
       <c r="O17" t="n">
-        <v>256.37832789079187</v>
+        <v>7635.131609102928</v>
       </c>
     </row>
     <row r="18">
@@ -2772,43 +2772,43 @@
         <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>47.45114842300336</v>
+        <v>100.86398666672044</v>
       </c>
       <c r="D18" t="n">
-        <v>1030.0170635999998</v>
+        <v>524.41358343687</v>
       </c>
       <c r="E18" t="n">
-        <v>877.0801299966718</v>
+        <v>443.8636570209668</v>
       </c>
       <c r="F18" t="n">
-        <v>806.9137195969381</v>
+        <v>420.7827468558765</v>
       </c>
       <c r="G18" t="n">
-        <v>166079.01948051175</v>
+        <v>963200.6406738467</v>
       </c>
       <c r="H18" t="n">
-        <v>24716.357592511777</v>
+        <v>98333.79261402239</v>
       </c>
       <c r="I18" t="n">
-        <v>0.17484360624232065</v>
+        <v>0.11369818699215589</v>
       </c>
       <c r="J18" t="n">
-        <v>148.0170635999998</v>
+        <v>49.52172318687002</v>
       </c>
       <c r="K18" t="n">
-        <v>126.03948999667182</v>
+        <v>41.91518650536682</v>
       </c>
       <c r="L18" t="n">
-        <v>115.95633079693812</v>
+        <v>39.735596807087745</v>
       </c>
       <c r="M18" t="n">
-        <v>166.98316390943327</v>
+        <v>1985.6698492287965</v>
       </c>
       <c r="N18" t="n">
-        <v>196.10010793573056</v>
+        <v>2346.018252869559</v>
       </c>
       <c r="O18" t="n">
-        <v>213.15229123448967</v>
+        <v>2474.702798385611</v>
       </c>
     </row>
     <row r="19">
@@ -2819,43 +2819,43 @@
         <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>10.617210749999998</v>
+        <v>20.50050168537651</v>
       </c>
       <c r="D19" t="n">
-        <v>988.1266499999998</v>
+        <v>543.2762881259999</v>
       </c>
       <c r="E19" t="n">
-        <v>841.4096050079999</v>
+        <v>459.82905026984645</v>
       </c>
       <c r="F19" t="n">
-        <v>774.0968366073598</v>
+        <v>435.9179396558144</v>
       </c>
       <c r="G19" t="n">
-        <v>37160.237624999994</v>
+        <v>195769.54084450295</v>
       </c>
       <c r="H19" t="n">
-        <v>5975.237624999998</v>
+        <v>29907.333989191684</v>
       </c>
       <c r="I19" t="n">
-        <v>0.19160614478114474</v>
+        <v>0.18031433776400393</v>
       </c>
       <c r="J19" t="n">
-        <v>106.12664999999981</v>
+        <v>68.38442787599996</v>
       </c>
       <c r="K19" t="n">
-        <v>90.36896500799992</v>
+        <v>57.88057975424647</v>
       </c>
       <c r="L19" t="n">
-        <v>83.13944780735983</v>
+        <v>54.87078960702564</v>
       </c>
       <c r="M19" t="n">
-        <v>56.302894937322606</v>
+        <v>437.3412912574486</v>
       </c>
       <c r="N19" t="n">
-        <v>66.12046098426644</v>
+        <v>516.7075747370602</v>
       </c>
       <c r="O19" t="n">
-        <v>71.87006628724622</v>
+        <v>545.0501843217936</v>
       </c>
     </row>
     <row r="20">
@@ -2866,43 +2866,43 @@
         <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>17.505885149999997</v>
+        <v>33.30132077142952</v>
       </c>
       <c r="D20" t="n">
-        <v>1468.85193</v>
+        <v>838.0891549692001</v>
       </c>
       <c r="E20" t="n">
-        <v>1250.7567954336</v>
+        <v>709.358660765931</v>
       </c>
       <c r="F20" t="n">
-        <v>1150.696251798912</v>
+        <v>672.4720104061024</v>
       </c>
       <c r="G20" t="n">
-        <v>61270.598024999985</v>
+        <v>318010.9627067662</v>
       </c>
       <c r="H20" t="n">
-        <v>30085.59802499999</v>
+        <v>152148.75585145495</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9647458080808078</v>
+        <v>0.917320218608817</v>
       </c>
       <c r="J20" t="n">
-        <v>586.85193</v>
+        <v>363.1972947192001</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7161554336001</v>
+        <v>307.41019025033097</v>
       </c>
       <c r="L20" t="n">
-        <v>459.73886299891205</v>
+        <v>291.42486035731366</v>
       </c>
       <c r="M20" t="n">
-        <v>51.266080057025604</v>
+        <v>418.914892989735</v>
       </c>
       <c r="N20" t="n">
-        <v>60.20537398654829</v>
+        <v>494.93725542265474</v>
       </c>
       <c r="O20" t="n">
-        <v>65.44062389842206</v>
+        <v>522.0857124711549</v>
       </c>
     </row>
     <row r="21">
@@ -2913,43 +2913,43 @@
         <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>10.5723372</v>
+        <v>20.29535330806646</v>
       </c>
       <c r="D21" t="n">
-        <v>945.9626399999999</v>
+        <v>527.3199216216</v>
       </c>
       <c r="E21" t="n">
-        <v>805.5061072127999</v>
+        <v>446.3235816605223</v>
       </c>
       <c r="F21" t="n">
-        <v>741.0656186357759</v>
+        <v>423.11475541417514</v>
       </c>
       <c r="G21" t="n">
-        <v>37003.180199999995</v>
+        <v>193810.47641538063</v>
       </c>
       <c r="H21" t="n">
-        <v>5818.180199999999</v>
+        <v>27948.26956006937</v>
       </c>
       <c r="I21" t="n">
-        <v>0.18656983164983162</v>
+        <v>0.16850294042240646</v>
       </c>
       <c r="J21" t="n">
-        <v>63.96263999999985</v>
+        <v>52.428061371599995</v>
       </c>
       <c r="K21" t="n">
-        <v>54.46546721279992</v>
+        <v>44.3751111449223</v>
       </c>
       <c r="L21" t="n">
-        <v>50.10822983577589</v>
+        <v>42.067605365386385</v>
       </c>
       <c r="M21" t="n">
-        <v>90.96216478869559</v>
+        <v>533.0784474744817</v>
       </c>
       <c r="N21" t="n">
-        <v>106.82328634523618</v>
+        <v>629.8185816097364</v>
       </c>
       <c r="O21" t="n">
-        <v>116.11226776656116</v>
+        <v>664.365592415333</v>
       </c>
     </row>
     <row r="22">
@@ -2960,43 +2960,43 @@
         <v>68</v>
       </c>
       <c r="C22" t="n">
-        <v>11.197930425</v>
+        <v>20.77065605666897</v>
       </c>
       <c r="D22" t="n">
-        <v>1046.2438349999998</v>
+        <v>560.5504795425937</v>
       </c>
       <c r="E22" t="n">
-        <v>890.8975503791997</v>
+        <v>474.44992588485127</v>
       </c>
       <c r="F22" t="n">
-        <v>819.6257463488638</v>
+        <v>449.77852973883904</v>
       </c>
       <c r="G22" t="n">
-        <v>39192.756487499995</v>
+        <v>198349.38001316032</v>
       </c>
       <c r="H22" t="n">
-        <v>8007.756487499999</v>
+        <v>32487.173157849058</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2567823148148148</v>
+        <v>0.1958684487189358</v>
       </c>
       <c r="J22" t="n">
-        <v>164.24383499999976</v>
+        <v>85.65861929259376</v>
       </c>
       <c r="K22" t="n">
-        <v>139.8569103791998</v>
+        <v>72.50145536925129</v>
       </c>
       <c r="L22" t="n">
-        <v>128.6683575488638</v>
+        <v>68.73137969005029</v>
       </c>
       <c r="M22" t="n">
-        <v>48.75529414848363</v>
+        <v>379.26332955331645</v>
       </c>
       <c r="N22" t="n">
-        <v>57.256780989857695</v>
+        <v>448.0899451244291</v>
       </c>
       <c r="O22" t="n">
-        <v>62.235631510714896</v>
+        <v>472.6687184856843</v>
       </c>
     </row>
     <row r="23">
@@ -3007,19 +3007,19 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>8.91</v>
+        <v>17.36867970629994</v>
       </c>
       <c r="D23" t="n">
-        <v>882.0</v>
+        <v>474.89186025</v>
       </c>
       <c r="E23" t="n">
-        <v>751.0406399999999</v>
+        <v>401.9484705156</v>
       </c>
       <c r="F23" t="n">
-        <v>690.9573888</v>
+        <v>381.04715004878875</v>
       </c>
       <c r="G23" t="n">
-        <v>31184.999999999996</v>
+        <v>165862.20685531126</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -3054,43 +3054,43 @@
         <v>70</v>
       </c>
       <c r="C24" t="n">
-        <v>10.549503119999999</v>
+        <v>20.247620699829568</v>
       </c>
       <c r="D24" t="n">
-        <v>972.7539191999999</v>
+        <v>512.84521772118</v>
       </c>
       <c r="E24" t="n">
-        <v>828.3194172771838</v>
+        <v>434.0721922792067</v>
       </c>
       <c r="F24" t="n">
-        <v>762.0538638950092</v>
+        <v>411.500438280688</v>
       </c>
       <c r="G24" t="n">
-        <v>36923.26091999999</v>
+        <v>193354.65387302247</v>
       </c>
       <c r="H24" t="n">
-        <v>5738.260919999997</v>
+        <v>27492.44701771121</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1840070841750841</v>
+        <v>0.16575474026879464</v>
       </c>
       <c r="J24" t="n">
-        <v>90.75391919999993</v>
+        <v>37.95335747118003</v>
       </c>
       <c r="K24" t="n">
-        <v>77.27877727718385</v>
+        <v>32.12372176360674</v>
       </c>
       <c r="L24" t="n">
-        <v>71.09647509500917</v>
+        <v>30.45328823189925</v>
       </c>
       <c r="M24" t="n">
-        <v>63.22879464141094</v>
+        <v>724.3745705129688</v>
       </c>
       <c r="N24" t="n">
-        <v>74.2540335416796</v>
+        <v>855.8300691315804</v>
       </c>
       <c r="O24" t="n">
-        <v>80.71090602356476</v>
+        <v>902.7743345269816</v>
       </c>
     </row>
     <row r="25">
@@ -3101,43 +3101,43 @@
         <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>17.221513104</v>
+        <v>32.239220632132366</v>
       </c>
       <c r="D25" t="n">
-        <v>1404.2864606399999</v>
+        <v>710.2786592689561</v>
       </c>
       <c r="E25" t="n">
-        <v>1195.7780069641726</v>
+        <v>601.1798572052445</v>
       </c>
       <c r="F25" t="n">
-        <v>1100.1157664070388</v>
+        <v>569.9185046305716</v>
       </c>
       <c r="G25" t="n">
-        <v>60275.295864</v>
+        <v>307868.437426548</v>
       </c>
       <c r="H25" t="n">
-        <v>29090.295864000003</v>
+        <v>142006.23057123672</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9328297535353538</v>
+        <v>0.8561699091289365</v>
       </c>
       <c r="J25" t="n">
-        <v>522.2864606399999</v>
+        <v>235.38679901895608</v>
       </c>
       <c r="K25" t="n">
-        <v>444.7373669641727</v>
+        <v>199.23138668964452</v>
       </c>
       <c r="L25" t="n">
-        <v>409.1583776070388</v>
+        <v>188.8713545817829</v>
       </c>
       <c r="M25" t="n">
-        <v>55.69797047458077</v>
+        <v>603.2888469663106</v>
       </c>
       <c r="N25" t="n">
-        <v>65.41005551787482</v>
+        <v>712.7703768505557</v>
       </c>
       <c r="O25" t="n">
-        <v>71.09788643247265</v>
+        <v>751.8674861292786</v>
       </c>
     </row>
     <row r="26">
@@ -3148,43 +3148,43 @@
         <v>72</v>
       </c>
       <c r="C26" t="n">
-        <v>10.464004992</v>
+        <v>19.89074373119135</v>
       </c>
       <c r="D26" t="n">
-        <v>921.3662707199998</v>
+        <v>478.630208973888</v>
       </c>
       <c r="E26" t="n">
-        <v>784.5618068434944</v>
+        <v>405.11260887549884</v>
       </c>
       <c r="F26" t="n">
-        <v>721.7968622960148</v>
+        <v>384.04675321397286</v>
       </c>
       <c r="G26" t="n">
-        <v>36624.01747199999</v>
+        <v>189946.6572610118</v>
       </c>
       <c r="H26" t="n">
-        <v>5439.017471999996</v>
+        <v>24084.45040570054</v>
       </c>
       <c r="I26" t="n">
-        <v>0.17441133468013456</v>
+        <v>0.14520758443007117</v>
       </c>
       <c r="J26" t="n">
-        <v>39.36627071999976</v>
+        <v>3.7383487238880093</v>
       </c>
       <c r="K26" t="n">
-        <v>33.521166843494484</v>
+        <v>3.164138359898857</v>
       </c>
       <c r="L26" t="n">
-        <v>30.83947349601476</v>
+        <v>2.999603165184112</v>
       </c>
       <c r="M26" t="n">
-        <v>138.16440756316652</v>
+        <v>6442.537115866466</v>
       </c>
       <c r="N26" t="n">
-        <v>162.25620955839597</v>
+        <v>7611.69318982322</v>
       </c>
       <c r="O26" t="n">
-        <v>176.36544517217047</v>
+        <v>8029.212225551931</v>
       </c>
     </row>
     <row r="27">
@@ -3195,43 +3195,43 @@
         <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>11.12646126</v>
+        <v>20.470359886331973</v>
       </c>
       <c r="D27" t="n">
-        <v>1030.0170635999998</v>
+        <v>524.41358343687</v>
       </c>
       <c r="E27" t="n">
-        <v>877.0801299966718</v>
+        <v>443.8636570209668</v>
       </c>
       <c r="F27" t="n">
-        <v>806.9137195969381</v>
+        <v>420.7827468558765</v>
       </c>
       <c r="G27" t="n">
-        <v>38942.614409999995</v>
+        <v>195481.70173452716</v>
       </c>
       <c r="H27" t="n">
-        <v>7757.614409999998</v>
+        <v>29619.494879215898</v>
       </c>
       <c r="I27" t="n">
-        <v>0.24876108417508416</v>
+        <v>0.1785789266933742</v>
       </c>
       <c r="J27" t="n">
-        <v>148.0170635999998</v>
+        <v>49.52172318687002</v>
       </c>
       <c r="K27" t="n">
-        <v>126.03948999667182</v>
+        <v>41.91518650536682</v>
       </c>
       <c r="L27" t="n">
-        <v>115.95633079693812</v>
+        <v>39.735596807087745</v>
       </c>
       <c r="M27" t="n">
-        <v>52.4102709601382</v>
+        <v>598.1111514929894</v>
       </c>
       <c r="N27" t="n">
-        <v>61.54907807231563</v>
+        <v>706.6530617828319</v>
       </c>
       <c r="O27" t="n">
-        <v>66.90117181773435</v>
+        <v>745.4146221337888</v>
       </c>
     </row>
     <row r="28">
@@ -3242,43 +3242,43 @@
         <v>74</v>
       </c>
       <c r="C28" t="n">
-        <v>10.17971075</v>
+        <v>20.06300168537651</v>
       </c>
       <c r="D28" t="n">
-        <v>988.1266499999998</v>
+        <v>543.2762881259999</v>
       </c>
       <c r="E28" t="n">
-        <v>841.4096050079999</v>
+        <v>459.82905026984645</v>
       </c>
       <c r="F28" t="n">
-        <v>774.0968366073598</v>
+        <v>435.9179396558144</v>
       </c>
       <c r="G28" t="n">
-        <v>35628.987624999994</v>
+        <v>191591.63459450295</v>
       </c>
       <c r="H28" t="n">
-        <v>4443.987624999998</v>
+        <v>25729.427739191684</v>
       </c>
       <c r="I28" t="n">
-        <v>0.14250401234567897</v>
+        <v>0.15512531894403508</v>
       </c>
       <c r="J28" t="n">
-        <v>106.12664999999981</v>
+        <v>68.38442787599996</v>
       </c>
       <c r="K28" t="n">
-        <v>90.36896500799992</v>
+        <v>57.88057975424647</v>
       </c>
       <c r="L28" t="n">
-        <v>83.13944780735983</v>
+        <v>54.87078960702564</v>
       </c>
       <c r="M28" t="n">
-        <v>41.87437957383943</v>
+        <v>376.2468816123798</v>
       </c>
       <c r="N28" t="n">
-        <v>49.17603764308459</v>
+        <v>444.5260888615066</v>
       </c>
       <c r="O28" t="n">
-        <v>53.45221482943983</v>
+        <v>468.90937643618844</v>
       </c>
     </row>
     <row r="29">
@@ -3289,43 +3289,43 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>15.668385149999999</v>
+        <v>31.463820771429525</v>
       </c>
       <c r="D29" t="n">
-        <v>1468.85193</v>
+        <v>838.0891549692001</v>
       </c>
       <c r="E29" t="n">
-        <v>1250.7567954336</v>
+        <v>709.358660765931</v>
       </c>
       <c r="F29" t="n">
-        <v>1150.696251798912</v>
+        <v>672.4720104061024</v>
       </c>
       <c r="G29" t="n">
-        <v>54839.34802499999</v>
+        <v>300463.7564567662</v>
       </c>
       <c r="H29" t="n">
-        <v>23654.348024999996</v>
+        <v>134601.54960145496</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7585168518518518</v>
+        <v>0.8115263395649479</v>
       </c>
       <c r="J29" t="n">
-        <v>586.85193</v>
+        <v>363.1972947192001</v>
       </c>
       <c r="K29" t="n">
-        <v>499.7161554336001</v>
+        <v>307.41019025033097</v>
       </c>
       <c r="L29" t="n">
-        <v>459.73886299891205</v>
+        <v>291.42486035731366</v>
       </c>
       <c r="M29" t="n">
-        <v>40.3071828101511</v>
+        <v>370.6017405925886</v>
       </c>
       <c r="N29" t="n">
-        <v>47.33556793751303</v>
+        <v>437.85649880976916</v>
       </c>
       <c r="O29" t="n">
-        <v>51.451704279905464</v>
+        <v>461.8739438921617</v>
       </c>
     </row>
     <row r="30">
@@ -3336,43 +3336,43 @@
         <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>9.8723372</v>
+        <v>19.59535330806646</v>
       </c>
       <c r="D30" t="n">
-        <v>945.9626399999999</v>
+        <v>527.3199216216</v>
       </c>
       <c r="E30" t="n">
-        <v>805.5061072127999</v>
+        <v>446.3235816605223</v>
       </c>
       <c r="F30" t="n">
-        <v>741.0656186357759</v>
+        <v>423.11475541417514</v>
       </c>
       <c r="G30" t="n">
-        <v>34553.180199999995</v>
+        <v>187125.82641538064</v>
       </c>
       <c r="H30" t="n">
-        <v>3368.180199999999</v>
+        <v>21263.619560069375</v>
       </c>
       <c r="I30" t="n">
-        <v>0.10800641975308639</v>
+        <v>0.12820051031045634</v>
       </c>
       <c r="J30" t="n">
-        <v>63.96263999999985</v>
+        <v>52.428061371599995</v>
       </c>
       <c r="K30" t="n">
-        <v>54.46546721279992</v>
+        <v>44.3751111449223</v>
       </c>
       <c r="L30" t="n">
-        <v>50.10822983577589</v>
+        <v>42.067605365386385</v>
       </c>
       <c r="M30" t="n">
-        <v>52.658555056514345</v>
+        <v>405.57707082390357</v>
       </c>
       <c r="N30" t="n">
-        <v>61.8406556000027</v>
+        <v>479.17895891292886</v>
       </c>
       <c r="O30" t="n">
-        <v>67.21810391304646</v>
+        <v>505.4630368279835</v>
       </c>
     </row>
     <row r="31">
@@ -3383,43 +3383,43 @@
         <v>77</v>
       </c>
       <c r="C31" t="n">
-        <v>10.760430425</v>
+        <v>20.33315605666897</v>
       </c>
       <c r="D31" t="n">
-        <v>1046.2438349999998</v>
+        <v>560.5504795425937</v>
       </c>
       <c r="E31" t="n">
-        <v>890.8975503791997</v>
+        <v>474.44992588485127</v>
       </c>
       <c r="F31" t="n">
-        <v>819.6257463488638</v>
+        <v>449.77852973883904</v>
       </c>
       <c r="G31" t="n">
-        <v>37661.506487499995</v>
+        <v>194171.47376316032</v>
       </c>
       <c r="H31" t="n">
-        <v>6476.506487499999</v>
+        <v>28309.266907849058</v>
       </c>
       <c r="I31" t="n">
-        <v>0.20768018237934904</v>
+        <v>0.17067942989896698</v>
       </c>
       <c r="J31" t="n">
-        <v>164.24383499999976</v>
+        <v>85.65861929259376</v>
       </c>
       <c r="K31" t="n">
-        <v>139.8569103791998</v>
+        <v>72.50145536925129</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6683575488638</v>
+        <v>68.73137969005029</v>
       </c>
       <c r="M31" t="n">
-        <v>39.43226537239592</v>
+        <v>330.4894141609955</v>
       </c>
       <c r="N31" t="n">
-        <v>46.30809067596288</v>
+        <v>390.4648087913467</v>
       </c>
       <c r="O31" t="n">
-        <v>50.33488116952488</v>
+        <v>411.882709695513</v>
       </c>
     </row>
     <row r="32">
@@ -3430,43 +3430,43 @@
         <v>78</v>
       </c>
       <c r="C32" t="n">
-        <v>10.112003119999999</v>
+        <v>19.810120699829568</v>
       </c>
       <c r="D32" t="n">
-        <v>972.7539191999999</v>
+        <v>512.84521772118</v>
       </c>
       <c r="E32" t="n">
-        <v>828.3194172771838</v>
+        <v>434.0721922792067</v>
       </c>
       <c r="F32" t="n">
-        <v>762.0538638950092</v>
+        <v>411.500438280688</v>
       </c>
       <c r="G32" t="n">
-        <v>35392.01091999999</v>
+        <v>189176.74762302247</v>
       </c>
       <c r="H32" t="n">
-        <v>4207.010919999997</v>
+        <v>23314.54076771121</v>
       </c>
       <c r="I32" t="n">
-        <v>0.13490495173961833</v>
+        <v>0.14056572144882581</v>
       </c>
       <c r="J32" t="n">
-        <v>90.75391919999993</v>
+        <v>37.95335747118003</v>
       </c>
       <c r="K32" t="n">
-        <v>77.27877727718385</v>
+        <v>32.12372176360674</v>
       </c>
       <c r="L32" t="n">
-        <v>71.09647509500917</v>
+        <v>30.45328823189925</v>
       </c>
       <c r="M32" t="n">
-        <v>46.35624507552948</v>
+        <v>614.2945531344667</v>
       </c>
       <c r="N32" t="n">
-        <v>54.43940844082292</v>
+        <v>725.7733378242763</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17327004437272</v>
+        <v>765.5836896880536</v>
       </c>
     </row>
     <row r="33">
@@ -3477,43 +3477,43 @@
         <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>15.384013104000001</v>
+        <v>30.401720632132363</v>
       </c>
       <c r="D33" t="n">
-        <v>1404.2864606399999</v>
+        <v>710.2786592689561</v>
       </c>
       <c r="E33" t="n">
-        <v>1195.7780069641726</v>
+        <v>601.1798572052445</v>
       </c>
       <c r="F33" t="n">
-        <v>1100.1157664070388</v>
+        <v>569.9185046305716</v>
       </c>
       <c r="G33" t="n">
-        <v>53844.045864</v>
+        <v>290321.231176548</v>
       </c>
       <c r="H33" t="n">
-        <v>22659.045864000003</v>
+        <v>124459.02432123673</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7266007973063975</v>
+        <v>0.7503760300850675</v>
       </c>
       <c r="J33" t="n">
-        <v>522.2864606399999</v>
+        <v>235.38679901895608</v>
       </c>
       <c r="K33" t="n">
-        <v>444.7373669641727</v>
+        <v>199.23138668964452</v>
       </c>
       <c r="L33" t="n">
-        <v>409.1583776070388</v>
+        <v>188.8713545817829</v>
       </c>
       <c r="M33" t="n">
-        <v>43.3843255983202</v>
+        <v>528.74258386603</v>
       </c>
       <c r="N33" t="n">
-        <v>50.949273767286975</v>
+        <v>624.695869406935</v>
       </c>
       <c r="O33" t="n">
-        <v>55.37964539922498</v>
+        <v>658.9618875600584</v>
       </c>
     </row>
     <row r="34">
@@ -3524,43 +3524,43 @@
         <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>9.764004992</v>
+        <v>19.19074373119135</v>
       </c>
       <c r="D34" t="n">
-        <v>921.3662707199998</v>
+        <v>478.630208973888</v>
       </c>
       <c r="E34" t="n">
-        <v>784.5618068434944</v>
+        <v>405.11260887549884</v>
       </c>
       <c r="F34" t="n">
-        <v>721.7968622960148</v>
+        <v>384.04675321397286</v>
       </c>
       <c r="G34" t="n">
-        <v>34174.017472</v>
+        <v>183262.0072610118</v>
       </c>
       <c r="H34" t="n">
-        <v>2989.017472000003</v>
+        <v>17399.800405700546</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09584792278338956</v>
+        <v>0.10490515431812107</v>
       </c>
       <c r="J34" t="n">
-        <v>39.36627071999976</v>
+        <v>3.7383487238880093</v>
       </c>
       <c r="K34" t="n">
-        <v>33.521166843494484</v>
+        <v>3.164138359898857</v>
       </c>
       <c r="L34" t="n">
-        <v>30.83947349601476</v>
+        <v>2.999603165184112</v>
       </c>
       <c r="M34" t="n">
-        <v>75.92838786432095</v>
+        <v>4654.408053083974</v>
       </c>
       <c r="N34" t="n">
-        <v>89.16806165952686</v>
+        <v>5499.064334929</v>
       </c>
       <c r="O34" t="n">
-        <v>96.92180615166014</v>
+        <v>5800.700775241569</v>
       </c>
     </row>
     <row r="35">
@@ -3571,43 +3571,43 @@
         <v>81</v>
       </c>
       <c r="C35" t="n">
-        <v>10.68896126</v>
+        <v>20.032859886331973</v>
       </c>
       <c r="D35" t="n">
-        <v>1030.0170635999998</v>
+        <v>524.41358343687</v>
       </c>
       <c r="E35" t="n">
-        <v>877.0801299966718</v>
+        <v>443.8636570209668</v>
       </c>
       <c r="F35" t="n">
-        <v>806.9137195969381</v>
+        <v>420.7827468558765</v>
       </c>
       <c r="G35" t="n">
-        <v>37411.364409999995</v>
+        <v>191303.79548452716</v>
       </c>
       <c r="H35" t="n">
-        <v>6226.364409999998</v>
+        <v>25441.588629215898</v>
       </c>
       <c r="I35" t="n">
-        <v>0.19965895173961837</v>
+        <v>0.15338990787340537</v>
       </c>
       <c r="J35" t="n">
-        <v>148.0170635999998</v>
+        <v>49.52172318687002</v>
       </c>
       <c r="K35" t="n">
-        <v>126.03948999667182</v>
+        <v>41.91518650536682</v>
       </c>
       <c r="L35" t="n">
-        <v>115.95633079693812</v>
+        <v>39.735596807087745</v>
       </c>
       <c r="M35" t="n">
-        <v>42.065179909433134</v>
+        <v>513.7460288530787</v>
       </c>
       <c r="N35" t="n">
-        <v>49.40010793573039</v>
+        <v>606.9778223689488</v>
       </c>
       <c r="O35" t="n">
-        <v>53.695769495359094</v>
+        <v>640.2719645242075</v>
       </c>
     </row>
   </sheetData>
@@ -3676,43 +3676,43 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>3.201885315838285</v>
+        <v>474.2917047849028</v>
       </c>
       <c r="D2" t="n">
-        <v>18.0578766520197</v>
+        <v>1086.9393149999999</v>
       </c>
       <c r="E2" t="n">
-        <v>14.626880088135959</v>
+        <v>925.5505655087999</v>
       </c>
       <c r="F2" t="n">
-        <v>14.392850006725785</v>
+        <v>851.506520268096</v>
       </c>
       <c r="G2" t="n">
-        <v>43545.640295400684</v>
+        <v>1660020.9667471596</v>
       </c>
       <c r="H2" t="n">
-        <v>24493.60769540068</v>
+        <v>183788.11980795953</v>
       </c>
       <c r="I2" t="n">
-        <v>1.285616511878143</v>
+        <v>0.12449805610884704</v>
       </c>
       <c r="J2" t="n">
-        <v>8.877876652019701</v>
+        <v>116.73931499999992</v>
       </c>
       <c r="K2" t="n">
-        <v>7.191080088135958</v>
+        <v>99.40586150880006</v>
       </c>
       <c r="L2" t="n">
-        <v>7.076022806725786</v>
+        <v>91.45339258809611</v>
       </c>
       <c r="M2" t="n">
-        <v>2758.94886305144</v>
+        <v>1574.3463957104739</v>
       </c>
       <c r="N2" t="n">
-        <v>3406.1097074709137</v>
+        <v>1848.8660227715989</v>
       </c>
       <c r="O2" t="n">
-        <v>3461.493605153366</v>
+        <v>2009.6369812734758</v>
       </c>
     </row>
     <row r="3">
@@ -3723,43 +3723,43 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>10.329675042841277</v>
+        <v>709.8114873265433</v>
       </c>
       <c r="D3" t="n">
-        <v>53.6269305644757</v>
+        <v>1615.737123</v>
       </c>
       <c r="E3" t="n">
-        <v>43.43781375722532</v>
+        <v>1375.83247497696</v>
       </c>
       <c r="F3" t="n">
-        <v>42.74280873710972</v>
+        <v>1265.7658769788034</v>
       </c>
       <c r="G3" t="n">
-        <v>140483.58058264139</v>
+        <v>2484340.2056429014</v>
       </c>
       <c r="H3" t="n">
-        <v>121431.54798264138</v>
+        <v>1008107.3587037013</v>
       </c>
       <c r="I3" t="n">
-        <v>6.373679414271071</v>
+        <v>0.682891835657157</v>
       </c>
       <c r="J3" t="n">
-        <v>44.4469305644757</v>
+        <v>645.5371230000002</v>
       </c>
       <c r="K3" t="n">
-        <v>36.00201375722532</v>
+        <v>549.6877709769601</v>
       </c>
       <c r="L3" t="n">
-        <v>35.42598153710972</v>
+        <v>505.7127492988035</v>
       </c>
       <c r="M3" t="n">
-        <v>2732.0570046224025</v>
+        <v>1561.6566774947519</v>
       </c>
       <c r="N3" t="n">
-        <v>3372.909882249879</v>
+        <v>1833.9635915712515</v>
       </c>
       <c r="O3" t="n">
-        <v>3427.7539453758927</v>
+        <v>1993.43868649049</v>
       </c>
     </row>
     <row r="4">
@@ -3770,43 +3770,43 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>3.2590447181008972</v>
+        <v>455.1845419997804</v>
       </c>
       <c r="D4" t="n">
-        <v>18.014716173736797</v>
+        <v>1040.558904</v>
       </c>
       <c r="E4" t="n">
-        <v>14.591920100726808</v>
+        <v>886.05671793408</v>
       </c>
       <c r="F4" t="n">
-        <v>14.35844937911518</v>
+        <v>815.1721804993537</v>
       </c>
       <c r="G4" t="n">
-        <v>44323.00816617221</v>
+        <v>1593145.8969992313</v>
       </c>
       <c r="H4" t="n">
-        <v>25270.9755661722</v>
+        <v>116913.05006003124</v>
       </c>
       <c r="I4" t="n">
-        <v>1.326418870717878</v>
+        <v>0.07919688977415526</v>
       </c>
       <c r="J4" t="n">
-        <v>8.834716173736798</v>
+        <v>70.35890400000005</v>
       </c>
       <c r="K4" t="n">
-        <v>7.156120100726807</v>
+        <v>59.912013934080164</v>
       </c>
       <c r="L4" t="n">
-        <v>7.041622179115181</v>
+        <v>55.11905281935378</v>
       </c>
       <c r="M4" t="n">
-        <v>2860.417365902022</v>
+        <v>1661.6667317619267</v>
       </c>
       <c r="N4" t="n">
-        <v>3531.37946407657</v>
+        <v>1951.4124527455883</v>
       </c>
       <c r="O4" t="n">
-        <v>3588.8002683704967</v>
+        <v>2121.1004921147687</v>
       </c>
     </row>
     <row r="5">
@@ -3817,43 +3817,43 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1758040976097504</v>
+        <v>502.0775145326003</v>
       </c>
       <c r="D5" t="n">
-        <v>17.87438718</v>
+        <v>1150.8682185</v>
       </c>
       <c r="E5" t="n">
-        <v>14.478253615800002</v>
+        <v>979.98730541712</v>
       </c>
       <c r="F5" t="n">
-        <v>14.246601557947203</v>
+        <v>901.5883209837502</v>
       </c>
       <c r="G5" t="n">
-        <v>43190.93572749261</v>
+        <v>1757271.3008641007</v>
       </c>
       <c r="H5" t="n">
-        <v>24138.903127492602</v>
+        <v>281038.4539249006</v>
       </c>
       <c r="I5" t="n">
-        <v>1.266998835992575</v>
+        <v>0.19037542384157194</v>
       </c>
       <c r="J5" t="n">
-        <v>8.69438718</v>
+        <v>180.66821850000008</v>
       </c>
       <c r="K5" t="n">
-        <v>7.0424536158</v>
+        <v>153.84260141712014</v>
       </c>
       <c r="L5" t="n">
-        <v>6.9297743579472035</v>
+        <v>141.53519330375036</v>
       </c>
       <c r="M5" t="n">
-        <v>2776.377751271551</v>
+        <v>1555.5500367370948</v>
       </c>
       <c r="N5" t="n">
-        <v>3427.626853421668</v>
+        <v>1826.7921325830212</v>
       </c>
       <c r="O5" t="n">
-        <v>3483.360623396002</v>
+        <v>1985.6436223728515</v>
       </c>
     </row>
     <row r="6">
@@ -3864,19 +3864,19 @@
         <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4008847500000003</v>
+        <v>421.7808134112001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.18</v>
+        <v>970.1999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>7.435800000000001</v>
+        <v>826.1447039999998</v>
       </c>
       <c r="F6" t="n">
-        <v>7.3168272</v>
+        <v>760.0531276799999</v>
       </c>
       <c r="G6" t="n">
-        <v>19052.032600000006</v>
+        <v>1476232.8469392</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -3911,43 +3911,43 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>3.139825666119951</v>
+        <v>467.03473076863355</v>
       </c>
       <c r="D7" t="n">
-        <v>17.613114037398898</v>
+        <v>1070.02931112</v>
       </c>
       <c r="E7" t="n">
-        <v>14.266622370293112</v>
+        <v>911.1513590049022</v>
       </c>
       <c r="F7" t="n">
-        <v>14.038356412368422</v>
+        <v>838.2592502845101</v>
       </c>
       <c r="G7" t="n">
-        <v>42701.62905923134</v>
+        <v>1634621.5576902174</v>
       </c>
       <c r="H7" t="n">
-        <v>23649.596459231332</v>
+        <v>158388.71075101732</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2413161868740097</v>
+        <v>0.10729249865928549</v>
       </c>
       <c r="J7" t="n">
-        <v>8.433114037398898</v>
+        <v>99.82931112000017</v>
       </c>
       <c r="K7" t="n">
-        <v>6.83082237029311</v>
+        <v>85.00665500490243</v>
       </c>
       <c r="L7" t="n">
-        <v>6.721529212368423</v>
+        <v>78.20612260451026</v>
       </c>
       <c r="M7" t="n">
-        <v>2804.3728988308326</v>
+        <v>1586.595249171114</v>
       </c>
       <c r="N7" t="n">
-        <v>3462.1887639886804</v>
+        <v>1863.250715392611</v>
       </c>
       <c r="O7" t="n">
-        <v>3518.4845162486577</v>
+        <v>2025.2725167310982</v>
       </c>
     </row>
     <row r="8">
@@ -3958,43 +3958,43 @@
         <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>10.031197679910239</v>
+        <v>679.3321964582127</v>
       </c>
       <c r="D8" t="n">
-        <v>51.48783417987089</v>
+        <v>1544.715106704</v>
       </c>
       <c r="E8" t="n">
-        <v>41.70514568569542</v>
+        <v>1315.35580766059</v>
       </c>
       <c r="F8" t="n">
-        <v>41.037863354724294</v>
+        <v>1210.1273430477427</v>
       </c>
       <c r="G8" t="n">
-        <v>136424.28844677925</v>
+        <v>2377662.6876037447</v>
       </c>
       <c r="H8" t="n">
-        <v>117372.25584677924</v>
+        <v>901429.8406645446</v>
       </c>
       <c r="I8" t="n">
-        <v>6.160615946394046</v>
+        <v>0.6106284943689989</v>
       </c>
       <c r="J8" t="n">
-        <v>42.30783417987089</v>
+        <v>574.515106704</v>
       </c>
       <c r="K8" t="n">
-        <v>34.26934568569542</v>
+        <v>489.2111036605902</v>
       </c>
       <c r="L8" t="n">
-        <v>33.721036154724295</v>
+        <v>450.0742153677428</v>
       </c>
       <c r="M8" t="n">
-        <v>2774.244017024684</v>
+        <v>1569.0272199038566</v>
       </c>
       <c r="N8" t="n">
-        <v>3424.992613610721</v>
+        <v>1842.6193394211014</v>
       </c>
       <c r="O8" t="n">
-        <v>3480.683550417399</v>
+        <v>2002.8471080664153</v>
       </c>
     </row>
     <row r="9">
@@ -4005,43 +4005,43 @@
         <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>3.188119404137087</v>
+        <v>443.57338357374965</v>
       </c>
       <c r="D9" t="n">
-        <v>17.5064160427416</v>
+        <v>1013.5028977920001</v>
       </c>
       <c r="E9" t="n">
-        <v>14.180196994620696</v>
+        <v>863.0179875278437</v>
       </c>
       <c r="F9" t="n">
-        <v>13.953313842706764</v>
+        <v>793.9765485256163</v>
       </c>
       <c r="G9" t="n">
-        <v>43358.42389626439</v>
+        <v>1552506.8425081237</v>
       </c>
       <c r="H9" t="n">
-        <v>24306.39129626438</v>
+        <v>76273.99556892365</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2757899278560112</v>
+        <v>0.05166799785485674</v>
       </c>
       <c r="J9" t="n">
-        <v>8.326416042741599</v>
+        <v>43.30289779200018</v>
       </c>
       <c r="K9" t="n">
-        <v>6.744396994620694</v>
+        <v>36.87328352784391</v>
       </c>
       <c r="L9" t="n">
-        <v>6.636486642706765</v>
+        <v>33.92342084561642</v>
       </c>
       <c r="M9" t="n">
-        <v>2919.190101899008</v>
+        <v>1761.406267434938</v>
       </c>
       <c r="N9" t="n">
-        <v>3603.938397406183</v>
+        <v>2068.5436248531355</v>
       </c>
       <c r="O9" t="n">
-        <v>3662.53902175425</v>
+        <v>2248.4169835360153</v>
       </c>
     </row>
     <row r="10">
@@ -4052,43 +4052,43 @@
         <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>3.11496405067439</v>
+        <v>494.417375293205</v>
       </c>
       <c r="D10" t="n">
-        <v>17.4383650872</v>
+        <v>1133.01876996</v>
       </c>
       <c r="E10" t="n">
-        <v>14.125075720632003</v>
+        <v>964.7881429963392</v>
       </c>
       <c r="F10" t="n">
-        <v>13.89907450910189</v>
+        <v>887.605091556632</v>
       </c>
       <c r="G10" t="n">
-        <v>42363.51108917171</v>
+        <v>1730460.8135262176</v>
       </c>
       <c r="H10" t="n">
-        <v>23311.478489171706</v>
+        <v>254227.96658701752</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2235691056486906</v>
+        <v>0.17221400208925722</v>
       </c>
       <c r="J10" t="n">
-        <v>8.258365087200001</v>
+        <v>162.81876996000017</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6892757206320015</v>
+        <v>138.64343899633934</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5822473091018905</v>
+        <v>127.55196387663216</v>
       </c>
       <c r="M10" t="n">
-        <v>2822.771607094869</v>
+        <v>1561.4168234379483</v>
       </c>
       <c r="N10" t="n">
-        <v>3484.9032186356408</v>
+        <v>1833.6819140336675</v>
       </c>
       <c r="O10" t="n">
-        <v>3541.5683116215855</v>
+        <v>1993.1325152539869</v>
       </c>
     </row>
     <row r="11">
@@ -4099,43 +4099,43 @@
         <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>2.8343853158382855</v>
+        <v>473.8542047849028</v>
       </c>
       <c r="D11" t="n">
-        <v>18.0578766520197</v>
+        <v>1086.9393149999999</v>
       </c>
       <c r="E11" t="n">
-        <v>14.626880088135959</v>
+        <v>925.5505655087999</v>
       </c>
       <c r="F11" t="n">
-        <v>14.392850006725785</v>
+        <v>851.506520268096</v>
       </c>
       <c r="G11" t="n">
-        <v>38547.640295400684</v>
+        <v>1658489.7167471596</v>
       </c>
       <c r="H11" t="n">
-        <v>19495.60769540068</v>
+        <v>182256.86980795953</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0232822977324043</v>
+        <v>0.12346078749422783</v>
       </c>
       <c r="J11" t="n">
-        <v>8.877876652019701</v>
+        <v>116.73931499999992</v>
       </c>
       <c r="K11" t="n">
-        <v>7.191080088135958</v>
+        <v>99.40586150880006</v>
       </c>
       <c r="L11" t="n">
-        <v>7.076022806725786</v>
+        <v>91.45339258809611</v>
       </c>
       <c r="M11" t="n">
-        <v>2195.9764096255453</v>
+        <v>1561.2295635618527</v>
       </c>
       <c r="N11" t="n">
-        <v>2711.081987192031</v>
+        <v>1833.4620015523426</v>
       </c>
       <c r="O11" t="n">
-        <v>2755.1646211301118</v>
+        <v>1992.8934799481974</v>
       </c>
     </row>
     <row r="12">
@@ -4146,43 +4146,43 @@
         <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>8.562175042841275</v>
+        <v>707.9739873265432</v>
       </c>
       <c r="D12" t="n">
-        <v>53.6269305644757</v>
+        <v>1615.737123</v>
       </c>
       <c r="E12" t="n">
-        <v>43.43781375722532</v>
+        <v>1375.83247497696</v>
       </c>
       <c r="F12" t="n">
-        <v>42.74280873710972</v>
+        <v>1265.7658769788034</v>
       </c>
       <c r="G12" t="n">
-        <v>116445.58058264136</v>
+        <v>2477908.955642901</v>
       </c>
       <c r="H12" t="n">
-        <v>97393.54798264135</v>
+        <v>1001676.1087037008</v>
       </c>
       <c r="I12" t="n">
-        <v>5.11197676528442</v>
+        <v>0.6785353074757561</v>
       </c>
       <c r="J12" t="n">
-        <v>44.4469305644757</v>
+        <v>645.5371230000002</v>
       </c>
       <c r="K12" t="n">
-        <v>36.00201375722532</v>
+        <v>549.6877709769601</v>
       </c>
       <c r="L12" t="n">
-        <v>35.42598153710972</v>
+        <v>505.7127492988035</v>
       </c>
       <c r="M12" t="n">
-        <v>2191.2322571152604</v>
+        <v>1551.6940436339562</v>
       </c>
       <c r="N12" t="n">
-        <v>2705.225008784272</v>
+        <v>1822.2637678903095</v>
       </c>
       <c r="O12" t="n">
-        <v>2749.212407301089</v>
+        <v>1980.721486837292</v>
       </c>
     </row>
     <row r="13">
@@ -4193,43 +4193,43 @@
         <v>59</v>
       </c>
       <c r="C13" t="n">
-        <v>2.8390447181008973</v>
+        <v>454.4845419997804</v>
       </c>
       <c r="D13" t="n">
-        <v>18.014716173736797</v>
+        <v>1040.558904</v>
       </c>
       <c r="E13" t="n">
-        <v>14.591920100726808</v>
+        <v>886.05671793408</v>
       </c>
       <c r="F13" t="n">
-        <v>14.35844937911518</v>
+        <v>815.1721804993537</v>
       </c>
       <c r="G13" t="n">
-        <v>38611.00816617221</v>
+        <v>1590695.8969992313</v>
       </c>
       <c r="H13" t="n">
-        <v>19558.9755661722</v>
+        <v>114463.05006003124</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0266083402656048</v>
+        <v>0.07753725999076452</v>
       </c>
       <c r="J13" t="n">
-        <v>8.834716173736798</v>
+        <v>70.35890400000005</v>
       </c>
       <c r="K13" t="n">
-        <v>7.156120100726807</v>
+        <v>59.912013934080164</v>
       </c>
       <c r="L13" t="n">
-        <v>7.041622179115181</v>
+        <v>55.11905281935378</v>
       </c>
       <c r="M13" t="n">
-        <v>2213.8770710388753</v>
+        <v>1626.8452683690348</v>
       </c>
       <c r="N13" t="n">
-        <v>2733.1815691837965</v>
+        <v>1910.5191520681035</v>
       </c>
       <c r="O13" t="n">
-        <v>2777.6235459184913</v>
+        <v>2076.6512522479375</v>
       </c>
     </row>
     <row r="14">
@@ -4240,43 +4240,43 @@
         <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>2.80830409760975</v>
+        <v>501.6400145326003</v>
       </c>
       <c r="D14" t="n">
-        <v>17.87438718</v>
+        <v>1150.8682185</v>
       </c>
       <c r="E14" t="n">
-        <v>14.478253615800002</v>
+        <v>979.98730541712</v>
       </c>
       <c r="F14" t="n">
-        <v>14.246601557947203</v>
+        <v>901.5883209837502</v>
       </c>
       <c r="G14" t="n">
-        <v>38192.93572749261</v>
+        <v>1755740.0508641007</v>
       </c>
       <c r="H14" t="n">
-        <v>19140.903127492602</v>
+        <v>279507.2039249006</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0046646218468362</v>
+        <v>0.18933815522695274</v>
       </c>
       <c r="J14" t="n">
-        <v>8.69438718</v>
+        <v>180.66821850000008</v>
       </c>
       <c r="K14" t="n">
-        <v>7.0424536158</v>
+        <v>153.84260141712014</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9297743579472035</v>
+        <v>141.53519330375036</v>
       </c>
       <c r="M14" t="n">
-        <v>2201.5241248426437</v>
+        <v>1547.0745560315606</v>
       </c>
       <c r="N14" t="n">
-        <v>2717.9310183242515</v>
+        <v>1816.8387777522078</v>
       </c>
       <c r="O14" t="n">
-        <v>2762.1250186222055</v>
+        <v>1974.8247584263152</v>
       </c>
     </row>
     <row r="15">
@@ -4287,43 +4287,43 @@
         <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>2.772325666119951</v>
+        <v>466.59723076863355</v>
       </c>
       <c r="D15" t="n">
-        <v>17.613114037398898</v>
+        <v>1070.02931112</v>
       </c>
       <c r="E15" t="n">
-        <v>14.266622370293112</v>
+        <v>911.1513590049022</v>
       </c>
       <c r="F15" t="n">
-        <v>14.038356412368422</v>
+        <v>838.2592502845101</v>
       </c>
       <c r="G15" t="n">
-        <v>37703.62905923134</v>
+        <v>1633090.3076902174</v>
       </c>
       <c r="H15" t="n">
-        <v>18651.596459231332</v>
+        <v>156857.46075101732</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9789819727282708</v>
+        <v>0.10625523004466628</v>
       </c>
       <c r="J15" t="n">
-        <v>8.433114037398898</v>
+        <v>99.82931112000017</v>
       </c>
       <c r="K15" t="n">
-        <v>6.83082237029311</v>
+        <v>85.00665500490243</v>
       </c>
       <c r="L15" t="n">
-        <v>6.721529212368423</v>
+        <v>78.20612260451026</v>
       </c>
       <c r="M15" t="n">
-        <v>2211.7092661756787</v>
+        <v>1571.2565677475854</v>
       </c>
       <c r="N15" t="n">
-        <v>2730.505266883553</v>
+        <v>1845.2374198463776</v>
       </c>
       <c r="O15" t="n">
-        <v>2774.903726507675</v>
+        <v>2005.6928476591056</v>
       </c>
     </row>
     <row r="16">
@@ -4334,43 +4334,43 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>8.26369767991024</v>
+        <v>677.4946964582127</v>
       </c>
       <c r="D16" t="n">
-        <v>51.48783417987089</v>
+        <v>1544.715106704</v>
       </c>
       <c r="E16" t="n">
-        <v>41.70514568569542</v>
+        <v>1315.35580766059</v>
       </c>
       <c r="F16" t="n">
-        <v>41.037863354724294</v>
+        <v>1210.1273430477427</v>
       </c>
       <c r="G16" t="n">
-        <v>112386.28844677928</v>
+        <v>2371231.4376037447</v>
       </c>
       <c r="H16" t="n">
-        <v>93334.25584677927</v>
+        <v>894998.5906645446</v>
       </c>
       <c r="I16" t="n">
-        <v>4.898913297407398</v>
+        <v>0.6062719661875983</v>
       </c>
       <c r="J16" t="n">
-        <v>42.30783417987089</v>
+        <v>574.515106704</v>
       </c>
       <c r="K16" t="n">
-        <v>34.26934568569542</v>
+        <v>489.2111036605902</v>
       </c>
       <c r="L16" t="n">
-        <v>33.721036154724295</v>
+        <v>450.0742153677428</v>
       </c>
       <c r="M16" t="n">
-        <v>2206.075013198988</v>
+        <v>1557.8329972890742</v>
       </c>
       <c r="N16" t="n">
-        <v>2723.5493990110963</v>
+        <v>1829.4731741932942</v>
       </c>
       <c r="O16" t="n">
-        <v>2767.8347550925773</v>
+        <v>1988.5577980361902</v>
       </c>
     </row>
     <row r="17">
@@ -4381,43 +4381,43 @@
         <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>2.768119404137087</v>
+        <v>442.87338357374966</v>
       </c>
       <c r="D17" t="n">
-        <v>17.5064160427416</v>
+        <v>1013.5028977920001</v>
       </c>
       <c r="E17" t="n">
-        <v>14.180196994620696</v>
+        <v>863.0179875278437</v>
       </c>
       <c r="F17" t="n">
-        <v>13.953313842706764</v>
+        <v>793.9765485256163</v>
       </c>
       <c r="G17" t="n">
-        <v>37646.42389626439</v>
+        <v>1550056.8425081237</v>
       </c>
       <c r="H17" t="n">
-        <v>18594.39129626438</v>
+        <v>73823.99556892365</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9759793974037382</v>
+        <v>0.050008368071466004</v>
       </c>
       <c r="J17" t="n">
-        <v>8.326416042741599</v>
+        <v>43.30289779200018</v>
       </c>
       <c r="K17" t="n">
-        <v>6.744396994620694</v>
+        <v>36.87328352784391</v>
       </c>
       <c r="L17" t="n">
-        <v>6.636486642706765</v>
+        <v>33.92342084561642</v>
       </c>
       <c r="M17" t="n">
-        <v>2233.180662702256</v>
+        <v>1704.828067708715</v>
       </c>
       <c r="N17" t="n">
-        <v>2757.0131638299463</v>
+        <v>2002.0998540359815</v>
       </c>
       <c r="O17" t="n">
-        <v>2801.8426461686436</v>
+        <v>2176.19549351737</v>
       </c>
     </row>
     <row r="18">
@@ -4428,43 +4428,43 @@
         <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>2.7474640506743904</v>
+        <v>493.979875293205</v>
       </c>
       <c r="D18" t="n">
-        <v>17.4383650872</v>
+        <v>1133.01876996</v>
       </c>
       <c r="E18" t="n">
-        <v>14.125075720632003</v>
+        <v>964.7881429963392</v>
       </c>
       <c r="F18" t="n">
-        <v>13.89907450910189</v>
+        <v>887.605091556632</v>
       </c>
       <c r="G18" t="n">
-        <v>37365.51108917171</v>
+        <v>1728929.5635262176</v>
       </c>
       <c r="H18" t="n">
-        <v>18313.478489171706</v>
+        <v>252696.71658701752</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9612348915029518</v>
+        <v>0.171176733474638</v>
       </c>
       <c r="J18" t="n">
-        <v>8.258365087200001</v>
+        <v>162.81876996000017</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6892757206320015</v>
+        <v>138.64343899633934</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5822473091018905</v>
+        <v>127.55196387663216</v>
       </c>
       <c r="M18" t="n">
-        <v>2217.5670723926414</v>
+        <v>1552.0121952100349</v>
       </c>
       <c r="N18" t="n">
-        <v>2737.737126410668</v>
+        <v>1822.6373957276808</v>
       </c>
       <c r="O18" t="n">
-        <v>2782.2531772466136</v>
+        <v>1981.1276040518276</v>
       </c>
     </row>
     <row r="19">
@@ -4475,43 +4475,43 @@
         <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>0.731448289187675</v>
+        <v>12.616064249999999</v>
       </c>
       <c r="D19" t="n">
-        <v>18.0578766520197</v>
+        <v>1086.9393149999999</v>
       </c>
       <c r="E19" t="n">
-        <v>14.626880088135959</v>
+        <v>925.5505655087999</v>
       </c>
       <c r="F19" t="n">
-        <v>14.392850006725785</v>
+        <v>851.506520268096</v>
       </c>
       <c r="G19" t="n">
-        <v>9947.696732952381</v>
+        <v>44156.22487499999</v>
       </c>
       <c r="H19" t="n">
-        <v>7975.696732952381</v>
+        <v>10241.224874999993</v>
       </c>
       <c r="I19" t="n">
-        <v>4.044470959915</v>
+        <v>0.3019674148606809</v>
       </c>
       <c r="J19" t="n">
-        <v>8.877876652019701</v>
+        <v>116.73931499999992</v>
       </c>
       <c r="K19" t="n">
-        <v>7.191080088135958</v>
+        <v>99.40586150880006</v>
       </c>
       <c r="L19" t="n">
-        <v>7.076022806725786</v>
+        <v>91.45339258809611</v>
       </c>
       <c r="M19" t="n">
-        <v>898.3788630514398</v>
+        <v>87.72729971047029</v>
       </c>
       <c r="N19" t="n">
-        <v>1109.1097074709132</v>
+        <v>103.02435610493022</v>
       </c>
       <c r="O19" t="n">
-        <v>1127.1440116574317</v>
+        <v>111.98299576622843</v>
       </c>
     </row>
     <row r="20">
@@ -4522,43 +4522,43 @@
         <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>2.993156057521675</v>
+        <v>23.52986985</v>
       </c>
       <c r="D20" t="n">
-        <v>53.6269305644757</v>
+        <v>1615.737123</v>
       </c>
       <c r="E20" t="n">
-        <v>43.43781375722532</v>
+        <v>1375.83247497696</v>
       </c>
       <c r="F20" t="n">
-        <v>42.74280873710972</v>
+        <v>1265.7658769788034</v>
       </c>
       <c r="G20" t="n">
-        <v>40706.92238229478</v>
+        <v>82354.54447499999</v>
       </c>
       <c r="H20" t="n">
-        <v>38734.92238229478</v>
+        <v>48439.54447499999</v>
       </c>
       <c r="I20" t="n">
-        <v>19.642455569115</v>
+        <v>1.4282631424148604</v>
       </c>
       <c r="J20" t="n">
-        <v>44.4469305644757</v>
+        <v>645.5371230000002</v>
       </c>
       <c r="K20" t="n">
-        <v>36.00201375722532</v>
+        <v>549.6877709769601</v>
       </c>
       <c r="L20" t="n">
-        <v>35.42598153710972</v>
+        <v>505.7127492988035</v>
       </c>
       <c r="M20" t="n">
-        <v>871.4870046224013</v>
+        <v>75.03758149475158</v>
       </c>
       <c r="N20" t="n">
-        <v>1075.909882249878</v>
+        <v>88.12192490458426</v>
       </c>
       <c r="O20" t="n">
-        <v>1093.4043518799572</v>
+        <v>95.78470098324372</v>
       </c>
     </row>
     <row r="21">
@@ -4569,43 +4569,43 @@
         <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7945123305002</v>
+        <v>13.2089028</v>
       </c>
       <c r="D21" t="n">
-        <v>18.014716173736797</v>
+        <v>1040.558904</v>
       </c>
       <c r="E21" t="n">
-        <v>14.591920100726808</v>
+        <v>886.05671793408</v>
       </c>
       <c r="F21" t="n">
-        <v>14.35844937911518</v>
+        <v>815.1721804993537</v>
       </c>
       <c r="G21" t="n">
-        <v>10805.36769480272</v>
+        <v>46231.1598</v>
       </c>
       <c r="H21" t="n">
-        <v>8833.36769480272</v>
+        <v>12316.159800000001</v>
       </c>
       <c r="I21" t="n">
-        <v>4.47939538276</v>
+        <v>0.3631478637770898</v>
       </c>
       <c r="J21" t="n">
-        <v>8.834716173736798</v>
+        <v>70.35890400000005</v>
       </c>
       <c r="K21" t="n">
-        <v>7.156120100726807</v>
+        <v>59.912013934080164</v>
       </c>
       <c r="L21" t="n">
-        <v>7.041622179115181</v>
+        <v>55.11905281935378</v>
       </c>
       <c r="M21" t="n">
-        <v>999.8473659020212</v>
+        <v>175.04763576192136</v>
       </c>
       <c r="N21" t="n">
-        <v>1234.3794640765693</v>
+        <v>205.5707860789189</v>
       </c>
       <c r="O21" t="n">
-        <v>1254.4506748745616</v>
+        <v>223.4465066075204</v>
       </c>
     </row>
     <row r="22">
@@ -4616,43 +4616,43 @@
         <v>68</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7304696449999999</v>
+        <v>13.248180074999999</v>
       </c>
       <c r="D22" t="n">
-        <v>17.87438718</v>
+        <v>1150.8682185</v>
       </c>
       <c r="E22" t="n">
-        <v>14.478253615800002</v>
+        <v>979.98730541712</v>
       </c>
       <c r="F22" t="n">
-        <v>14.246601557947203</v>
+        <v>901.5883209837502</v>
       </c>
       <c r="G22" t="n">
-        <v>9934.387171999999</v>
+        <v>46368.630262499995</v>
       </c>
       <c r="H22" t="n">
-        <v>7962.387171999999</v>
+        <v>12453.630262499995</v>
       </c>
       <c r="I22" t="n">
-        <v>4.0377216896551715</v>
+        <v>0.3672012461300308</v>
       </c>
       <c r="J22" t="n">
-        <v>8.69438718</v>
+        <v>180.66821850000008</v>
       </c>
       <c r="K22" t="n">
-        <v>7.0424536158</v>
+        <v>153.84260141712014</v>
       </c>
       <c r="L22" t="n">
-        <v>6.9297743579472035</v>
+        <v>141.53519330375036</v>
       </c>
       <c r="M22" t="n">
-        <v>915.8077512715507</v>
+        <v>68.93094073709477</v>
       </c>
       <c r="N22" t="n">
-        <v>1130.6268534216674</v>
+        <v>80.95046591635516</v>
       </c>
       <c r="O22" t="n">
-        <v>1149.011029900068</v>
+        <v>87.98963686560353</v>
       </c>
     </row>
     <row r="23">
@@ -4663,19 +4663,19 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>0.145</v>
+        <v>9.69</v>
       </c>
       <c r="D23" t="n">
-        <v>9.18</v>
+        <v>970.1999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>7.435800000000001</v>
+        <v>826.1447039999998</v>
       </c>
       <c r="F23" t="n">
-        <v>7.3168272</v>
+        <v>760.0531276799999</v>
       </c>
       <c r="G23" t="n">
-        <v>1972.0</v>
+        <v>33915.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -4710,43 +4710,43 @@
         <v>70</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7302351084314749</v>
+        <v>12.541585856999998</v>
       </c>
       <c r="D24" t="n">
-        <v>17.613114037398898</v>
+        <v>1070.02931112</v>
       </c>
       <c r="E24" t="n">
-        <v>14.266622370293112</v>
+        <v>911.1513590049022</v>
       </c>
       <c r="F24" t="n">
-        <v>14.038356412368422</v>
+        <v>838.2592502845101</v>
       </c>
       <c r="G24" t="n">
-        <v>9931.197474668059</v>
+        <v>43895.550499499994</v>
       </c>
       <c r="H24" t="n">
-        <v>7959.197474668059</v>
+        <v>9980.550499499994</v>
       </c>
       <c r="I24" t="n">
-        <v>4.036104196079138</v>
+        <v>0.29428130619195025</v>
       </c>
       <c r="J24" t="n">
-        <v>8.433114037398898</v>
+        <v>99.82931112000017</v>
       </c>
       <c r="K24" t="n">
-        <v>6.83082237029311</v>
+        <v>85.00665500490243</v>
       </c>
       <c r="L24" t="n">
-        <v>6.721529212368423</v>
+        <v>78.20612260451026</v>
       </c>
       <c r="M24" t="n">
-        <v>943.8028988308317</v>
+        <v>99.97615317111463</v>
       </c>
       <c r="N24" t="n">
-        <v>1165.1887639886806</v>
+        <v>117.40904872594274</v>
       </c>
       <c r="O24" t="n">
-        <v>1184.134922752724</v>
+        <v>127.61853122385077</v>
       </c>
     </row>
     <row r="25">
@@ -4757,43 +4757,43 @@
         <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>2.987321235789475</v>
+        <v>23.2170605994</v>
       </c>
       <c r="D25" t="n">
-        <v>51.48783417987089</v>
+        <v>1544.715106704</v>
       </c>
       <c r="E25" t="n">
-        <v>41.70514568569542</v>
+        <v>1315.35580766059</v>
       </c>
       <c r="F25" t="n">
-        <v>41.037863354724294</v>
+        <v>1210.1273430477427</v>
       </c>
       <c r="G25" t="n">
-        <v>40627.56880673687</v>
+        <v>81259.7120979</v>
       </c>
       <c r="H25" t="n">
-        <v>38655.56880673687</v>
+        <v>47344.7120979</v>
       </c>
       <c r="I25" t="n">
-        <v>19.602215419237762</v>
+        <v>1.395981486006192</v>
       </c>
       <c r="J25" t="n">
-        <v>42.30783417987089</v>
+        <v>574.515106704</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26934568569542</v>
+        <v>489.2111036605902</v>
       </c>
       <c r="L25" t="n">
-        <v>33.721036154724295</v>
+        <v>450.0742153677428</v>
       </c>
       <c r="M25" t="n">
-        <v>913.6740170246842</v>
+        <v>82.40812390385551</v>
       </c>
       <c r="N25" t="n">
-        <v>1127.9926136107213</v>
+        <v>96.77767275443382</v>
       </c>
       <c r="O25" t="n">
-        <v>1146.3339569214645</v>
+        <v>105.19312255916725</v>
       </c>
     </row>
     <row r="26">
@@ -4804,43 +4804,43 @@
         <v>72</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7931258382074</v>
+        <v>13.089737371199998</v>
       </c>
       <c r="D26" t="n">
-        <v>17.5064160427416</v>
+        <v>1013.5028977920001</v>
       </c>
       <c r="E26" t="n">
-        <v>14.180196994620696</v>
+        <v>863.0179875278437</v>
       </c>
       <c r="F26" t="n">
-        <v>13.953313842706764</v>
+        <v>793.9765485256163</v>
       </c>
       <c r="G26" t="n">
-        <v>10786.511399620642</v>
+        <v>45814.08079919999</v>
       </c>
       <c r="H26" t="n">
-        <v>8814.511399620642</v>
+        <v>11899.08079919999</v>
       </c>
       <c r="I26" t="n">
-        <v>4.469833366947587</v>
+        <v>0.35085008990712047</v>
       </c>
       <c r="J26" t="n">
-        <v>8.326416042741599</v>
+        <v>43.30289779200018</v>
       </c>
       <c r="K26" t="n">
-        <v>6.744396994620694</v>
+        <v>36.87328352784391</v>
       </c>
       <c r="L26" t="n">
-        <v>6.636486642706765</v>
+        <v>33.92342084561642</v>
       </c>
       <c r="M26" t="n">
-        <v>1058.6201018990075</v>
+        <v>274.7871714349389</v>
       </c>
       <c r="N26" t="n">
-        <v>1306.9383974061823</v>
+        <v>322.70195818646596</v>
       </c>
       <c r="O26" t="n">
-        <v>1328.1894282583148</v>
+        <v>350.76299802876713</v>
       </c>
     </row>
     <row r="27">
@@ -4851,43 +4851,43 @@
         <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7292803057999999</v>
+        <v>13.169563993499999</v>
       </c>
       <c r="D27" t="n">
-        <v>17.4383650872</v>
+        <v>1133.01876996</v>
       </c>
       <c r="E27" t="n">
-        <v>14.125075720632003</v>
+        <v>964.7881429963392</v>
       </c>
       <c r="F27" t="n">
-        <v>13.89907450910189</v>
+        <v>887.605091556632</v>
       </c>
       <c r="G27" t="n">
-        <v>9918.21215888</v>
+        <v>46093.47397724999</v>
       </c>
       <c r="H27" t="n">
-        <v>7946.21215888</v>
+        <v>12178.473977249989</v>
       </c>
       <c r="I27" t="n">
-        <v>4.0295193503448274</v>
+        <v>0.3590881314241483</v>
       </c>
       <c r="J27" t="n">
-        <v>8.258365087200001</v>
+        <v>162.81876996000017</v>
       </c>
       <c r="K27" t="n">
-        <v>6.6892757206320015</v>
+        <v>138.64343899633934</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5822473091018905</v>
+        <v>127.55196387663216</v>
       </c>
       <c r="M27" t="n">
-        <v>962.2016070948691</v>
+        <v>74.79772743794764</v>
       </c>
       <c r="N27" t="n">
-        <v>1187.9032186356408</v>
+        <v>87.84024736699976</v>
       </c>
       <c r="O27" t="n">
-        <v>1207.218718125651</v>
+        <v>95.4785297467389</v>
       </c>
     </row>
     <row r="28">
@@ -4898,43 +4898,43 @@
         <v>74</v>
       </c>
       <c r="C28" t="n">
-        <v>0.36394828918767497</v>
+        <v>12.178564249999999</v>
       </c>
       <c r="D28" t="n">
-        <v>18.0578766520197</v>
+        <v>1086.9393149999999</v>
       </c>
       <c r="E28" t="n">
-        <v>14.626880088135959</v>
+        <v>925.5505655087999</v>
       </c>
       <c r="F28" t="n">
-        <v>14.392850006725785</v>
+        <v>851.506520268096</v>
       </c>
       <c r="G28" t="n">
-        <v>4949.6967329523795</v>
+        <v>42624.97487499999</v>
       </c>
       <c r="H28" t="n">
-        <v>2977.6967329523795</v>
+        <v>8709.974874999993</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5099882012943102</v>
+        <v>0.2568177760577913</v>
       </c>
       <c r="J28" t="n">
-        <v>8.877876652019701</v>
+        <v>116.73931499999992</v>
       </c>
       <c r="K28" t="n">
-        <v>7.191080088135958</v>
+        <v>99.40586150880006</v>
       </c>
       <c r="L28" t="n">
-        <v>7.076022806725786</v>
+        <v>91.45339258809611</v>
       </c>
       <c r="M28" t="n">
-        <v>335.4064096255447</v>
+        <v>74.61046756184922</v>
       </c>
       <c r="N28" t="n">
-        <v>414.08198719203057</v>
+        <v>87.62033488567401</v>
       </c>
       <c r="O28" t="n">
-        <v>420.81502763417717</v>
+        <v>95.23949444094995</v>
       </c>
     </row>
     <row r="29">
@@ -4945,43 +4945,43 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>1.225656057521675</v>
+        <v>21.69236985</v>
       </c>
       <c r="D29" t="n">
-        <v>53.6269305644757</v>
+        <v>1615.737123</v>
       </c>
       <c r="E29" t="n">
-        <v>43.43781375722532</v>
+        <v>1375.83247497696</v>
       </c>
       <c r="F29" t="n">
-        <v>42.74280873710972</v>
+        <v>1265.7658769788034</v>
       </c>
       <c r="G29" t="n">
-        <v>16668.92238229478</v>
+        <v>75923.29447499999</v>
       </c>
       <c r="H29" t="n">
-        <v>14696.922382294779</v>
+        <v>42008.29447499999</v>
       </c>
       <c r="I29" t="n">
-        <v>7.452800396701206</v>
+        <v>1.238634659442724</v>
       </c>
       <c r="J29" t="n">
-        <v>44.4469305644757</v>
+        <v>645.5371230000002</v>
       </c>
       <c r="K29" t="n">
-        <v>36.00201375722532</v>
+        <v>549.6877709769601</v>
       </c>
       <c r="L29" t="n">
-        <v>35.42598153710972</v>
+        <v>505.7127492988035</v>
       </c>
       <c r="M29" t="n">
-        <v>330.66225711526016</v>
+        <v>65.07494763395657</v>
       </c>
       <c r="N29" t="n">
-        <v>408.2250087842717</v>
+        <v>76.4221012236431</v>
       </c>
       <c r="O29" t="n">
-        <v>414.86281380515413</v>
+        <v>83.06750133004681</v>
       </c>
     </row>
     <row r="30">
@@ -4992,43 +4992,43 @@
         <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3745123305002</v>
+        <v>12.508902800000001</v>
       </c>
       <c r="D30" t="n">
-        <v>18.014716173736797</v>
+        <v>1040.558904</v>
       </c>
       <c r="E30" t="n">
-        <v>14.591920100726808</v>
+        <v>886.05671793408</v>
       </c>
       <c r="F30" t="n">
-        <v>14.35844937911518</v>
+        <v>815.1721804993537</v>
       </c>
       <c r="G30" t="n">
-        <v>5093.3676948027205</v>
+        <v>43781.1598</v>
       </c>
       <c r="H30" t="n">
-        <v>3121.3676948027205</v>
+        <v>9866.159800000001</v>
       </c>
       <c r="I30" t="n">
-        <v>1.5828436586220693</v>
+        <v>0.2909084416924665</v>
       </c>
       <c r="J30" t="n">
-        <v>8.834716173736798</v>
+        <v>70.35890400000005</v>
       </c>
       <c r="K30" t="n">
-        <v>7.156120100726807</v>
+        <v>59.912013934080164</v>
       </c>
       <c r="L30" t="n">
-        <v>7.041622179115181</v>
+        <v>55.11905281935378</v>
       </c>
       <c r="M30" t="n">
-        <v>353.30707103887454</v>
+        <v>140.22617236902943</v>
       </c>
       <c r="N30" t="n">
-        <v>436.18156918379566</v>
+        <v>164.67748540143407</v>
       </c>
       <c r="O30" t="n">
-        <v>443.2739524225564</v>
+        <v>178.9972667406891</v>
       </c>
     </row>
     <row r="31">
@@ -5039,43 +5039,43 @@
         <v>77</v>
       </c>
       <c r="C31" t="n">
-        <v>0.36296964499999995</v>
+        <v>12.810680074999999</v>
       </c>
       <c r="D31" t="n">
-        <v>17.87438718</v>
+        <v>1150.8682185</v>
       </c>
       <c r="E31" t="n">
-        <v>14.478253615800002</v>
+        <v>979.98730541712</v>
       </c>
       <c r="F31" t="n">
-        <v>14.246601557947203</v>
+        <v>901.5883209837502</v>
       </c>
       <c r="G31" t="n">
-        <v>4936.387172</v>
+        <v>44837.38026249999</v>
       </c>
       <c r="H31" t="n">
-        <v>2964.3871719999997</v>
+        <v>10922.380262499988</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5032389310344827</v>
+        <v>0.32205160732714105</v>
       </c>
       <c r="J31" t="n">
-        <v>8.69438718</v>
+        <v>180.66821850000008</v>
       </c>
       <c r="K31" t="n">
-        <v>7.0424536158</v>
+        <v>153.84260141712014</v>
       </c>
       <c r="L31" t="n">
-        <v>6.9297743579472035</v>
+        <v>141.53519330375036</v>
       </c>
       <c r="M31" t="n">
-        <v>340.9541248426436</v>
+        <v>60.45546003156046</v>
       </c>
       <c r="N31" t="n">
-        <v>420.9310183242513</v>
+        <v>70.99711108554166</v>
       </c>
       <c r="O31" t="n">
-        <v>427.77542512627144</v>
+        <v>77.17077291906712</v>
       </c>
     </row>
     <row r="32">
@@ -5086,43 +5086,43 @@
         <v>78</v>
       </c>
       <c r="C32" t="n">
-        <v>0.362735108431475</v>
+        <v>12.104085856999998</v>
       </c>
       <c r="D32" t="n">
-        <v>17.613114037398898</v>
+        <v>1070.02931112</v>
       </c>
       <c r="E32" t="n">
-        <v>14.266622370293112</v>
+        <v>911.1513590049022</v>
       </c>
       <c r="F32" t="n">
-        <v>14.038356412368422</v>
+        <v>838.2592502845101</v>
       </c>
       <c r="G32" t="n">
-        <v>4933.197474668061</v>
+        <v>42364.300499499994</v>
       </c>
       <c r="H32" t="n">
-        <v>2961.1974746680607</v>
+        <v>8449.300499499994</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5016214374584487</v>
+        <v>0.2491316673890607</v>
       </c>
       <c r="J32" t="n">
-        <v>8.433114037398898</v>
+        <v>99.82931112000017</v>
       </c>
       <c r="K32" t="n">
-        <v>6.83082237029311</v>
+        <v>85.00665500490243</v>
       </c>
       <c r="L32" t="n">
-        <v>6.721529212368423</v>
+        <v>78.20612260451026</v>
       </c>
       <c r="M32" t="n">
-        <v>351.1392661756783</v>
+        <v>84.63747174758606</v>
       </c>
       <c r="N32" t="n">
-        <v>433.50526688355325</v>
+        <v>99.39575317970944</v>
       </c>
       <c r="O32" t="n">
-        <v>440.554133011741</v>
+        <v>108.03886215185805</v>
       </c>
     </row>
     <row r="33">
@@ -5133,43 +5133,43 @@
         <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>1.219821235789475</v>
+        <v>21.379560599399998</v>
       </c>
       <c r="D33" t="n">
-        <v>51.48783417987089</v>
+        <v>1544.715106704</v>
       </c>
       <c r="E33" t="n">
-        <v>41.70514568569542</v>
+        <v>1315.35580766059</v>
       </c>
       <c r="F33" t="n">
-        <v>41.037863354724294</v>
+        <v>1210.1273430477427</v>
       </c>
       <c r="G33" t="n">
-        <v>16589.56880673686</v>
+        <v>74828.46209789999</v>
       </c>
       <c r="H33" t="n">
-        <v>14617.568806736861</v>
+        <v>40913.46209789999</v>
       </c>
       <c r="I33" t="n">
-        <v>7.412560246823966</v>
+        <v>1.2063530030340555</v>
       </c>
       <c r="J33" t="n">
-        <v>42.30783417987089</v>
+        <v>574.515106704</v>
       </c>
       <c r="K33" t="n">
-        <v>34.26934568569542</v>
+        <v>489.2111036605902</v>
       </c>
       <c r="L33" t="n">
-        <v>33.721036154724295</v>
+        <v>450.0742153677428</v>
       </c>
       <c r="M33" t="n">
-        <v>345.5050131989874</v>
+        <v>71.21390128907316</v>
       </c>
       <c r="N33" t="n">
-        <v>426.54939901109555</v>
+        <v>83.63150752662666</v>
       </c>
       <c r="O33" t="n">
-        <v>433.4851615966418</v>
+        <v>90.90381252894207</v>
       </c>
     </row>
     <row r="34">
@@ -5180,43 +5180,43 @@
         <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3731258382074</v>
+        <v>12.389737371199999</v>
       </c>
       <c r="D34" t="n">
-        <v>17.5064160427416</v>
+        <v>1013.5028977920001</v>
       </c>
       <c r="E34" t="n">
-        <v>14.180196994620696</v>
+        <v>863.0179875278437</v>
       </c>
       <c r="F34" t="n">
-        <v>13.953313842706764</v>
+        <v>793.9765485256163</v>
       </c>
       <c r="G34" t="n">
-        <v>5074.51139962064</v>
+        <v>43364.08079919999</v>
       </c>
       <c r="H34" t="n">
-        <v>3102.51139962064</v>
+        <v>9449.08079919999</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5732816428096552</v>
+        <v>0.2786106678224971</v>
       </c>
       <c r="J34" t="n">
-        <v>8.326416042741599</v>
+        <v>43.30289779200018</v>
       </c>
       <c r="K34" t="n">
-        <v>6.744396994620694</v>
+        <v>36.87328352784391</v>
       </c>
       <c r="L34" t="n">
-        <v>6.636486642706765</v>
+        <v>33.92342084561642</v>
       </c>
       <c r="M34" t="n">
-        <v>372.61066270225564</v>
+        <v>218.20897170871604</v>
       </c>
       <c r="N34" t="n">
-        <v>460.0131638299453</v>
+        <v>256.258187369312</v>
       </c>
       <c r="O34" t="n">
-        <v>467.49305267270853</v>
+        <v>278.54150801012156</v>
       </c>
     </row>
     <row r="35">
@@ -5227,43 +5227,43 @@
         <v>81</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3617803058</v>
+        <v>12.732063993499999</v>
       </c>
       <c r="D35" t="n">
-        <v>17.4383650872</v>
+        <v>1133.01876996</v>
       </c>
       <c r="E35" t="n">
-        <v>14.125075720632003</v>
+        <v>964.7881429963392</v>
       </c>
       <c r="F35" t="n">
-        <v>13.89907450910189</v>
+        <v>887.605091556632</v>
       </c>
       <c r="G35" t="n">
-        <v>4920.21215888</v>
+        <v>44562.22397724999</v>
       </c>
       <c r="H35" t="n">
-        <v>2948.21215888</v>
+        <v>10647.223977249989</v>
       </c>
       <c r="I35" t="n">
-        <v>1.495036591724138</v>
+        <v>0.3139384926212587</v>
       </c>
       <c r="J35" t="n">
-        <v>8.258365087200001</v>
+        <v>162.81876996000017</v>
       </c>
       <c r="K35" t="n">
-        <v>6.6892757206320015</v>
+        <v>138.64343899633934</v>
       </c>
       <c r="L35" t="n">
-        <v>6.5822473091018905</v>
+        <v>127.55196387663216</v>
       </c>
       <c r="M35" t="n">
-        <v>356.99707239264126</v>
+        <v>65.39309921003397</v>
       </c>
       <c r="N35" t="n">
-        <v>440.7371264106682</v>
+        <v>76.7957290610132</v>
       </c>
       <c r="O35" t="n">
-        <v>447.903583750679</v>
+        <v>83.4736185445796</v>
       </c>
     </row>
   </sheetData>
@@ -5332,43 +5332,43 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>83.18690158001843</v>
+        <v>3.046545002721155</v>
       </c>
       <c r="D2" t="n">
-        <v>458.5382771936669</v>
+        <v>17.986887958824</v>
       </c>
       <c r="E2" t="n">
-        <v>388.1067978167197</v>
+        <v>14.569379246647442</v>
       </c>
       <c r="F2" t="n">
-        <v>367.9252443302502</v>
+        <v>14.336269178701082</v>
       </c>
       <c r="G2" t="n">
-        <v>794393.316638386</v>
+        <v>41433.01203700771</v>
       </c>
       <c r="H2" t="n">
-        <v>112470.30229816516</v>
+        <v>22329.724107340568</v>
       </c>
       <c r="I2" t="n">
-        <v>0.16493108449636834</v>
+        <v>1.1688942861329548</v>
       </c>
       <c r="J2" t="n">
-        <v>59.739984278666896</v>
+        <v>8.806887958824</v>
       </c>
       <c r="K2" t="n">
-        <v>50.56392269346367</v>
+        <v>7.13357924664744</v>
       </c>
       <c r="L2" t="n">
-        <v>47.934598713403545</v>
+        <v>7.019441978701082</v>
       </c>
       <c r="M2" t="n">
-        <v>1882.6637411474549</v>
+        <v>2535.484067895681</v>
       </c>
       <c r="N2" t="n">
-        <v>2224.3191648717566</v>
+        <v>3130.2272443156558</v>
       </c>
       <c r="O2" t="n">
-        <v>2346.3282329870854</v>
+        <v>3181.1252482882674</v>
       </c>
     </row>
     <row r="3">
@@ -5379,43 +5379,43 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>132.30074519995281</v>
+        <v>9.568922734884719</v>
       </c>
       <c r="D3" t="n">
-        <v>713.5139537518013</v>
+        <v>53.285508754343994</v>
       </c>
       <c r="E3" t="n">
-        <v>603.9182104555247</v>
+        <v>43.16126209101865</v>
       </c>
       <c r="F3" t="n">
-        <v>572.5144635118373</v>
+        <v>42.47068189756234</v>
       </c>
       <c r="G3" t="n">
-        <v>1263405.9662869493</v>
+        <v>130137.3491944322</v>
       </c>
       <c r="H3" t="n">
-        <v>581482.9519467285</v>
+        <v>111034.06126476506</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8527105548847463</v>
+        <v>5.812301090448973</v>
       </c>
       <c r="J3" t="n">
-        <v>314.7156608368013</v>
+        <v>44.105508754343994</v>
       </c>
       <c r="K3" t="n">
-        <v>266.37533533226866</v>
+        <v>35.72546209101865</v>
       </c>
       <c r="L3" t="n">
-        <v>252.52381789499066</v>
+        <v>35.153854697562345</v>
       </c>
       <c r="M3" t="n">
-        <v>1847.6454282593259</v>
+        <v>2517.464697736407</v>
       </c>
       <c r="N3" t="n">
-        <v>2182.945921856481</v>
+        <v>3107.9811083165505</v>
       </c>
       <c r="O3" t="n">
-        <v>2302.685571578567</v>
+        <v>3158.51738650056</v>
       </c>
     </row>
     <row r="4">
@@ -5426,43 +5426,43 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>81.6843537668421</v>
+        <v>3.0804361390412542</v>
       </c>
       <c r="D4" t="n">
-        <v>446.52647261106716</v>
+        <v>17.933586238655998</v>
       </c>
       <c r="E4" t="n">
-        <v>377.9400064180073</v>
+        <v>14.526204853311361</v>
       </c>
       <c r="F4" t="n">
-        <v>358.2871260842709</v>
+        <v>14.29378557565838</v>
       </c>
       <c r="G4" t="n">
-        <v>780044.7362964585</v>
+        <v>41893.931490961055</v>
       </c>
       <c r="H4" t="n">
-        <v>98121.72195623768</v>
+        <v>22790.64356129391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.14388973519418924</v>
+        <v>1.1930220412948052</v>
       </c>
       <c r="J4" t="n">
-        <v>47.72817969606717</v>
+        <v>8.753586238655998</v>
       </c>
       <c r="K4" t="n">
-        <v>40.39713129475126</v>
+        <v>7.09040485331136</v>
       </c>
       <c r="L4" t="n">
-        <v>38.2964804674242</v>
+        <v>6.97695837565838</v>
       </c>
       <c r="M4" t="n">
-        <v>2055.8446305950984</v>
+        <v>2603.577886815121</v>
       </c>
       <c r="N4" t="n">
-        <v>2428.927966204038</v>
+        <v>3214.293687426075</v>
       </c>
       <c r="O4" t="n">
-        <v>2562.1603019029935</v>
+        <v>3266.5586254330024</v>
       </c>
     </row>
     <row r="5">
@@ -5473,43 +5473,43 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>85.61654085462396</v>
+        <v>3.0284053747372286</v>
       </c>
       <c r="D5" t="n">
-        <v>473.4782582419951</v>
+        <v>17.8047936</v>
       </c>
       <c r="E5" t="n">
-        <v>400.7519977760247</v>
+        <v>14.421882816000004</v>
       </c>
       <c r="F5" t="n">
-        <v>379.91289389167133</v>
+        <v>14.191132690944002</v>
       </c>
       <c r="G5" t="n">
-        <v>817595.1568912315</v>
+        <v>41186.31309642631</v>
       </c>
       <c r="H5" t="n">
-        <v>135672.1425510107</v>
+        <v>22083.025166759166</v>
       </c>
       <c r="I5" t="n">
-        <v>0.19895521884134856</v>
+        <v>1.155980334278715</v>
       </c>
       <c r="J5" t="n">
-        <v>74.6799653269951</v>
+        <v>8.6247936</v>
       </c>
       <c r="K5" t="n">
-        <v>63.20912265276871</v>
+        <v>6.986082816000002</v>
       </c>
       <c r="L5" t="n">
-        <v>59.92224827482465</v>
+        <v>6.8743054909440025</v>
       </c>
       <c r="M5" t="n">
-        <v>1816.714053855731</v>
+        <v>2560.4120157448365</v>
       </c>
       <c r="N5" t="n">
-        <v>2146.401292362629</v>
+        <v>3161.0024885738712</v>
       </c>
       <c r="O5" t="n">
-        <v>2264.1363843487684</v>
+        <v>3212.400903022227</v>
       </c>
     </row>
     <row r="6">
@@ -5520,19 +5520,19 @@
         <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>71.40928994609361</v>
+        <v>1.4046535242402314</v>
       </c>
       <c r="D6" t="n">
-        <v>398.798292915</v>
+        <v>9.18</v>
       </c>
       <c r="E6" t="n">
-        <v>337.542875123256</v>
+        <v>7.435800000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>319.9906456168467</v>
+        <v>7.3168272</v>
       </c>
       <c r="G6" t="n">
-        <v>681923.0143402208</v>
+        <v>19103.287929667145</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -5567,43 +5567,43 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>82.29846956564394</v>
+        <v>2.846969280812373</v>
       </c>
       <c r="D7" t="n">
-        <v>452.13517180262374</v>
+        <v>15.906546696887998</v>
       </c>
       <c r="E7" t="n">
-        <v>382.6872094137407</v>
+        <v>12.884302824479281</v>
       </c>
       <c r="F7" t="n">
-        <v>362.7874745242262</v>
+        <v>12.678153979287613</v>
       </c>
       <c r="G7" t="n">
-        <v>785909.2351171167</v>
+        <v>38718.78221904828</v>
       </c>
       <c r="H7" t="n">
-        <v>103986.22077689588</v>
+        <v>19615.49428938113</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15248967785242648</v>
+        <v>1.026812471319062</v>
       </c>
       <c r="J7" t="n">
-        <v>53.336878887623755</v>
+        <v>6.726546696887999</v>
       </c>
       <c r="K7" t="n">
-        <v>45.144334290484665</v>
+        <v>5.44850282447928</v>
       </c>
       <c r="L7" t="n">
-        <v>42.796828907379506</v>
+        <v>5.361326779287613</v>
       </c>
       <c r="M7" t="n">
-        <v>1949.6120310298988</v>
+        <v>2916.1314376151045</v>
       </c>
       <c r="N7" t="n">
-        <v>2303.416860857635</v>
+        <v>3600.162268660622</v>
       </c>
       <c r="O7" t="n">
-        <v>2429.7646211578403</v>
+        <v>3658.7014925412814</v>
       </c>
     </row>
     <row r="8">
@@ -5614,43 +5614,43 @@
         <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>128.56933073958</v>
+        <v>8.609058548561528</v>
       </c>
       <c r="D8" t="n">
-        <v>686.6209111094197</v>
+        <v>43.280057923128005</v>
       </c>
       <c r="E8" t="n">
-        <v>581.1559391630128</v>
+        <v>35.056846917733694</v>
       </c>
       <c r="F8" t="n">
-        <v>550.9358303265362</v>
+        <v>34.49593736704995</v>
       </c>
       <c r="G8" t="n">
-        <v>1227772.8238976193</v>
+        <v>117083.19626043679</v>
       </c>
       <c r="H8" t="n">
-        <v>545849.8095573984</v>
+        <v>97979.90833076964</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8004566469801918</v>
+        <v>5.1289552192012025</v>
       </c>
       <c r="J8" t="n">
-        <v>287.8226181944197</v>
+        <v>34.100057923128006</v>
       </c>
       <c r="K8" t="n">
-        <v>243.6130640397568</v>
+        <v>27.621046917733693</v>
       </c>
       <c r="L8" t="n">
-        <v>230.94518470968956</v>
+        <v>27.17911016704995</v>
       </c>
       <c r="M8" t="n">
-        <v>1896.4798978678089</v>
+        <v>2873.3062140729035</v>
       </c>
       <c r="N8" t="n">
-        <v>2240.642601450625</v>
+        <v>3547.291622312225</v>
       </c>
       <c r="O8" t="n">
-        <v>2363.5470479436963</v>
+        <v>3604.9711608864086</v>
       </c>
     </row>
     <row r="9">
@@ -5661,43 +5661,43 @@
         <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>80.26286254384291</v>
+        <v>2.8523495997169315</v>
       </c>
       <c r="D9" t="n">
-        <v>436.281503985398</v>
+        <v>15.556053367871998</v>
       </c>
       <c r="E9" t="n">
-        <v>369.2686649732409</v>
+        <v>12.600403227976319</v>
       </c>
       <c r="F9" t="n">
-        <v>350.06669439463235</v>
+        <v>12.398796776328698</v>
       </c>
       <c r="G9" t="n">
-        <v>766470.205862428</v>
+        <v>38791.95455615027</v>
       </c>
       <c r="H9" t="n">
-        <v>84547.19152220711</v>
+        <v>19688.666626483122</v>
       </c>
       <c r="I9" t="n">
-        <v>0.12398348456388267</v>
+        <v>1.030642824364642</v>
       </c>
       <c r="J9" t="n">
-        <v>37.483211070398</v>
+        <v>6.376053367871998</v>
       </c>
       <c r="K9" t="n">
-        <v>31.725789849984892</v>
+        <v>5.164603227976317</v>
       </c>
       <c r="L9" t="n">
-        <v>30.076048777785672</v>
+        <v>5.0819695763286985</v>
       </c>
       <c r="M9" t="n">
-        <v>2255.6016175726586</v>
+        <v>3087.908066405378</v>
       </c>
       <c r="N9" t="n">
-        <v>2664.9357485499254</v>
+        <v>3812.2321807473813</v>
       </c>
       <c r="O9" t="n">
-        <v>2811.1136588079385</v>
+        <v>3874.2196958814834</v>
       </c>
     </row>
     <row r="10">
@@ -5708,43 +5708,43 @@
         <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>84.56152783755427</v>
+        <v>2.832751735968759</v>
       </c>
       <c r="D10" t="n">
-        <v>465.87457059013127</v>
+        <v>15.765335424</v>
       </c>
       <c r="E10" t="n">
-        <v>394.31623654748716</v>
+        <v>12.769921693440002</v>
       </c>
       <c r="F10" t="n">
-        <v>373.81179224701776</v>
+        <v>12.565602946344962</v>
       </c>
       <c r="G10" t="n">
-        <v>807520.3100847243</v>
+        <v>38525.42360917512</v>
       </c>
       <c r="H10" t="n">
-        <v>125597.2957445035</v>
+        <v>19422.135679507977</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1841810484516677</v>
+        <v>1.0166907262778395</v>
       </c>
       <c r="J10" t="n">
-        <v>67.07627767513128</v>
+        <v>6.585335424</v>
       </c>
       <c r="K10" t="n">
-        <v>56.773361424231155</v>
+        <v>5.334121693440001</v>
       </c>
       <c r="L10" t="n">
-        <v>53.821146630171086</v>
+        <v>5.248775746344962</v>
       </c>
       <c r="M10" t="n">
-        <v>1872.4547648992313</v>
+        <v>2949.3008979808005</v>
       </c>
       <c r="N10" t="n">
-        <v>2212.257519966009</v>
+        <v>3641.112219729383</v>
       </c>
       <c r="O10" t="n">
-        <v>2333.6049788671003</v>
+        <v>3700.3172964729492</v>
       </c>
     </row>
     <row r="11">
@@ -5755,43 +5755,43 @@
         <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>82.74940158001843</v>
+        <v>2.679045002721155</v>
       </c>
       <c r="D11" t="n">
-        <v>458.5382771936669</v>
+        <v>17.986887958824</v>
       </c>
       <c r="E11" t="n">
-        <v>388.1067978167197</v>
+        <v>14.569379246647442</v>
       </c>
       <c r="F11" t="n">
-        <v>367.9252443302502</v>
+        <v>14.336269178701082</v>
       </c>
       <c r="G11" t="n">
-        <v>790215.410388386</v>
+        <v>36435.01203700771</v>
       </c>
       <c r="H11" t="n">
-        <v>108292.39604816516</v>
+        <v>17331.724107340568</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15880443066280878</v>
+        <v>0.9072639312746072</v>
       </c>
       <c r="J11" t="n">
-        <v>59.739984278666896</v>
+        <v>8.806887958824</v>
       </c>
       <c r="K11" t="n">
-        <v>50.56392269346367</v>
+        <v>7.13357924664744</v>
       </c>
       <c r="L11" t="n">
-        <v>47.934598713403545</v>
+        <v>7.019441978701082</v>
       </c>
       <c r="M11" t="n">
-        <v>1812.7289010157356</v>
+        <v>1967.9737256081667</v>
       </c>
       <c r="N11" t="n">
-        <v>2141.692935982674</v>
+        <v>2429.597192108847</v>
       </c>
       <c r="O11" t="n">
-        <v>2259.1697636948043</v>
+        <v>2469.102837508991</v>
       </c>
     </row>
     <row r="12">
@@ -5802,43 +5802,43 @@
         <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>130.46324519995284</v>
+        <v>7.801422734884719</v>
       </c>
       <c r="D12" t="n">
-        <v>713.5139537518013</v>
+        <v>53.285508754343994</v>
       </c>
       <c r="E12" t="n">
-        <v>603.9182104555247</v>
+        <v>43.16126209101865</v>
       </c>
       <c r="F12" t="n">
-        <v>572.5144635118373</v>
+        <v>42.47068189756234</v>
       </c>
       <c r="G12" t="n">
-        <v>1245858.7600369495</v>
+        <v>106099.34919443217</v>
       </c>
       <c r="H12" t="n">
-        <v>563935.7456967287</v>
+        <v>86996.06126476503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8269786087837965</v>
+        <v>4.5539836694635865</v>
       </c>
       <c r="J12" t="n">
-        <v>314.7156608368013</v>
+        <v>44.105508754343994</v>
       </c>
       <c r="K12" t="n">
-        <v>266.37533533226866</v>
+        <v>35.72546209101865</v>
       </c>
       <c r="L12" t="n">
-        <v>252.52381789499066</v>
+        <v>35.153854697562345</v>
       </c>
       <c r="M12" t="n">
-        <v>1791.8896828879538</v>
+        <v>1972.4534127768495</v>
       </c>
       <c r="N12" t="n">
-        <v>2117.071931578395</v>
+        <v>2435.127670094875</v>
       </c>
       <c r="O12" t="n">
-        <v>2233.1982400615984</v>
+        <v>2474.723241966337</v>
       </c>
     </row>
     <row r="13">
@@ -5849,43 +5849,43 @@
         <v>59</v>
       </c>
       <c r="C13" t="n">
-        <v>80.98435376684209</v>
+        <v>2.660436139041254</v>
       </c>
       <c r="D13" t="n">
-        <v>446.52647261106716</v>
+        <v>17.933586238655998</v>
       </c>
       <c r="E13" t="n">
-        <v>377.9400064180073</v>
+        <v>14.526204853311361</v>
       </c>
       <c r="F13" t="n">
-        <v>358.2871260842709</v>
+        <v>14.29378557565838</v>
       </c>
       <c r="G13" t="n">
-        <v>773360.0862964585</v>
+        <v>36181.931490961055</v>
       </c>
       <c r="H13" t="n">
-        <v>91437.07195623766</v>
+        <v>17078.64356129391</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1340870890604939</v>
+        <v>0.8940159214566938</v>
       </c>
       <c r="J13" t="n">
-        <v>47.72817969606717</v>
+        <v>8.753586238655998</v>
       </c>
       <c r="K13" t="n">
-        <v>40.39713129475126</v>
+        <v>7.09040485331136</v>
       </c>
       <c r="L13" t="n">
-        <v>38.2964804674242</v>
+        <v>6.97695837565838</v>
       </c>
       <c r="M13" t="n">
-        <v>1915.7879587805048</v>
+        <v>1951.045331098048</v>
       </c>
       <c r="N13" t="n">
-        <v>2263.45458268018</v>
+        <v>2408.6979396272195</v>
       </c>
       <c r="O13" t="n">
-        <v>2387.61031928289</v>
+        <v>2447.863759783759</v>
       </c>
     </row>
     <row r="14">
@@ -5896,43 +5896,43 @@
         <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>85.17904085462396</v>
+        <v>2.6609053747372284</v>
       </c>
       <c r="D14" t="n">
-        <v>473.4782582419951</v>
+        <v>17.8047936</v>
       </c>
       <c r="E14" t="n">
-        <v>400.7519977760247</v>
+        <v>14.421882816000004</v>
       </c>
       <c r="F14" t="n">
-        <v>379.91289389167133</v>
+        <v>14.191132690944002</v>
       </c>
       <c r="G14" t="n">
-        <v>813417.2506412315</v>
+        <v>36188.313096426304</v>
       </c>
       <c r="H14" t="n">
-        <v>131494.2363010107</v>
+        <v>17085.02516675916</v>
       </c>
       <c r="I14" t="n">
-        <v>0.192828565007789</v>
+        <v>0.8943499794203671</v>
       </c>
       <c r="J14" t="n">
-        <v>74.6799653269951</v>
+        <v>8.6247936</v>
       </c>
       <c r="K14" t="n">
-        <v>63.20912265276871</v>
+        <v>6.986082816000002</v>
       </c>
       <c r="L14" t="n">
-        <v>59.92224827482465</v>
+        <v>6.8743054909440025</v>
       </c>
       <c r="M14" t="n">
-        <v>1760.7699163389748</v>
+        <v>1980.9198873766854</v>
       </c>
       <c r="N14" t="n">
-        <v>2080.304721572511</v>
+        <v>2445.5801078724503</v>
       </c>
       <c r="O14" t="n">
-        <v>2194.4142632621456</v>
+        <v>2485.3456380817584</v>
       </c>
     </row>
     <row r="15">
@@ -5943,43 +5943,43 @@
         <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>81.86096956564394</v>
+        <v>2.4794692808123724</v>
       </c>
       <c r="D15" t="n">
-        <v>452.13517180262374</v>
+        <v>15.906546696887998</v>
       </c>
       <c r="E15" t="n">
-        <v>382.6872094137407</v>
+        <v>12.884302824479281</v>
       </c>
       <c r="F15" t="n">
-        <v>362.7874745242262</v>
+        <v>12.678153979287613</v>
       </c>
       <c r="G15" t="n">
-        <v>781731.3288671167</v>
+        <v>33720.78221904826</v>
       </c>
       <c r="H15" t="n">
-        <v>99808.31452689588</v>
+        <v>14617.494289381117</v>
       </c>
       <c r="I15" t="n">
-        <v>0.14636302401886692</v>
+        <v>0.765182116460714</v>
       </c>
       <c r="J15" t="n">
-        <v>53.336878887623755</v>
+        <v>6.726546696887999</v>
       </c>
       <c r="K15" t="n">
-        <v>45.144334290484665</v>
+        <v>5.44850282447928</v>
       </c>
       <c r="L15" t="n">
-        <v>42.796828907379506</v>
+        <v>5.361326779287613</v>
       </c>
       <c r="M15" t="n">
-        <v>1871.2814961892213</v>
+        <v>2173.1053017358554</v>
       </c>
       <c r="N15" t="n">
-        <v>2210.871332926778</v>
+        <v>2682.846051525747</v>
       </c>
       <c r="O15" t="n">
-        <v>2332.142756251873</v>
+        <v>2726.4695645586853</v>
       </c>
     </row>
     <row r="16">
@@ -5990,43 +5990,43 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>126.73183073958002</v>
+        <v>6.841558548561527</v>
       </c>
       <c r="D16" t="n">
-        <v>686.6209111094197</v>
+        <v>43.280057923128005</v>
       </c>
       <c r="E16" t="n">
-        <v>581.1559391630128</v>
+        <v>35.056846917733694</v>
       </c>
       <c r="F16" t="n">
-        <v>550.9358303265362</v>
+        <v>34.49593736704995</v>
       </c>
       <c r="G16" t="n">
-        <v>1210225.6176476192</v>
+        <v>93045.19626043677</v>
       </c>
       <c r="H16" t="n">
-        <v>528302.6033073984</v>
+        <v>73941.90833076963</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7747247008792416</v>
+        <v>3.870637798215817</v>
       </c>
       <c r="J16" t="n">
-        <v>287.8226181944197</v>
+        <v>34.100057923128006</v>
       </c>
       <c r="K16" t="n">
-        <v>243.6130640397568</v>
+        <v>27.621046917733693</v>
       </c>
       <c r="L16" t="n">
-        <v>230.94518470968956</v>
+        <v>27.17911016704995</v>
       </c>
       <c r="M16" t="n">
-        <v>1835.5145492788834</v>
+        <v>2168.3807252602733</v>
       </c>
       <c r="N16" t="n">
-        <v>2168.613597919286</v>
+        <v>2677.013241062065</v>
       </c>
       <c r="O16" t="n">
-        <v>2287.567086412748</v>
+        <v>2720.5419116484404</v>
       </c>
     </row>
     <row r="17">
@@ -6037,43 +6037,43 @@
         <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>79.56286254384293</v>
+        <v>2.4323495997169315</v>
       </c>
       <c r="D17" t="n">
-        <v>436.281503985398</v>
+        <v>15.556053367871998</v>
       </c>
       <c r="E17" t="n">
-        <v>369.2686649732409</v>
+        <v>12.600403227976319</v>
       </c>
       <c r="F17" t="n">
-        <v>350.06669439463235</v>
+        <v>12.398796776328698</v>
       </c>
       <c r="G17" t="n">
-        <v>759785.5558624279</v>
+        <v>33079.95455615027</v>
       </c>
       <c r="H17" t="n">
-        <v>77862.54152220709</v>
+        <v>13976.666626483122</v>
       </c>
       <c r="I17" t="n">
-        <v>0.11418083843018735</v>
+        <v>0.7316367045265307</v>
       </c>
       <c r="J17" t="n">
-        <v>37.483211070398</v>
+        <v>6.376053367871998</v>
       </c>
       <c r="K17" t="n">
-        <v>31.725789849984892</v>
+        <v>5.164603227976317</v>
       </c>
       <c r="L17" t="n">
-        <v>30.076048777785672</v>
+        <v>5.0819695763286985</v>
       </c>
       <c r="M17" t="n">
-        <v>2077.2644418316195</v>
+        <v>2192.056091768225</v>
       </c>
       <c r="N17" t="n">
-        <v>2454.234926549643</v>
+        <v>2706.2420886027476</v>
       </c>
       <c r="O17" t="n">
-        <v>2588.855407752789</v>
+        <v>2750.246025002791</v>
       </c>
     </row>
     <row r="18">
@@ -6084,43 +6084,43 @@
         <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>84.12402783755427</v>
+        <v>2.4652517359687587</v>
       </c>
       <c r="D18" t="n">
-        <v>465.87457059013127</v>
+        <v>15.765335424</v>
       </c>
       <c r="E18" t="n">
-        <v>394.31623654748716</v>
+        <v>12.769921693440002</v>
       </c>
       <c r="F18" t="n">
-        <v>373.81179224701776</v>
+        <v>12.565602946344962</v>
       </c>
       <c r="G18" t="n">
-        <v>803342.4038347243</v>
+        <v>33527.42360917512</v>
       </c>
       <c r="H18" t="n">
-        <v>121419.3894945035</v>
+        <v>14424.135679507977</v>
       </c>
       <c r="I18" t="n">
-        <v>0.17805439461810815</v>
+        <v>0.7550603714194922</v>
       </c>
       <c r="J18" t="n">
-        <v>67.07627767513128</v>
+        <v>6.585335424</v>
       </c>
       <c r="K18" t="n">
-        <v>56.773361424231155</v>
+        <v>5.334121693440001</v>
       </c>
       <c r="L18" t="n">
-        <v>53.821146630171086</v>
+        <v>5.248775746344962</v>
       </c>
       <c r="M18" t="n">
-        <v>1810.1688659971674</v>
+        <v>2190.341835427209</v>
       </c>
       <c r="N18" t="n">
-        <v>2138.668319939941</v>
+        <v>2704.1257227496403</v>
       </c>
       <c r="O18" t="n">
-        <v>2255.9792404429777</v>
+        <v>2748.0952466967883</v>
       </c>
     </row>
     <row r="19">
@@ -6131,43 +6131,43 @@
         <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>14.315235531499999</v>
+        <v>1.3224943847366502</v>
       </c>
       <c r="D19" t="n">
-        <v>458.5382771936669</v>
+        <v>17.986887958824</v>
       </c>
       <c r="E19" t="n">
-        <v>388.1067978167197</v>
+        <v>14.569379246647442</v>
       </c>
       <c r="F19" t="n">
-        <v>367.9252443302502</v>
+        <v>14.336269178701082</v>
       </c>
       <c r="G19" t="n">
-        <v>136703.34170805925</v>
+        <v>17985.923632418442</v>
       </c>
       <c r="H19" t="n">
-        <v>26784.13231680925</v>
+        <v>10849.36791606533</v>
       </c>
       <c r="I19" t="n">
-        <v>0.24367107865080198</v>
+        <v>1.5202526747187677</v>
       </c>
       <c r="J19" t="n">
-        <v>59.739984278666896</v>
+        <v>8.806887958824</v>
       </c>
       <c r="K19" t="n">
-        <v>50.56392269346367</v>
+        <v>7.13357924664744</v>
       </c>
       <c r="L19" t="n">
-        <v>47.934598713403545</v>
+        <v>7.019441978701082</v>
       </c>
       <c r="M19" t="n">
-        <v>448.34515174745104</v>
+        <v>1231.91846731681</v>
       </c>
       <c r="N19" t="n">
-        <v>529.7083550891434</v>
+        <v>1520.8869966874195</v>
       </c>
       <c r="O19" t="n">
-        <v>558.7640876467759</v>
+        <v>1545.6168665522553</v>
       </c>
     </row>
     <row r="20">
@@ -6178,43 +6178,43 @@
         <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>25.1321680323</v>
+        <v>4.46148477742096</v>
       </c>
       <c r="D20" t="n">
-        <v>713.5139537518013</v>
+        <v>53.285508754343994</v>
       </c>
       <c r="E20" t="n">
-        <v>603.9182104555247</v>
+        <v>43.16126209101865</v>
       </c>
       <c r="F20" t="n">
-        <v>572.5144635118373</v>
+        <v>42.47068189756234</v>
       </c>
       <c r="G20" t="n">
-        <v>239999.63862444882</v>
+        <v>60676.19297292506</v>
       </c>
       <c r="H20" t="n">
-        <v>130080.42923319883</v>
+        <v>53539.63725657195</v>
       </c>
       <c r="I20" t="n">
-        <v>1.1834185303333682</v>
+        <v>7.50216762602836</v>
       </c>
       <c r="J20" t="n">
-        <v>314.7156608368013</v>
+        <v>44.105508754343994</v>
       </c>
       <c r="K20" t="n">
-        <v>266.37533533226866</v>
+        <v>35.72546209101865</v>
       </c>
       <c r="L20" t="n">
-        <v>252.52381789499066</v>
+        <v>35.153854697562345</v>
       </c>
       <c r="M20" t="n">
-        <v>413.32683885932585</v>
+        <v>1213.8990971575354</v>
       </c>
       <c r="N20" t="n">
-        <v>488.33511207387266</v>
+        <v>1498.640860688315</v>
       </c>
       <c r="O20" t="n">
-        <v>515.1214262382623</v>
+        <v>1523.0090047645479</v>
       </c>
     </row>
     <row r="21">
@@ -6225,43 +6225,43 @@
         <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>14.616840250400001</v>
+        <v>1.3614945128848879</v>
       </c>
       <c r="D21" t="n">
-        <v>446.52647261106716</v>
+        <v>17.933586238655998</v>
       </c>
       <c r="E21" t="n">
-        <v>377.9400064180073</v>
+        <v>14.526204853311361</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2871260842709</v>
+        <v>14.29378557565838</v>
       </c>
       <c r="G21" t="n">
-        <v>139583.5159711948</v>
+        <v>18516.325375234475</v>
       </c>
       <c r="H21" t="n">
-        <v>29664.30657994481</v>
+        <v>11379.769658881363</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2698737258412832</v>
+        <v>1.5945744853928776</v>
       </c>
       <c r="J21" t="n">
-        <v>47.72817969606717</v>
+        <v>8.753586238655998</v>
       </c>
       <c r="K21" t="n">
-        <v>40.39713129475126</v>
+        <v>7.09040485331136</v>
       </c>
       <c r="L21" t="n">
-        <v>38.2964804674242</v>
+        <v>6.97695837565838</v>
       </c>
       <c r="M21" t="n">
-        <v>621.5260411950964</v>
+        <v>1300.0122862362502</v>
       </c>
       <c r="N21" t="n">
-        <v>734.3171564214275</v>
+        <v>1604.9534397978396</v>
       </c>
       <c r="O21" t="n">
-        <v>774.5961565626872</v>
+        <v>1631.0502436969912</v>
       </c>
     </row>
     <row r="22">
@@ -6272,43 +6272,43 @@
         <v>68</v>
       </c>
       <c r="C22" t="n">
-        <v>14.50091517021875</v>
+        <v>1.3218085760337848</v>
       </c>
       <c r="D22" t="n">
-        <v>473.4782582419951</v>
+        <v>17.8047936</v>
       </c>
       <c r="E22" t="n">
-        <v>400.7519977760247</v>
+        <v>14.421882816000004</v>
       </c>
       <c r="F22" t="n">
-        <v>379.91289389167133</v>
+        <v>14.191132690944002</v>
       </c>
       <c r="G22" t="n">
-        <v>138476.48941800394</v>
+        <v>17976.59663405947</v>
       </c>
       <c r="H22" t="n">
-        <v>28557.280026753942</v>
+        <v>10840.04091770636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2598024511357813</v>
+        <v>1.5189457419728216</v>
       </c>
       <c r="J22" t="n">
-        <v>74.6799653269951</v>
+        <v>8.6247936</v>
       </c>
       <c r="K22" t="n">
-        <v>63.20912265276871</v>
+        <v>6.986082816000002</v>
       </c>
       <c r="L22" t="n">
-        <v>59.92224827482465</v>
+        <v>6.8743054909440025</v>
       </c>
       <c r="M22" t="n">
-        <v>382.39546445572785</v>
+        <v>1256.846415165965</v>
       </c>
       <c r="N22" t="n">
-        <v>451.7904825800183</v>
+        <v>1551.6622409456354</v>
       </c>
       <c r="O22" t="n">
-        <v>476.5722390084588</v>
+        <v>1576.8925212862148</v>
       </c>
     </row>
     <row r="23">
@@ -6319,19 +6319,19 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>11.5104675</v>
+        <v>0.5247467438494935</v>
       </c>
       <c r="D23" t="n">
-        <v>398.798292915</v>
+        <v>9.18</v>
       </c>
       <c r="E23" t="n">
-        <v>337.542875123256</v>
+        <v>7.435800000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>319.9906456168467</v>
+        <v>7.3168272</v>
       </c>
       <c r="G23" t="n">
-        <v>109919.20939125</v>
+        <v>7136.555716353112</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -6366,43 +6366,43 @@
         <v>70</v>
       </c>
       <c r="C24" t="n">
-        <v>14.388539010319999</v>
+        <v>1.3223202294840886</v>
       </c>
       <c r="D24" t="n">
-        <v>452.13517180262374</v>
+        <v>15.906546696887998</v>
       </c>
       <c r="E24" t="n">
-        <v>382.6872094137407</v>
+        <v>12.884302824479281</v>
       </c>
       <c r="F24" t="n">
-        <v>362.7874745242262</v>
+        <v>12.678153979287613</v>
       </c>
       <c r="G24" t="n">
-        <v>137403.35327905082</v>
+        <v>17983.555120983605</v>
       </c>
       <c r="H24" t="n">
-        <v>27484.14388780082</v>
+        <v>10846.999404630493</v>
       </c>
       <c r="I24" t="n">
-        <v>0.25003949755472554</v>
+        <v>1.5199207903295784</v>
       </c>
       <c r="J24" t="n">
-        <v>53.336878887623755</v>
+        <v>6.726546696887999</v>
       </c>
       <c r="K24" t="n">
-        <v>45.144334290484665</v>
+        <v>5.44850282447928</v>
       </c>
       <c r="L24" t="n">
-        <v>42.796828907379506</v>
+        <v>5.361326779287613</v>
       </c>
       <c r="M24" t="n">
-        <v>515.2934416299004</v>
+        <v>1612.5658370362314</v>
       </c>
       <c r="N24" t="n">
-        <v>608.8060510750253</v>
+        <v>1990.822021032384</v>
       </c>
       <c r="O24" t="n">
-        <v>642.2004758175365</v>
+        <v>2023.1931108052677</v>
       </c>
     </row>
     <row r="25">
@@ -6413,43 +6413,43 @@
         <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>25.440042643344</v>
+        <v>4.460647173587212</v>
       </c>
       <c r="D25" t="n">
-        <v>686.6209111094197</v>
+        <v>43.280057923128005</v>
       </c>
       <c r="E25" t="n">
-        <v>581.1559391630128</v>
+        <v>35.056846917733694</v>
       </c>
       <c r="F25" t="n">
-        <v>550.9358303265362</v>
+        <v>34.49593736704995</v>
       </c>
       <c r="G25" t="n">
-        <v>242939.68722261355</v>
+        <v>60664.80156078609</v>
       </c>
       <c r="H25" t="n">
-        <v>133020.47783136356</v>
+        <v>53528.245844432975</v>
       </c>
       <c r="I25" t="n">
-        <v>1.2101658897298484</v>
+        <v>7.500571420156546</v>
       </c>
       <c r="J25" t="n">
-        <v>287.8226181944197</v>
+        <v>34.100057923128006</v>
       </c>
       <c r="K25" t="n">
-        <v>243.6130640397568</v>
+        <v>27.621046917733693</v>
       </c>
       <c r="L25" t="n">
-        <v>230.94518470968956</v>
+        <v>27.17911016704995</v>
       </c>
       <c r="M25" t="n">
-        <v>462.1613084678088</v>
+        <v>1569.7406134940318</v>
       </c>
       <c r="N25" t="n">
-        <v>546.0317916680161</v>
+        <v>1937.9513746839893</v>
       </c>
       <c r="O25" t="n">
-        <v>575.9829026033923</v>
+        <v>1969.462779150396</v>
       </c>
     </row>
     <row r="26">
@@ -6460,43 +6460,43 @@
         <v>72</v>
       </c>
       <c r="C26" t="n">
-        <v>14.734125816512002</v>
+        <v>1.3612954783105318</v>
       </c>
       <c r="D26" t="n">
-        <v>436.281503985398</v>
+        <v>15.556053367871998</v>
       </c>
       <c r="E26" t="n">
-        <v>369.2686649732409</v>
+        <v>12.600403227976319</v>
       </c>
       <c r="F26" t="n">
-        <v>350.06669439463235</v>
+        <v>12.398796776328698</v>
       </c>
       <c r="G26" t="n">
-        <v>140703.53448478135</v>
+        <v>18513.61850502323</v>
       </c>
       <c r="H26" t="n">
-        <v>30784.325093531355</v>
+        <v>11377.062788670119</v>
       </c>
       <c r="I26" t="n">
-        <v>0.28006319608756125</v>
+        <v>1.5941951889480896</v>
       </c>
       <c r="J26" t="n">
-        <v>37.483211070398</v>
+        <v>6.376053367871998</v>
       </c>
       <c r="K26" t="n">
-        <v>31.725789849984892</v>
+        <v>5.164603227976317</v>
       </c>
       <c r="L26" t="n">
-        <v>30.076048777785672</v>
+        <v>5.0819695763286985</v>
       </c>
       <c r="M26" t="n">
-        <v>821.2830281726577</v>
+        <v>1784.3424658265058</v>
       </c>
       <c r="N26" t="n">
-        <v>970.3249387673169</v>
+        <v>2202.8919331191437</v>
       </c>
       <c r="O26" t="n">
-        <v>1023.549513467634</v>
+        <v>2238.71131414547</v>
       </c>
     </row>
     <row r="27">
@@ -6507,43 +6507,43 @@
         <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>14.5879630513175</v>
+        <v>1.3216378432986184</v>
       </c>
       <c r="D27" t="n">
-        <v>465.87457059013127</v>
+        <v>15.765335424</v>
       </c>
       <c r="E27" t="n">
-        <v>394.31623654748716</v>
+        <v>12.769921693440002</v>
       </c>
       <c r="F27" t="n">
-        <v>373.81179224701776</v>
+        <v>12.565602946344962</v>
       </c>
       <c r="G27" t="n">
-        <v>139307.75315855644</v>
+        <v>17974.27466886121</v>
       </c>
       <c r="H27" t="n">
-        <v>29388.543767306444</v>
+        <v>10837.718952508098</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2673649485841907</v>
+        <v>1.5186203798106597</v>
       </c>
       <c r="J27" t="n">
-        <v>67.07627767513128</v>
+        <v>6.585335424</v>
       </c>
       <c r="K27" t="n">
-        <v>56.773361424231155</v>
+        <v>5.334121693440001</v>
       </c>
       <c r="L27" t="n">
-        <v>53.821146630171086</v>
+        <v>5.248775746344962</v>
       </c>
       <c r="M27" t="n">
-        <v>438.13617549923066</v>
+        <v>1645.7352974019288</v>
       </c>
       <c r="N27" t="n">
-        <v>517.6467101834007</v>
+        <v>2031.7719721011463</v>
       </c>
       <c r="O27" t="n">
-        <v>546.0408335267945</v>
+        <v>2064.808914736937</v>
       </c>
     </row>
     <row r="28">
@@ -6554,43 +6554,43 @@
         <v>74</v>
       </c>
       <c r="C28" t="n">
-        <v>13.877735531499999</v>
+        <v>0.9549943847366502</v>
       </c>
       <c r="D28" t="n">
-        <v>458.5382771936669</v>
+        <v>17.986887958824</v>
       </c>
       <c r="E28" t="n">
-        <v>388.1067978167197</v>
+        <v>14.569379246647442</v>
       </c>
       <c r="F28" t="n">
-        <v>367.9252443302502</v>
+        <v>14.336269178701082</v>
       </c>
       <c r="G28" t="n">
-        <v>132525.43545805925</v>
+        <v>12987.923632418444</v>
       </c>
       <c r="H28" t="n">
-        <v>22606.22606680925</v>
+        <v>5851.367916065332</v>
       </c>
       <c r="I28" t="n">
-        <v>0.20566219673527594</v>
+        <v>0.8199148368809303</v>
       </c>
       <c r="J28" t="n">
-        <v>59.739984278666896</v>
+        <v>8.806887958824</v>
       </c>
       <c r="K28" t="n">
-        <v>50.56392269346367</v>
+        <v>7.13357924664744</v>
       </c>
       <c r="L28" t="n">
-        <v>47.934598713403545</v>
+        <v>7.019441978701082</v>
       </c>
       <c r="M28" t="n">
-        <v>378.41031161573164</v>
+        <v>664.4081250292954</v>
       </c>
       <c r="N28" t="n">
-        <v>447.08212620006094</v>
+        <v>820.2569444806115</v>
       </c>
       <c r="O28" t="n">
-        <v>471.60561835449477</v>
+        <v>833.594455772979</v>
       </c>
     </row>
     <row r="29">
@@ -6601,43 +6601,43 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>23.2946680323</v>
+        <v>2.69398477742096</v>
       </c>
       <c r="D29" t="n">
-        <v>713.5139537518013</v>
+        <v>53.285508754343994</v>
       </c>
       <c r="E29" t="n">
-        <v>603.9182104555247</v>
+        <v>43.16126209101865</v>
       </c>
       <c r="F29" t="n">
-        <v>572.5144635118373</v>
+        <v>42.47068189756234</v>
       </c>
       <c r="G29" t="n">
-        <v>222452.43237444884</v>
+        <v>36638.192972925055</v>
       </c>
       <c r="H29" t="n">
-        <v>112533.22298319884</v>
+        <v>29501.637256571943</v>
       </c>
       <c r="I29" t="n">
-        <v>1.023781226288159</v>
+        <v>4.133876120236853</v>
       </c>
       <c r="J29" t="n">
-        <v>314.7156608368013</v>
+        <v>44.105508754343994</v>
       </c>
       <c r="K29" t="n">
-        <v>266.37533533226866</v>
+        <v>35.72546209101865</v>
       </c>
       <c r="L29" t="n">
-        <v>252.52381789499066</v>
+        <v>35.153854697562345</v>
       </c>
       <c r="M29" t="n">
-        <v>357.57109348795314</v>
+        <v>668.8878121979785</v>
       </c>
       <c r="N29" t="n">
-        <v>422.4611217957858</v>
+        <v>825.7874224666398</v>
       </c>
       <c r="O29" t="n">
-        <v>445.6340947212931</v>
+        <v>839.2148602303251</v>
       </c>
     </row>
     <row r="30">
@@ -6648,43 +6648,43 @@
         <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>13.9168402504</v>
+        <v>0.9414945128848878</v>
       </c>
       <c r="D30" t="n">
-        <v>446.52647261106716</v>
+        <v>17.933586238655998</v>
       </c>
       <c r="E30" t="n">
-        <v>377.9400064180073</v>
+        <v>14.526204853311361</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2871260842709</v>
+        <v>14.29378557565838</v>
       </c>
       <c r="G30" t="n">
-        <v>132898.86597119478</v>
+        <v>12804.325375234475</v>
       </c>
       <c r="H30" t="n">
-        <v>22979.656579944785</v>
+        <v>5667.769658881363</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2090595147764414</v>
+        <v>0.7941883850067774</v>
       </c>
       <c r="J30" t="n">
-        <v>47.72817969606717</v>
+        <v>8.753586238655998</v>
       </c>
       <c r="K30" t="n">
-        <v>40.39713129475126</v>
+        <v>7.09040485331136</v>
       </c>
       <c r="L30" t="n">
-        <v>38.2964804674242</v>
+        <v>6.97695837565838</v>
       </c>
       <c r="M30" t="n">
-        <v>481.46936938050294</v>
+        <v>647.4797305191771</v>
       </c>
       <c r="N30" t="n">
-        <v>568.8437728975696</v>
+        <v>799.357691998984</v>
       </c>
       <c r="O30" t="n">
-        <v>600.0461739425838</v>
+        <v>812.3553780477478</v>
       </c>
     </row>
     <row r="31">
@@ -6695,43 +6695,43 @@
         <v>77</v>
       </c>
       <c r="C31" t="n">
-        <v>14.06341517021875</v>
+        <v>0.9543085760337847</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4782582419951</v>
+        <v>17.8047936</v>
       </c>
       <c r="E31" t="n">
-        <v>400.7519977760247</v>
+        <v>14.421882816000004</v>
       </c>
       <c r="F31" t="n">
-        <v>379.91289389167133</v>
+        <v>14.191132690944002</v>
       </c>
       <c r="G31" t="n">
-        <v>134298.58316800394</v>
+        <v>12978.596634059473</v>
       </c>
       <c r="H31" t="n">
-        <v>24379.373776753942</v>
+        <v>5842.040917706361</v>
       </c>
       <c r="I31" t="n">
-        <v>0.22179356922025528</v>
+        <v>0.8186079041349841</v>
       </c>
       <c r="J31" t="n">
-        <v>74.6799653269951</v>
+        <v>8.6247936</v>
       </c>
       <c r="K31" t="n">
-        <v>63.20912265276871</v>
+        <v>6.986082816000002</v>
       </c>
       <c r="L31" t="n">
-        <v>59.92224827482465</v>
+        <v>6.8743054909440025</v>
       </c>
       <c r="M31" t="n">
-        <v>326.4513269389716</v>
+        <v>677.3542867978152</v>
       </c>
       <c r="N31" t="n">
-        <v>385.69391178989997</v>
+        <v>836.2398602442161</v>
       </c>
       <c r="O31" t="n">
-        <v>406.850117921836</v>
+        <v>849.837256345748</v>
       </c>
     </row>
     <row r="32">
@@ -6742,43 +6742,43 @@
         <v>78</v>
       </c>
       <c r="C32" t="n">
-        <v>13.951039010319999</v>
+        <v>0.9548202294840886</v>
       </c>
       <c r="D32" t="n">
-        <v>452.13517180262374</v>
+        <v>15.906546696887998</v>
       </c>
       <c r="E32" t="n">
-        <v>382.6872094137407</v>
+        <v>12.884302824479281</v>
       </c>
       <c r="F32" t="n">
-        <v>362.7874745242262</v>
+        <v>12.678153979287613</v>
       </c>
       <c r="G32" t="n">
-        <v>133225.44702905082</v>
+        <v>12985.555120983605</v>
       </c>
       <c r="H32" t="n">
-        <v>23306.23763780082</v>
+        <v>5848.999404630493</v>
       </c>
       <c r="I32" t="n">
-        <v>0.21203061563919953</v>
+        <v>0.8195829524917406</v>
       </c>
       <c r="J32" t="n">
-        <v>53.336878887623755</v>
+        <v>6.726546696887999</v>
       </c>
       <c r="K32" t="n">
-        <v>45.144334290484665</v>
+        <v>5.44850282447928</v>
       </c>
       <c r="L32" t="n">
-        <v>42.796828907379506</v>
+        <v>5.361326779287613</v>
       </c>
       <c r="M32" t="n">
-        <v>436.9629067892231</v>
+        <v>869.5397011569846</v>
       </c>
       <c r="N32" t="n">
-        <v>516.2605231441681</v>
+        <v>1073.5058038975117</v>
       </c>
       <c r="O32" t="n">
-        <v>544.5786109115692</v>
+        <v>1090.9611828226741</v>
       </c>
     </row>
     <row r="33">
@@ -6789,43 +6789,43 @@
         <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>23.602542643344</v>
+        <v>2.693147173587212</v>
       </c>
       <c r="D33" t="n">
-        <v>686.6209111094197</v>
+        <v>43.280057923128005</v>
       </c>
       <c r="E33" t="n">
-        <v>581.1559391630128</v>
+        <v>35.056846917733694</v>
       </c>
       <c r="F33" t="n">
-        <v>550.9358303265362</v>
+        <v>34.49593736704995</v>
       </c>
       <c r="G33" t="n">
-        <v>225392.48097261353</v>
+        <v>36626.80156078608</v>
       </c>
       <c r="H33" t="n">
-        <v>115473.27158136353</v>
+        <v>29490.245844432968</v>
       </c>
       <c r="I33" t="n">
-        <v>1.050528585684639</v>
+        <v>4.132279914365039</v>
       </c>
       <c r="J33" t="n">
-        <v>287.8226181944197</v>
+        <v>34.100057923128006</v>
       </c>
       <c r="K33" t="n">
-        <v>243.6130640397568</v>
+        <v>27.621046917733693</v>
       </c>
       <c r="L33" t="n">
-        <v>230.94518470968956</v>
+        <v>27.17911016704995</v>
       </c>
       <c r="M33" t="n">
-        <v>401.19595987888323</v>
+        <v>864.8151246814017</v>
       </c>
       <c r="N33" t="n">
-        <v>474.0027881366768</v>
+        <v>1067.6729934338289</v>
       </c>
       <c r="O33" t="n">
-        <v>500.00294107244366</v>
+        <v>1085.033529912428</v>
       </c>
     </row>
     <row r="34">
@@ -6836,43 +6836,43 @@
         <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>14.034125816512002</v>
+        <v>0.9412954783105317</v>
       </c>
       <c r="D34" t="n">
-        <v>436.281503985398</v>
+        <v>15.556053367871998</v>
       </c>
       <c r="E34" t="n">
-        <v>369.2686649732409</v>
+        <v>12.600403227976319</v>
       </c>
       <c r="F34" t="n">
-        <v>350.06669439463235</v>
+        <v>12.398796776328698</v>
       </c>
       <c r="G34" t="n">
-        <v>134018.88448478136</v>
+        <v>12801.618505023233</v>
       </c>
       <c r="H34" t="n">
-        <v>24099.67509353136</v>
+        <v>5665.06278867012</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2192489850227197</v>
+        <v>0.7938090885619896</v>
       </c>
       <c r="J34" t="n">
-        <v>37.483211070398</v>
+        <v>6.376053367871998</v>
       </c>
       <c r="K34" t="n">
-        <v>31.725789849984892</v>
+        <v>5.164603227976317</v>
       </c>
       <c r="L34" t="n">
-        <v>30.076048777785672</v>
+        <v>5.0819695763286985</v>
       </c>
       <c r="M34" t="n">
-        <v>642.9458524316195</v>
+        <v>888.4904911893531</v>
       </c>
       <c r="N34" t="n">
-        <v>759.6241167670357</v>
+        <v>1096.9018409745102</v>
       </c>
       <c r="O34" t="n">
-        <v>801.2912624124851</v>
+        <v>1114.7376432667782</v>
       </c>
     </row>
     <row r="35">
@@ -6883,43 +6883,43 @@
         <v>81</v>
       </c>
       <c r="C35" t="n">
-        <v>14.1504630513175</v>
+        <v>0.9541378432986183</v>
       </c>
       <c r="D35" t="n">
-        <v>465.87457059013127</v>
+        <v>15.765335424</v>
       </c>
       <c r="E35" t="n">
-        <v>394.31623654748716</v>
+        <v>12.769921693440002</v>
       </c>
       <c r="F35" t="n">
-        <v>373.81179224701776</v>
+        <v>12.565602946344962</v>
       </c>
       <c r="G35" t="n">
-        <v>135129.84690855644</v>
+        <v>12976.27466886121</v>
       </c>
       <c r="H35" t="n">
-        <v>25210.637517306444</v>
+        <v>5839.718952508098</v>
       </c>
       <c r="I35" t="n">
-        <v>0.22935606666866465</v>
+        <v>0.8182825419728219</v>
       </c>
       <c r="J35" t="n">
-        <v>67.07627767513128</v>
+        <v>6.585335424</v>
       </c>
       <c r="K35" t="n">
-        <v>56.773361424231155</v>
+        <v>5.334121693440001</v>
       </c>
       <c r="L35" t="n">
-        <v>53.821146630171086</v>
+        <v>5.248775746344962</v>
       </c>
       <c r="M35" t="n">
-        <v>375.8502765971666</v>
+        <v>886.776234848337</v>
       </c>
       <c r="N35" t="n">
-        <v>444.0575101573327</v>
+        <v>1094.7854751214036</v>
       </c>
       <c r="O35" t="n">
-        <v>468.415095102672</v>
+        <v>1112.5868649607758</v>
       </c>
     </row>
   </sheetData>
